--- a/books/carbomica_progbook_mt-darwin_hosp_ZW.xlsx
+++ b/books/carbomica_progbook_mt-darwin_hosp_ZW.xlsx
@@ -1581,7 +1581,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1594,15 +1594,9 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="3.85546875" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
         <v>energy_led</v>
@@ -1621,28 +1615,10 @@
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2">
-        <v>2024</v>
-      </c>
-      <c r="H1" s="2">
-        <v>2025</v>
-      </c>
-      <c r="I1" s="2">
-        <v>2026</v>
-      </c>
-      <c r="J1" s="2">
-        <v>2027</v>
-      </c>
-      <c r="K1" s="2">
-        <v>2028</v>
-      </c>
-      <c r="L1" s="2">
-        <v>2029</v>
-      </c>
-      <c r="M1" s="2">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -1657,14 +1633,8 @@
       <c r="G2" s="5">
         <v>1E-16</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -1679,14 +1649,8 @@
         <v>37</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -1701,14 +1665,8 @@
         <v>37</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
@@ -1721,14 +1679,8 @@
         <v>37</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>44</v>
       </c>
@@ -1743,14 +1695,8 @@
         <v>37</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
         <v>low_emit_mat</v>
@@ -1769,28 +1715,10 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>2024</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2025</v>
-      </c>
-      <c r="I8" s="2">
-        <v>2026</v>
-      </c>
-      <c r="J8" s="2">
-        <v>2027</v>
-      </c>
-      <c r="K8" s="2">
-        <v>2028</v>
-      </c>
-      <c r="L8" s="2">
-        <v>2029</v>
-      </c>
-      <c r="M8" s="2">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -1805,14 +1733,8 @@
       <c r="G9" s="5">
         <v>1E-16</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -1827,14 +1749,8 @@
         <v>37</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13">
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
@@ -1849,14 +1765,8 @@
         <v>37</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
@@ -1869,14 +1779,8 @@
         <v>37</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -1891,14 +1795,8 @@
         <v>37</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="15" spans="1:13">
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
         <v>electric_cars</v>
@@ -1917,28 +1815,10 @@
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>2024</v>
-      </c>
-      <c r="H15" s="2">
-        <v>2025</v>
-      </c>
-      <c r="I15" s="2">
-        <v>2026</v>
-      </c>
-      <c r="J15" s="2">
-        <v>2027</v>
-      </c>
-      <c r="K15" s="2">
-        <v>2028</v>
-      </c>
-      <c r="L15" s="2">
-        <v>2029</v>
-      </c>
-      <c r="M15" s="2">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
@@ -1953,14 +1833,8 @@
       <c r="G16" s="5">
         <v>1E-16</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-    </row>
-    <row r="17" spans="1:13">
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
@@ -1975,14 +1849,8 @@
         <v>37</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="1:13">
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
@@ -1997,14 +1865,8 @@
         <v>37</v>
       </c>
       <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="1:13">
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
@@ -2017,14 +1879,8 @@
         <v>37</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13">
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>44</v>
       </c>
@@ -2039,14 +1895,8 @@
         <v>37</v>
       </c>
       <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-    </row>
-    <row r="22" spans="1:13">
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
         <v>low_emit_gas</v>
@@ -2065,28 +1915,10 @@
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <v>2024</v>
-      </c>
-      <c r="H22" s="2">
-        <v>2025</v>
-      </c>
-      <c r="I22" s="2">
-        <v>2026</v>
-      </c>
-      <c r="J22" s="2">
-        <v>2027</v>
-      </c>
-      <c r="K22" s="2">
-        <v>2028</v>
-      </c>
-      <c r="L22" s="2">
-        <v>2029</v>
-      </c>
-      <c r="M22" s="2">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
@@ -2101,14 +1933,8 @@
       <c r="G23" s="5">
         <v>1E-16</v>
       </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-    </row>
-    <row r="24" spans="1:13">
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
         <v>38</v>
       </c>
@@ -2123,14 +1949,8 @@
         <v>37</v>
       </c>
       <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-    </row>
-    <row r="25" spans="1:13">
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
         <v>40</v>
       </c>
@@ -2145,14 +1965,8 @@
         <v>37</v>
       </c>
       <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-    </row>
-    <row r="26" spans="1:13">
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
         <v>42</v>
       </c>
@@ -2165,14 +1979,8 @@
         <v>37</v>
       </c>
       <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-    </row>
-    <row r="27" spans="1:13">
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
         <v>44</v>
       </c>
@@ -2187,14 +1995,8 @@
         <v>37</v>
       </c>
       <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-    </row>
-    <row r="29" spans="1:13">
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
         <v>borehole_water</v>
@@ -2213,28 +2015,10 @@
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2">
-        <v>2024</v>
-      </c>
-      <c r="H29" s="2">
-        <v>2025</v>
-      </c>
-      <c r="I29" s="2">
-        <v>2026</v>
-      </c>
-      <c r="J29" s="2">
-        <v>2027</v>
-      </c>
-      <c r="K29" s="2">
-        <v>2028</v>
-      </c>
-      <c r="L29" s="2">
-        <v>2029</v>
-      </c>
-      <c r="M29" s="2">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
@@ -2249,14 +2033,8 @@
       <c r="G30" s="5">
         <v>1E-16</v>
       </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-    </row>
-    <row r="31" spans="1:13">
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
@@ -2271,14 +2049,8 @@
         <v>37</v>
       </c>
       <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-    </row>
-    <row r="32" spans="1:13">
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
@@ -2293,14 +2065,8 @@
         <v>37</v>
       </c>
       <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-    </row>
-    <row r="33" spans="1:13">
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
         <v>42</v>
       </c>
@@ -2313,14 +2079,8 @@
         <v>37</v>
       </c>
       <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-    </row>
-    <row r="34" spans="1:13">
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
         <v>44</v>
       </c>
@@ -2335,14 +2095,8 @@
         <v>37</v>
       </c>
       <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-    </row>
-    <row r="36" spans="1:13">
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
         <v>recycle</v>
@@ -2361,28 +2115,10 @@
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2">
-        <v>2024</v>
-      </c>
-      <c r="H36" s="2">
-        <v>2025</v>
-      </c>
-      <c r="I36" s="2">
-        <v>2026</v>
-      </c>
-      <c r="J36" s="2">
-        <v>2027</v>
-      </c>
-      <c r="K36" s="2">
-        <v>2028</v>
-      </c>
-      <c r="L36" s="2">
-        <v>2029</v>
-      </c>
-      <c r="M36" s="2">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -2397,14 +2133,8 @@
       <c r="G37" s="5">
         <v>1E-16</v>
       </c>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-    </row>
-    <row r="38" spans="1:13">
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -2419,14 +2149,8 @@
         <v>37</v>
       </c>
       <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-    </row>
-    <row r="39" spans="1:13">
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
@@ -2441,14 +2165,8 @@
         <v>37</v>
       </c>
       <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-    </row>
-    <row r="40" spans="1:13">
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
@@ -2461,14 +2179,8 @@
         <v>37</v>
       </c>
       <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-    </row>
-    <row r="41" spans="1:13">
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
         <v>44</v>
       </c>
@@ -2483,14 +2195,8 @@
         <v>37</v>
       </c>
       <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-    </row>
-    <row r="43" spans="1:13">
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
         <v>low_emit_inhale</v>
@@ -2509,28 +2215,10 @@
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2">
-        <v>2024</v>
-      </c>
-      <c r="H43" s="2">
-        <v>2025</v>
-      </c>
-      <c r="I43" s="2">
-        <v>2026</v>
-      </c>
-      <c r="J43" s="2">
-        <v>2027</v>
-      </c>
-      <c r="K43" s="2">
-        <v>2028</v>
-      </c>
-      <c r="L43" s="2">
-        <v>2029</v>
-      </c>
-      <c r="M43" s="2">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
         <v>35</v>
       </c>
@@ -2545,14 +2233,8 @@
       <c r="G44" s="5">
         <v>1E-16</v>
       </c>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-    </row>
-    <row r="45" spans="1:13">
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
         <v>38</v>
       </c>
@@ -2567,14 +2249,8 @@
         <v>37</v>
       </c>
       <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-    </row>
-    <row r="46" spans="1:13">
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
         <v>40</v>
       </c>
@@ -2589,14 +2265,8 @@
         <v>37</v>
       </c>
       <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-    </row>
-    <row r="47" spans="1:13">
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
         <v>42</v>
       </c>
@@ -2609,14 +2279,8 @@
         <v>37</v>
       </c>
       <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-    </row>
-    <row r="48" spans="1:13">
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="2" t="s">
         <v>44</v>
       </c>
@@ -2631,14 +2295,8 @@
         <v>37</v>
       </c>
       <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-    </row>
-    <row r="50" spans="1:13">
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
         <v>local_procure</v>
@@ -2657,28 +2315,10 @@
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2">
-        <v>2024</v>
-      </c>
-      <c r="H50" s="2">
-        <v>2025</v>
-      </c>
-      <c r="I50" s="2">
-        <v>2026</v>
-      </c>
-      <c r="J50" s="2">
-        <v>2027</v>
-      </c>
-      <c r="K50" s="2">
-        <v>2028</v>
-      </c>
-      <c r="L50" s="2">
-        <v>2029</v>
-      </c>
-      <c r="M50" s="2">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
         <v>35</v>
       </c>
@@ -2693,14 +2333,8 @@
       <c r="G51" s="5">
         <v>1E-16</v>
       </c>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-    </row>
-    <row r="52" spans="1:13">
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
         <v>38</v>
       </c>
@@ -2715,14 +2349,8 @@
         <v>37</v>
       </c>
       <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-    </row>
-    <row r="53" spans="1:13">
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
         <v>40</v>
       </c>
@@ -2737,14 +2365,8 @@
         <v>37</v>
       </c>
       <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-    </row>
-    <row r="54" spans="1:13">
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
@@ -2757,14 +2379,8 @@
         <v>37</v>
       </c>
       <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-    </row>
-    <row r="55" spans="1:13">
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
         <v>44</v>
       </c>
@@ -2779,332 +2395,326 @@
         <v>37</v>
       </c>
       <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E10">
     <cfRule type="expression" dxfId="1" priority="13">
-      <formula>COUNTIF(G10:M10,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G10:G10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="14">
-      <formula>AND(COUNTIF(G10:M10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E10)))</formula>
+      <formula>AND(COUNTIF(G10:G10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
     <cfRule type="expression" dxfId="1" priority="15">
-      <formula>COUNTIF(G11:M11,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G11:G11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="16">
-      <formula>AND(COUNTIF(G11:M11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E11)))</formula>
+      <formula>AND(COUNTIF(G11:G11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
     <cfRule type="expression" dxfId="1" priority="17">
-      <formula>COUNTIF(G12:M12,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G12:G12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="18">
-      <formula>AND(COUNTIF(G12:M12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E12)))</formula>
+      <formula>AND(COUNTIF(G12:G12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
     <cfRule type="expression" dxfId="1" priority="19">
-      <formula>COUNTIF(G13:M13,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G13:G13,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="20">
-      <formula>AND(COUNTIF(G13:M13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E13)))</formula>
+      <formula>AND(COUNTIF(G13:G13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
     <cfRule type="expression" dxfId="1" priority="21">
-      <formula>COUNTIF(G16:M16,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G16:G16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="22">
-      <formula>AND(COUNTIF(G16:M16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E16)))</formula>
+      <formula>AND(COUNTIF(G16:G16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
     <cfRule type="expression" dxfId="1" priority="23">
-      <formula>COUNTIF(G17:M17,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G17:G17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="24">
-      <formula>AND(COUNTIF(G17:M17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E17)))</formula>
+      <formula>AND(COUNTIF(G17:G17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
     <cfRule type="expression" dxfId="1" priority="25">
-      <formula>COUNTIF(G18:M18,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G18:G18,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="26">
-      <formula>AND(COUNTIF(G18:M18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E18)))</formula>
+      <formula>AND(COUNTIF(G18:G18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
     <cfRule type="expression" dxfId="1" priority="27">
-      <formula>COUNTIF(G19:M19,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G19:G19,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="28">
-      <formula>AND(COUNTIF(G19:M19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E19)))</formula>
+      <formula>AND(COUNTIF(G19:G19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>COUNTIF(G2:M2,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="2">
-      <formula>AND(COUNTIF(G2:M2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
+      <formula>AND(COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
     <cfRule type="expression" dxfId="1" priority="29">
-      <formula>COUNTIF(G20:M20,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G20:G20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="30">
-      <formula>AND(COUNTIF(G20:M20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E20)))</formula>
+      <formula>AND(COUNTIF(G20:G20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
     <cfRule type="expression" dxfId="1" priority="31">
-      <formula>COUNTIF(G23:M23,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G23:G23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="32">
-      <formula>AND(COUNTIF(G23:M23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E23)))</formula>
+      <formula>AND(COUNTIF(G23:G23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
     <cfRule type="expression" dxfId="1" priority="33">
-      <formula>COUNTIF(G24:M24,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G24:G24,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="34">
-      <formula>AND(COUNTIF(G24:M24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E24)))</formula>
+      <formula>AND(COUNTIF(G24:G24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
     <cfRule type="expression" dxfId="1" priority="35">
-      <formula>COUNTIF(G25:M25,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G25:G25,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="36">
-      <formula>AND(COUNTIF(G25:M25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E25)))</formula>
+      <formula>AND(COUNTIF(G25:G25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
     <cfRule type="expression" dxfId="1" priority="37">
-      <formula>COUNTIF(G26:M26,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G26:G26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="38">
-      <formula>AND(COUNTIF(G26:M26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E26)))</formula>
+      <formula>AND(COUNTIF(G26:G26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
     <cfRule type="expression" dxfId="1" priority="39">
-      <formula>COUNTIF(G27:M27,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G27:G27,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="40">
-      <formula>AND(COUNTIF(G27:M27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E27)))</formula>
+      <formula>AND(COUNTIF(G27:G27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>COUNTIF(G3:M3,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>AND(COUNTIF(G3:M3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E3)))</formula>
+      <formula>AND(COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
     <cfRule type="expression" dxfId="1" priority="41">
-      <formula>COUNTIF(G30:M30,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G30:G30,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="42">
-      <formula>AND(COUNTIF(G30:M30,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E30)))</formula>
+      <formula>AND(COUNTIF(G30:G30,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
     <cfRule type="expression" dxfId="1" priority="43">
-      <formula>COUNTIF(G31:M31,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G31:G31,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="44">
-      <formula>AND(COUNTIF(G31:M31,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E31)))</formula>
+      <formula>AND(COUNTIF(G31:G31,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
     <cfRule type="expression" dxfId="1" priority="45">
-      <formula>COUNTIF(G32:M32,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G32:G32,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="46">
-      <formula>AND(COUNTIF(G32:M32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E32)))</formula>
+      <formula>AND(COUNTIF(G32:G32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
     <cfRule type="expression" dxfId="1" priority="47">
-      <formula>COUNTIF(G33:M33,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G33:G33,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="48">
-      <formula>AND(COUNTIF(G33:M33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E33)))</formula>
+      <formula>AND(COUNTIF(G33:G33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
     <cfRule type="expression" dxfId="1" priority="49">
-      <formula>COUNTIF(G34:M34,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G34:G34,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="50">
-      <formula>AND(COUNTIF(G34:M34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E34)))</formula>
+      <formula>AND(COUNTIF(G34:G34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
     <cfRule type="expression" dxfId="1" priority="51">
-      <formula>COUNTIF(G37:M37,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G37:G37,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="52">
-      <formula>AND(COUNTIF(G37:M37,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E37)))</formula>
+      <formula>AND(COUNTIF(G37:G37,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
     <cfRule type="expression" dxfId="1" priority="53">
-      <formula>COUNTIF(G38:M38,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G38:G38,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="54">
-      <formula>AND(COUNTIF(G38:M38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E38)))</formula>
+      <formula>AND(COUNTIF(G38:G38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
     <cfRule type="expression" dxfId="1" priority="55">
-      <formula>COUNTIF(G39:M39,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G39:G39,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="56">
-      <formula>AND(COUNTIF(G39:M39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E39)))</formula>
+      <formula>AND(COUNTIF(G39:G39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>COUNTIF(G4:M4,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="6">
-      <formula>AND(COUNTIF(G4:M4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E4)))</formula>
+      <formula>AND(COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
     <cfRule type="expression" dxfId="1" priority="57">
-      <formula>COUNTIF(G40:M40,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G40:G40,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="58">
-      <formula>AND(COUNTIF(G40:M40,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E40)))</formula>
+      <formula>AND(COUNTIF(G40:G40,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
     <cfRule type="expression" dxfId="1" priority="59">
-      <formula>COUNTIF(G41:M41,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G41:G41,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="60">
-      <formula>AND(COUNTIF(G41:M41,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E41)))</formula>
+      <formula>AND(COUNTIF(G41:G41,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
     <cfRule type="expression" dxfId="1" priority="61">
-      <formula>COUNTIF(G44:M44,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G44:G44,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="62">
-      <formula>AND(COUNTIF(G44:M44,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E44)))</formula>
+      <formula>AND(COUNTIF(G44:G44,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
     <cfRule type="expression" dxfId="1" priority="63">
-      <formula>COUNTIF(G45:M45,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G45:G45,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="64">
-      <formula>AND(COUNTIF(G45:M45,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E45)))</formula>
+      <formula>AND(COUNTIF(G45:G45,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
     <cfRule type="expression" dxfId="1" priority="65">
-      <formula>COUNTIF(G46:M46,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G46:G46,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="66">
-      <formula>AND(COUNTIF(G46:M46,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E46)))</formula>
+      <formula>AND(COUNTIF(G46:G46,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
     <cfRule type="expression" dxfId="1" priority="67">
-      <formula>COUNTIF(G47:M47,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G47:G47,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="68">
-      <formula>AND(COUNTIF(G47:M47,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E47)))</formula>
+      <formula>AND(COUNTIF(G47:G47,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
     <cfRule type="expression" dxfId="1" priority="69">
-      <formula>COUNTIF(G48:M48,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G48:G48,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="70">
-      <formula>AND(COUNTIF(G48:M48,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E48)))</formula>
+      <formula>AND(COUNTIF(G48:G48,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>COUNTIF(G5:M5,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="8">
-      <formula>AND(COUNTIF(G5:M5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E5)))</formula>
+      <formula>AND(COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
     <cfRule type="expression" dxfId="1" priority="71">
-      <formula>COUNTIF(G51:M51,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G51:G51,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="72">
-      <formula>AND(COUNTIF(G51:M51,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E51)))</formula>
+      <formula>AND(COUNTIF(G51:G51,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
     <cfRule type="expression" dxfId="1" priority="73">
-      <formula>COUNTIF(G52:M52,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G52:G52,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="74">
-      <formula>AND(COUNTIF(G52:M52,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E52)))</formula>
+      <formula>AND(COUNTIF(G52:G52,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
     <cfRule type="expression" dxfId="1" priority="75">
-      <formula>COUNTIF(G53:M53,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G53:G53,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="76">
-      <formula>AND(COUNTIF(G53:M53,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E53)))</formula>
+      <formula>AND(COUNTIF(G53:G53,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
     <cfRule type="expression" dxfId="1" priority="77">
-      <formula>COUNTIF(G54:M54,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G54:G54,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="78">
-      <formula>AND(COUNTIF(G54:M54,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E54)))</formula>
+      <formula>AND(COUNTIF(G54:G54,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
     <cfRule type="expression" dxfId="1" priority="79">
-      <formula>COUNTIF(G55:M55,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G55:G55,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="80">
-      <formula>AND(COUNTIF(G55:M55,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E55)))</formula>
+      <formula>AND(COUNTIF(G55:G55,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
     <cfRule type="expression" dxfId="1" priority="9">
-      <formula>COUNTIF(G6:M6,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="10">
-      <formula>AND(COUNTIF(G6:M6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E6)))</formula>
+      <formula>AND(COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
     <cfRule type="expression" dxfId="1" priority="11">
-      <formula>COUNTIF(G9:M9,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="12">
-      <formula>AND(COUNTIF(G9:M9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E9)))</formula>
+      <formula>AND(COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">

--- a/books/carbomica_progbook_mt-darwin_hosp_ZW.xlsx
+++ b/books/carbomica_progbook_mt-darwin_hosp_ZW.xlsx
@@ -1,17 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\carbomica\books\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62208EDE-0431-4DA6-BAA0-74F74AEE5D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
     <sheet name="Spending data" sheetId="2" r:id="rId2"/>
     <sheet name="Program effects" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -171,8 +190,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,26 +292,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="296">
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -316,8 +316,2993 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -364,7 +3349,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,9 +3381,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -430,6 +3433,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -605,27 +3626,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="3" max="10" width="14.85546875" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,7 +3649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -668,7 +3684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -703,7 +3719,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -738,7 +3754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -773,7 +3789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -808,7 +3824,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -843,7 +3859,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -878,7 +3894,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -913,7 +3929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -950,580 +3966,367 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="0" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="64" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="19" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="28" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="0" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="37" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="0" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="46" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="0" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="55" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="0" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="65" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="0" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="29" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="0" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="38" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="0" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="47" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="0" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="56" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="0" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="66" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="21" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="0" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="30" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="0" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="39" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="0" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="48" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="0" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="57" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="0" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="67" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="13" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="22" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="0" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="31" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="0" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="40" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="0" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="49" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="0" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="58" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="0" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="68" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="23" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="0" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="32" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="0" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="41" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="0" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="50" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="0" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="59" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="0" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="69" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="15" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="0" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="24" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="33" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="0" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="42" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="0" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="51" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="0" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="60" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="0" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="70" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="16" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="25" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="0" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="34" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="0" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="43" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="0" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="52" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="0" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="61" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="0" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="71" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="17" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="cellIs" dxfId="0" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="26" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="0" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="35" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="0" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="44" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="0" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="53" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="0" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="62" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="0" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="72" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="18" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="0" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="27" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="36" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="cellIs" dxfId="0" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="45" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="0" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="54" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="cellIs" dxfId="0" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="63" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="72">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J10">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L10">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:J10 L3:L10" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1532,12 +4335,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
@@ -1548,7 +4353,7 @@
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
         <v>energy_led</v>
@@ -1570,7 +4375,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -1583,10 +4388,10 @@
         <v>37</v>
       </c>
       <c r="G2" s="5">
-        <v>0</v>
+        <v>9.9999999999999998E-17</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -1595,14 +4400,14 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5">
-        <v>6170.341636894294</v>
+        <v>61700.341636894198</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -1616,7 +4421,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
@@ -1630,7 +4435,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>44</v>
       </c>
@@ -1644,7 +4449,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
         <v>low_emit_mat</v>
@@ -1666,7 +4471,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -1679,10 +4484,10 @@
         <v>37</v>
       </c>
       <c r="G9" s="5">
-        <v>0</v>
+        <v>9.9999999999999998E-17</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -1691,14 +4496,14 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5">
-        <v>4023.509293569464</v>
+        <v>40230.509293569397</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
@@ -1712,7 +4517,7 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
@@ -1726,7 +4531,7 @@
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -1740,7 +4545,7 @@
       </c>
       <c r="G13" s="6"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
         <v>electric_cars</v>
@@ -1762,7 +4567,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
@@ -1775,10 +4580,10 @@
         <v>37</v>
       </c>
       <c r="G16" s="5">
-        <v>0</v>
+        <v>9.9999999999999998E-17</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
@@ -1787,14 +4592,14 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5">
-        <v>3028.759057978185</v>
+        <v>30280.759057978099</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
@@ -1808,7 +4613,7 @@
       </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
@@ -1822,7 +4627,7 @@
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>44</v>
       </c>
@@ -1836,7 +4641,7 @@
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
         <v>low_emit_gas</v>
@@ -1858,7 +4663,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
@@ -1871,10 +4676,10 @@
         <v>37</v>
       </c>
       <c r="G23" s="5">
-        <v>0</v>
+        <v>9.9999999999999998E-17</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>38</v>
       </c>
@@ -1883,14 +4688,14 @@
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5">
-        <v>838.5140125266544</v>
+        <v>83800.514012526604</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>40</v>
       </c>
@@ -1904,7 +4709,7 @@
       </c>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>42</v>
       </c>
@@ -1918,7 +4723,7 @@
       </c>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>44</v>
       </c>
@@ -1932,7 +4737,7 @@
       </c>
       <c r="G27" s="6"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
         <v>borehole_water</v>
@@ -1954,7 +4759,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
@@ -1967,10 +4772,10 @@
         <v>37</v>
       </c>
       <c r="G30" s="5">
-        <v>0</v>
+        <v>9.9999999999999998E-17</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
@@ -1979,14 +4784,14 @@
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5">
-        <v>7867.338450647012</v>
+        <v>78670.338450647003</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
@@ -2000,7 +4805,7 @@
       </c>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>42</v>
       </c>
@@ -2014,7 +4819,7 @@
       </c>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>44</v>
       </c>
@@ -2028,7 +4833,7 @@
       </c>
       <c r="G34" s="6"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
         <v>recycle</v>
@@ -2050,7 +4855,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -2063,10 +4868,10 @@
         <v>37</v>
       </c>
       <c r="G37" s="5">
-        <v>0</v>
+        <v>9.9999999999999998E-17</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -2075,14 +4880,14 @@
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5">
-        <v>1983.245455605664</v>
+        <v>19830.2454556056</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
@@ -2096,7 +4901,7 @@
       </c>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
@@ -2110,7 +4915,7 @@
       </c>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>44</v>
       </c>
@@ -2124,7 +4929,7 @@
       </c>
       <c r="G41" s="6"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
         <v>low_emit_inhale</v>
@@ -2146,7 +4951,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>35</v>
       </c>
@@ -2159,10 +4964,10 @@
         <v>37</v>
       </c>
       <c r="G44" s="5">
-        <v>0</v>
+        <v>9.9999999999999998E-17</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>38</v>
       </c>
@@ -2171,14 +4976,14 @@
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5">
-        <v>8496.157754329319</v>
+        <v>84960.157754329295</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>40</v>
       </c>
@@ -2192,7 +4997,7 @@
       </c>
       <c r="G46" s="6"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>42</v>
       </c>
@@ -2206,7 +5011,7 @@
       </c>
       <c r="G47" s="6"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>44</v>
       </c>
@@ -2220,7 +5025,7 @@
       </c>
       <c r="G48" s="6"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
         <v>local_procure</v>
@@ -2242,7 +5047,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>35</v>
       </c>
@@ -2255,10 +5060,10 @@
         <v>37</v>
       </c>
       <c r="G51" s="5">
-        <v>1E-16</v>
+        <v>9.9999999999999998E-17</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>38</v>
       </c>
@@ -2267,14 +5072,14 @@
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5">
-        <v>4901.364666720841</v>
+        <v>4901.3646667208413</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>40</v>
       </c>
@@ -2288,7 +5093,7 @@
       </c>
       <c r="G53" s="6"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
@@ -2302,7 +5107,7 @@
       </c>
       <c r="G54" s="6"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>44</v>
       </c>
@@ -2318,348 +5123,327 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="1" priority="13">
+    <cfRule type="expression" dxfId="223" priority="13">
       <formula>COUNTIF(G10:G10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="14">
+    <cfRule type="expression" dxfId="222" priority="14">
       <formula>AND(COUNTIF(G10:G10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="1" priority="15">
+    <cfRule type="expression" dxfId="221" priority="15">
       <formula>COUNTIF(G11:G11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="16">
+    <cfRule type="expression" dxfId="220" priority="16">
       <formula>AND(COUNTIF(G11:G11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="1" priority="17">
+    <cfRule type="expression" dxfId="219" priority="17">
       <formula>COUNTIF(G12:G12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="18">
+    <cfRule type="expression" dxfId="218" priority="18">
       <formula>AND(COUNTIF(G12:G12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="1" priority="19">
+    <cfRule type="expression" dxfId="217" priority="19">
       <formula>COUNTIF(G13:G13,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="20">
+    <cfRule type="expression" dxfId="216" priority="20">
       <formula>AND(COUNTIF(G13:G13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="1" priority="21">
+    <cfRule type="expression" dxfId="215" priority="21">
       <formula>COUNTIF(G16:G16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="22">
+    <cfRule type="expression" dxfId="214" priority="22">
       <formula>AND(COUNTIF(G16:G16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="1" priority="23">
+    <cfRule type="expression" dxfId="213" priority="23">
       <formula>COUNTIF(G17:G17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="24">
+    <cfRule type="expression" dxfId="212" priority="24">
       <formula>AND(COUNTIF(G17:G17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="1" priority="25">
+    <cfRule type="expression" dxfId="211" priority="25">
       <formula>COUNTIF(G18:G18,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="26">
+    <cfRule type="expression" dxfId="210" priority="26">
       <formula>AND(COUNTIF(G18:G18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="1" priority="27">
+    <cfRule type="expression" dxfId="209" priority="27">
       <formula>COUNTIF(G19:G19,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="28">
+    <cfRule type="expression" dxfId="208" priority="28">
       <formula>AND(COUNTIF(G19:G19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="207" priority="1">
       <formula>COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="206" priority="2">
       <formula>AND(COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="1" priority="29">
+    <cfRule type="expression" dxfId="205" priority="29">
       <formula>COUNTIF(G20:G20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="30">
+    <cfRule type="expression" dxfId="204" priority="30">
       <formula>AND(COUNTIF(G20:G20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="1" priority="31">
+    <cfRule type="expression" dxfId="203" priority="31">
       <formula>COUNTIF(G23:G23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="32">
+    <cfRule type="expression" dxfId="202" priority="32">
       <formula>AND(COUNTIF(G23:G23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="1" priority="33">
+    <cfRule type="expression" dxfId="201" priority="33">
       <formula>COUNTIF(G24:G24,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="34">
+    <cfRule type="expression" dxfId="200" priority="34">
       <formula>AND(COUNTIF(G24:G24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="expression" dxfId="1" priority="35">
+    <cfRule type="expression" dxfId="199" priority="35">
       <formula>COUNTIF(G25:G25,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="36">
+    <cfRule type="expression" dxfId="198" priority="36">
       <formula>AND(COUNTIF(G25:G25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="1" priority="37">
+    <cfRule type="expression" dxfId="197" priority="37">
       <formula>COUNTIF(G26:G26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="38">
+    <cfRule type="expression" dxfId="196" priority="38">
       <formula>AND(COUNTIF(G26:G26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="expression" dxfId="1" priority="39">
+    <cfRule type="expression" dxfId="195" priority="39">
       <formula>COUNTIF(G27:G27,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="40">
+    <cfRule type="expression" dxfId="194" priority="40">
       <formula>AND(COUNTIF(G27:G27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="193" priority="3">
       <formula>COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="192" priority="4">
       <formula>AND(COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="1" priority="41">
+    <cfRule type="expression" dxfId="191" priority="41">
       <formula>COUNTIF(G30:G30,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="42">
+    <cfRule type="expression" dxfId="190" priority="42">
       <formula>AND(COUNTIF(G30:G30,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="expression" dxfId="1" priority="43">
+    <cfRule type="expression" dxfId="189" priority="43">
       <formula>COUNTIF(G31:G31,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="44">
+    <cfRule type="expression" dxfId="188" priority="44">
       <formula>AND(COUNTIF(G31:G31,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="1" priority="45">
+    <cfRule type="expression" dxfId="187" priority="45">
       <formula>COUNTIF(G32:G32,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="46">
+    <cfRule type="expression" dxfId="186" priority="46">
       <formula>AND(COUNTIF(G32:G32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="expression" dxfId="1" priority="47">
+    <cfRule type="expression" dxfId="185" priority="47">
       <formula>COUNTIF(G33:G33,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="48">
+    <cfRule type="expression" dxfId="184" priority="48">
       <formula>AND(COUNTIF(G33:G33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="1" priority="49">
+    <cfRule type="expression" dxfId="183" priority="49">
       <formula>COUNTIF(G34:G34,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="50">
+    <cfRule type="expression" dxfId="182" priority="50">
       <formula>AND(COUNTIF(G34:G34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="1" priority="51">
+    <cfRule type="expression" dxfId="181" priority="51">
       <formula>COUNTIF(G37:G37,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="52">
+    <cfRule type="expression" dxfId="180" priority="52">
       <formula>AND(COUNTIF(G37:G37,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="expression" dxfId="1" priority="53">
+    <cfRule type="expression" dxfId="179" priority="53">
       <formula>COUNTIF(G38:G38,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="54">
+    <cfRule type="expression" dxfId="178" priority="54">
       <formula>AND(COUNTIF(G38:G38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="expression" dxfId="1" priority="55">
+    <cfRule type="expression" dxfId="177" priority="55">
       <formula>COUNTIF(G39:G39,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="56">
+    <cfRule type="expression" dxfId="176" priority="56">
       <formula>AND(COUNTIF(G39:G39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="175" priority="5">
       <formula>COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="174" priority="6">
       <formula>AND(COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="expression" dxfId="1" priority="57">
+    <cfRule type="expression" dxfId="173" priority="57">
       <formula>COUNTIF(G40:G40,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="58">
+    <cfRule type="expression" dxfId="172" priority="58">
       <formula>AND(COUNTIF(G40:G40,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="1" priority="59">
+    <cfRule type="expression" dxfId="171" priority="59">
       <formula>COUNTIF(G41:G41,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="60">
+    <cfRule type="expression" dxfId="170" priority="60">
       <formula>AND(COUNTIF(G41:G41,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="expression" dxfId="1" priority="61">
+    <cfRule type="expression" dxfId="169" priority="61">
       <formula>COUNTIF(G44:G44,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="62">
+    <cfRule type="expression" dxfId="168" priority="62">
       <formula>AND(COUNTIF(G44:G44,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="expression" dxfId="1" priority="63">
+    <cfRule type="expression" dxfId="167" priority="63">
       <formula>COUNTIF(G45:G45,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="64">
+    <cfRule type="expression" dxfId="166" priority="64">
       <formula>AND(COUNTIF(G45:G45,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="expression" dxfId="1" priority="65">
+    <cfRule type="expression" dxfId="165" priority="65">
       <formula>COUNTIF(G46:G46,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="66">
+    <cfRule type="expression" dxfId="164" priority="66">
       <formula>AND(COUNTIF(G46:G46,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="1" priority="67">
+    <cfRule type="expression" dxfId="163" priority="67">
       <formula>COUNTIF(G47:G47,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="68">
+    <cfRule type="expression" dxfId="162" priority="68">
       <formula>AND(COUNTIF(G47:G47,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="expression" dxfId="1" priority="69">
+    <cfRule type="expression" dxfId="161" priority="69">
       <formula>COUNTIF(G48:G48,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="70">
+    <cfRule type="expression" dxfId="160" priority="70">
       <formula>AND(COUNTIF(G48:G48,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="159" priority="7">
       <formula>COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8">
+    <cfRule type="expression" dxfId="158" priority="8">
       <formula>AND(COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="expression" dxfId="1" priority="71">
+    <cfRule type="expression" dxfId="157" priority="71">
       <formula>COUNTIF(G51:G51,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="72">
+    <cfRule type="expression" dxfId="156" priority="72">
       <formula>AND(COUNTIF(G51:G51,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="1" priority="73">
+    <cfRule type="expression" dxfId="155" priority="73">
       <formula>COUNTIF(G52:G52,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="74">
+    <cfRule type="expression" dxfId="154" priority="74">
       <formula>AND(COUNTIF(G52:G52,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="expression" dxfId="1" priority="75">
+    <cfRule type="expression" dxfId="153" priority="75">
       <formula>COUNTIF(G53:G53,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="76">
+    <cfRule type="expression" dxfId="152" priority="76">
       <formula>AND(COUNTIF(G53:G53,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="1" priority="77">
+    <cfRule type="expression" dxfId="151" priority="77">
       <formula>COUNTIF(G54:G54,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="78">
+    <cfRule type="expression" dxfId="150" priority="78">
       <formula>AND(COUNTIF(G54:G54,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="expression" dxfId="1" priority="79">
+    <cfRule type="expression" dxfId="149" priority="79">
       <formula>COUNTIF(G55:G55,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="80">
+    <cfRule type="expression" dxfId="148" priority="80">
       <formula>AND(COUNTIF(G55:G55,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="1" priority="9">
+    <cfRule type="expression" dxfId="147" priority="9">
       <formula>COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="146" priority="10">
       <formula>AND(COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="145" priority="11">
       <formula>COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="144" priority="12">
       <formula>AND(COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>"$/person (one-off),$/person/year"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10">
-      <formula1>"$/person (one-off),$/person/year"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17">
-      <formula1>"$/person (one-off),$/person/year"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24">
-      <formula1>"$/person (one-off),$/person/year"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31">
-      <formula1>"$/person (one-off),$/person/year"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C38">
-      <formula1>"$/person (one-off),$/person/year"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45">
-      <formula1>"$/person (one-off),$/person/year"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C52">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C52 C45 C38 C31 C24 C17 C10" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2668,18 +5452,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="2" max="5" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
@@ -2690,7 +5473,7 @@
     <col min="14" max="14" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -2739,7 +5522,7 @@
         <v>local_procure</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Aga Khan Hospital, Kenya</v>
@@ -2759,7 +5542,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'Program targeting'!$D$2</f>
         <v>Aga Khan Medical Centre, Kenya</v>
@@ -2779,7 +5562,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'Program targeting'!$E$2</f>
         <v>Laudium Community Health Centre, South Africa</v>
@@ -2799,7 +5582,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'Program targeting'!$F$2</f>
         <v>Stanza Bopape Community Health Centre, South Africa</v>
@@ -2819,7 +5602,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'Program targeting'!$G$2</f>
         <v>Mamelodi Regional Hospital, South Africa</v>
@@ -2839,7 +5622,7 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'Program targeting'!$H$2</f>
         <v>Mt Darwin District Hospital, Zimbabwe</v>
@@ -2853,31 +5636,31 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="G7" s="5">
-        <v>0.92</v>
+        <v>0.66207865504115571</v>
       </c>
       <c r="H7" s="5">
-        <v>0.9399999999999999</v>
+        <v>0.32264488486772447</v>
       </c>
       <c r="I7" s="5">
-        <v>0.79</v>
+        <v>0.93481491862473687</v>
       </c>
       <c r="J7" s="5">
-        <v>0.87</v>
+        <v>0.87045025888889993</v>
       </c>
       <c r="K7" s="5">
-        <v>0.87</v>
+        <v>0.27390031595093534</v>
       </c>
       <c r="L7" s="5">
-        <v>0.95</v>
+        <v>0.77815541892443518</v>
       </c>
       <c r="M7" s="5">
-        <v>0.95</v>
+        <v>0.2314668371953218</v>
       </c>
       <c r="N7" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'Program targeting'!$I$2</f>
         <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
@@ -2897,7 +5680,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>'Program targeting'!$J$2</f>
         <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
@@ -2919,607 +5702,2342 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="1" priority="17">
+    <cfRule type="expression" dxfId="143" priority="17">
       <formula>COUNTIF(F2:N2,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="18">
+    <cfRule type="expression" dxfId="142" priority="18">
       <formula>AND(COUNTIF(F2:N2,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="1" priority="35">
+    <cfRule type="expression" dxfId="141" priority="35">
       <formula>COUNTIF(F3:N3,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="36">
+    <cfRule type="expression" dxfId="140" priority="36">
       <formula>AND(COUNTIF(F3:N3,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="1" priority="53">
+    <cfRule type="expression" dxfId="139" priority="53">
       <formula>COUNTIF(F4:N4,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="54">
+    <cfRule type="expression" dxfId="138" priority="54">
       <formula>AND(COUNTIF(F4:N4,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="1" priority="71">
+    <cfRule type="expression" dxfId="137" priority="71">
       <formula>COUNTIF(F5:N5,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="72">
+    <cfRule type="expression" dxfId="136" priority="72">
       <formula>AND(COUNTIF(F5:N5,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="1" priority="89">
+    <cfRule type="expression" dxfId="135" priority="89">
       <formula>COUNTIF(F6:N6,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="90">
+    <cfRule type="expression" dxfId="134" priority="90">
       <formula>AND(COUNTIF(F6:N6,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="1" priority="107">
+    <cfRule type="expression" dxfId="133" priority="107">
       <formula>COUNTIF(F7:N7,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="108">
+    <cfRule type="expression" dxfId="132" priority="108">
       <formula>AND(COUNTIF(F7:N7,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="1" priority="125">
+    <cfRule type="expression" dxfId="131" priority="125">
       <formula>COUNTIF(F8:N8,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="126">
+    <cfRule type="expression" dxfId="130" priority="126">
       <formula>AND(COUNTIF(F8:N8,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="1" priority="143">
+    <cfRule type="expression" dxfId="129" priority="143">
       <formula>COUNTIF(F9:N9,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="144">
+    <cfRule type="expression" dxfId="128" priority="144">
       <formula>AND(COUNTIF(F9:N9,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="expression" dxfId="2" priority="19">
-      <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G3)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="20">
-      <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="2" priority="37">
-      <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="38">
-      <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="2" priority="55">
-      <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G5)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="56">
-      <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="2" priority="73">
-      <formula>AND('Program targeting'!$G$3&lt;&gt;"Y",NOT(ISBLANK(G6)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="74">
-      <formula>'Program targeting'!$G$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="2" priority="91">
-      <formula>AND('Program targeting'!$H$3&lt;&gt;"Y",NOT(ISBLANK(G7)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="92">
-      <formula>'Program targeting'!$H$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="2" priority="109">
-      <formula>AND('Program targeting'!$I$3&lt;&gt;"Y",NOT(ISBLANK(G8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="110">
-      <formula>'Program targeting'!$I$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="2" priority="127">
-      <formula>AND('Program targeting'!$J$3&lt;&gt;"Y",NOT(ISBLANK(G9)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="128">
-      <formula>'Program targeting'!$J$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="expression" dxfId="2" priority="21">
-      <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H3)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="22">
-      <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="expression" dxfId="2" priority="39">
-      <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="40">
-      <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="2" priority="57">
-      <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H5)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="58">
-      <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="2" priority="75">
-      <formula>AND('Program targeting'!$G$4&lt;&gt;"Y",NOT(ISBLANK(H6)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="76">
-      <formula>'Program targeting'!$G$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="2" priority="93">
-      <formula>AND('Program targeting'!$H$4&lt;&gt;"Y",NOT(ISBLANK(H7)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="94">
-      <formula>'Program targeting'!$H$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="2" priority="111">
-      <formula>AND('Program targeting'!$I$4&lt;&gt;"Y",NOT(ISBLANK(H8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="112">
-      <formula>'Program targeting'!$I$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="2" priority="129">
-      <formula>AND('Program targeting'!$J$4&lt;&gt;"Y",NOT(ISBLANK(H9)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="130">
-      <formula>'Program targeting'!$J$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="expression" dxfId="2" priority="5">
-      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="expression" dxfId="2" priority="23">
-      <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I3)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="24">
-      <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="2" priority="41">
-      <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="42">
-      <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="2" priority="59">
-      <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I5)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="60">
-      <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="2" priority="77">
-      <formula>AND('Program targeting'!$G$5&lt;&gt;"Y",NOT(ISBLANK(I6)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="78">
-      <formula>'Program targeting'!$G$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="2" priority="95">
-      <formula>AND('Program targeting'!$H$5&lt;&gt;"Y",NOT(ISBLANK(I7)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="96">
-      <formula>'Program targeting'!$H$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="2" priority="113">
-      <formula>AND('Program targeting'!$I$5&lt;&gt;"Y",NOT(ISBLANK(I8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="114">
-      <formula>'Program targeting'!$I$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="2" priority="131">
-      <formula>AND('Program targeting'!$J$5&lt;&gt;"Y",NOT(ISBLANK(I9)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="132">
-      <formula>'Program targeting'!$J$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="expression" dxfId="2" priority="7">
-      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
-      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="expression" dxfId="2" priority="25">
-      <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J3)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="26">
-      <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="expression" dxfId="2" priority="43">
-      <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="44">
-      <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="2" priority="61">
-      <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J5)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="62">
-      <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="2" priority="79">
-      <formula>AND('Program targeting'!$G$6&lt;&gt;"Y",NOT(ISBLANK(J6)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="80">
-      <formula>'Program targeting'!$G$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="2" priority="97">
-      <formula>AND('Program targeting'!$H$6&lt;&gt;"Y",NOT(ISBLANK(J7)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="98">
-      <formula>'Program targeting'!$H$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="2" priority="115">
-      <formula>AND('Program targeting'!$I$6&lt;&gt;"Y",NOT(ISBLANK(J8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="116">
-      <formula>'Program targeting'!$I$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="expression" dxfId="2" priority="133">
-      <formula>AND('Program targeting'!$J$6&lt;&gt;"Y",NOT(ISBLANK(J9)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="134">
-      <formula>'Program targeting'!$J$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2">
-    <cfRule type="expression" dxfId="2" priority="9">
-      <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="10">
-      <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
-    <cfRule type="expression" dxfId="2" priority="27">
-      <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K3)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="28">
-      <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="expression" dxfId="2" priority="45">
-      <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="46">
-      <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="2" priority="63">
-      <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K5)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="64">
-      <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="2" priority="81">
-      <formula>AND('Program targeting'!$G$7&lt;&gt;"Y",NOT(ISBLANK(K6)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="82">
-      <formula>'Program targeting'!$G$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="2" priority="99">
-      <formula>AND('Program targeting'!$H$7&lt;&gt;"Y",NOT(ISBLANK(K7)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="100">
-      <formula>'Program targeting'!$H$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="2" priority="117">
-      <formula>AND('Program targeting'!$I$7&lt;&gt;"Y",NOT(ISBLANK(K8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="118">
-      <formula>'Program targeting'!$I$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="2" priority="135">
-      <formula>AND('Program targeting'!$J$7&lt;&gt;"Y",NOT(ISBLANK(K9)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="136">
-      <formula>'Program targeting'!$J$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2">
-    <cfRule type="expression" dxfId="2" priority="11">
-      <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="12">
-      <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
-    <cfRule type="expression" dxfId="2" priority="29">
-      <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L3)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="30">
-      <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
-    <cfRule type="expression" dxfId="2" priority="47">
-      <formula>AND('Program targeting'!$E$8&lt;&gt;"Y",NOT(ISBLANK(L4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="48">
-      <formula>'Program targeting'!$E$8&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="2" priority="65">
-      <formula>AND('Program targeting'!$F$8&lt;&gt;"Y",NOT(ISBLANK(L5)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="66">
-      <formula>'Program targeting'!$F$8&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="2" priority="83">
-      <formula>AND('Program targeting'!$G$8&lt;&gt;"Y",NOT(ISBLANK(L6)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="84">
-      <formula>'Program targeting'!$G$8&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L7">
-    <cfRule type="expression" dxfId="2" priority="101">
-      <formula>AND('Program targeting'!$H$8&lt;&gt;"Y",NOT(ISBLANK(L7)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="102">
-      <formula>'Program targeting'!$H$8&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L8">
-    <cfRule type="expression" dxfId="2" priority="119">
-      <formula>AND('Program targeting'!$I$8&lt;&gt;"Y",NOT(ISBLANK(L8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="120">
-      <formula>'Program targeting'!$I$8&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
-    <cfRule type="expression" dxfId="2" priority="137">
-      <formula>AND('Program targeting'!$J$8&lt;&gt;"Y",NOT(ISBLANK(L9)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="138">
-      <formula>'Program targeting'!$J$8&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2">
-    <cfRule type="expression" dxfId="2" priority="13">
-      <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="14">
-      <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3">
-    <cfRule type="expression" dxfId="2" priority="31">
-      <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M3)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="32">
-      <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4">
-    <cfRule type="expression" dxfId="2" priority="49">
-      <formula>AND('Program targeting'!$E$9&lt;&gt;"Y",NOT(ISBLANK(M4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="50">
-      <formula>'Program targeting'!$E$9&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="2" priority="67">
-      <formula>AND('Program targeting'!$F$9&lt;&gt;"Y",NOT(ISBLANK(M5)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="68">
-      <formula>'Program targeting'!$F$9&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="2" priority="85">
-      <formula>AND('Program targeting'!$G$9&lt;&gt;"Y",NOT(ISBLANK(M6)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="86">
-      <formula>'Program targeting'!$G$9&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="expression" dxfId="2" priority="103">
-      <formula>AND('Program targeting'!$H$9&lt;&gt;"Y",NOT(ISBLANK(M7)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="104">
-      <formula>'Program targeting'!$H$9&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="2" priority="121">
-      <formula>AND('Program targeting'!$I$9&lt;&gt;"Y",NOT(ISBLANK(M8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="122">
-      <formula>'Program targeting'!$I$9&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="2" priority="139">
-      <formula>AND('Program targeting'!$J$9&lt;&gt;"Y",NOT(ISBLANK(M9)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="140">
-      <formula>'Program targeting'!$J$9&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2">
-    <cfRule type="expression" dxfId="2" priority="15">
-      <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="16">
-      <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3">
-    <cfRule type="expression" dxfId="2" priority="33">
-      <formula>AND('Program targeting'!$D$10&lt;&gt;"Y",NOT(ISBLANK(N3)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="34">
-      <formula>'Program targeting'!$D$10&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4">
-    <cfRule type="expression" dxfId="2" priority="51">
-      <formula>AND('Program targeting'!$E$10&lt;&gt;"Y",NOT(ISBLANK(N4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="52">
-      <formula>'Program targeting'!$E$10&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="expression" dxfId="2" priority="69">
-      <formula>AND('Program targeting'!$F$10&lt;&gt;"Y",NOT(ISBLANK(N5)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="70">
-      <formula>'Program targeting'!$F$10&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N6">
-    <cfRule type="expression" dxfId="2" priority="87">
-      <formula>AND('Program targeting'!$G$10&lt;&gt;"Y",NOT(ISBLANK(N6)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="88">
-      <formula>'Program targeting'!$G$10&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="expression" dxfId="2" priority="105">
-      <formula>AND('Program targeting'!$H$10&lt;&gt;"Y",NOT(ISBLANK(N7)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="106">
-      <formula>'Program targeting'!$H$10&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N8">
-    <cfRule type="expression" dxfId="2" priority="123">
-      <formula>AND('Program targeting'!$I$10&lt;&gt;"Y",NOT(ISBLANK(N8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="124">
-      <formula>'Program targeting'!$I$10&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N9">
-    <cfRule type="expression" dxfId="2" priority="141">
-      <formula>AND('Program targeting'!$J$10&lt;&gt;"Y",NOT(ISBLANK(N9)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="142">
-      <formula>'Program targeting'!$J$10&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00000000-000E-0000-0200-000001000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="2" id="{00000000-000E-0000-0200-000002000000}">
+            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="19" id="{00000000-000E-0000-0200-000013000000}">
+            <xm:f>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G3)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="20" id="{00000000-000E-0000-0200-000014000000}">
+            <xm:f>'Program targeting'!$D$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="37" id="{00000000-000E-0000-0200-000025000000}">
+            <xm:f>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G4)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="38" id="{00000000-000E-0000-0200-000026000000}">
+            <xm:f>'Program targeting'!$E$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="55" id="{00000000-000E-0000-0200-000037000000}">
+            <xm:f>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="56" id="{00000000-000E-0000-0200-000038000000}">
+            <xm:f>'Program targeting'!$F$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="73" id="{00000000-000E-0000-0200-000049000000}">
+            <xm:f>AND('Program targeting'!$G$3&lt;&gt;"Y",NOT(ISBLANK(G6)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="74" id="{00000000-000E-0000-0200-00004A000000}">
+            <xm:f>'Program targeting'!$G$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="91" id="{00000000-000E-0000-0200-00005B000000}">
+            <xm:f>AND('Program targeting'!$H$3&lt;&gt;"Y",NOT(ISBLANK(G7)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="92" id="{00000000-000E-0000-0200-00005C000000}">
+            <xm:f>'Program targeting'!$H$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G7:M7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="109" id="{00000000-000E-0000-0200-00006D000000}">
+            <xm:f>AND('Program targeting'!$I$3&lt;&gt;"Y",NOT(ISBLANK(G8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="110" id="{00000000-000E-0000-0200-00006E000000}">
+            <xm:f>'Program targeting'!$I$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="127" id="{00000000-000E-0000-0200-00007F000000}">
+            <xm:f>AND('Program targeting'!$J$3&lt;&gt;"Y",NOT(ISBLANK(G9)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="128" id="{00000000-000E-0000-0200-000080000000}">
+            <xm:f>'Program targeting'!$J$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="3" id="{00000000-000E-0000-0200-000003000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="4" id="{00000000-000E-0000-0200-000004000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="21" id="{00000000-000E-0000-0200-000015000000}">
+            <xm:f>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H3)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="22" id="{00000000-000E-0000-0200-000016000000}">
+            <xm:f>'Program targeting'!$D$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="39" id="{00000000-000E-0000-0200-000027000000}">
+            <xm:f>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H4)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="40" id="{00000000-000E-0000-0200-000028000000}">
+            <xm:f>'Program targeting'!$E$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="57" id="{00000000-000E-0000-0200-000039000000}">
+            <xm:f>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="58" id="{00000000-000E-0000-0200-00003A000000}">
+            <xm:f>'Program targeting'!$F$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="75" id="{00000000-000E-0000-0200-00004B000000}">
+            <xm:f>AND('Program targeting'!$G$4&lt;&gt;"Y",NOT(ISBLANK(H6)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="76" id="{00000000-000E-0000-0200-00004C000000}">
+            <xm:f>'Program targeting'!$G$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="111" id="{00000000-000E-0000-0200-00006F000000}">
+            <xm:f>AND('Program targeting'!$I$4&lt;&gt;"Y",NOT(ISBLANK(H8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="112" id="{00000000-000E-0000-0200-000070000000}">
+            <xm:f>'Program targeting'!$I$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="129" id="{00000000-000E-0000-0200-000081000000}">
+            <xm:f>AND('Program targeting'!$J$4&lt;&gt;"Y",NOT(ISBLANK(H9)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="130" id="{00000000-000E-0000-0200-000082000000}">
+            <xm:f>'Program targeting'!$J$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="5" id="{00000000-000E-0000-0200-000005000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="6" id="{00000000-000E-0000-0200-000006000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="23" id="{00000000-000E-0000-0200-000017000000}">
+            <xm:f>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I3)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="24" id="{00000000-000E-0000-0200-000018000000}">
+            <xm:f>'Program targeting'!$D$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="41" id="{00000000-000E-0000-0200-000029000000}">
+            <xm:f>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I4)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="42" id="{00000000-000E-0000-0200-00002A000000}">
+            <xm:f>'Program targeting'!$E$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="59" id="{00000000-000E-0000-0200-00003B000000}">
+            <xm:f>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="60" id="{00000000-000E-0000-0200-00003C000000}">
+            <xm:f>'Program targeting'!$F$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="77" id="{00000000-000E-0000-0200-00004D000000}">
+            <xm:f>AND('Program targeting'!$G$5&lt;&gt;"Y",NOT(ISBLANK(I6)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="78" id="{00000000-000E-0000-0200-00004E000000}">
+            <xm:f>'Program targeting'!$G$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="113" id="{00000000-000E-0000-0200-000071000000}">
+            <xm:f>AND('Program targeting'!$I$5&lt;&gt;"Y",NOT(ISBLANK(I8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="114" id="{00000000-000E-0000-0200-000072000000}">
+            <xm:f>'Program targeting'!$I$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="131" id="{00000000-000E-0000-0200-000083000000}">
+            <xm:f>AND('Program targeting'!$J$5&lt;&gt;"Y",NOT(ISBLANK(I9)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="132" id="{00000000-000E-0000-0200-000084000000}">
+            <xm:f>'Program targeting'!$J$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="7" id="{00000000-000E-0000-0200-000007000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="8" id="{00000000-000E-0000-0200-000008000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="25" id="{00000000-000E-0000-0200-000019000000}">
+            <xm:f>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J3)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="26" id="{00000000-000E-0000-0200-00001A000000}">
+            <xm:f>'Program targeting'!$D$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="43" id="{00000000-000E-0000-0200-00002B000000}">
+            <xm:f>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J4)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="44" id="{00000000-000E-0000-0200-00002C000000}">
+            <xm:f>'Program targeting'!$E$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="61" id="{00000000-000E-0000-0200-00003D000000}">
+            <xm:f>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="62" id="{00000000-000E-0000-0200-00003E000000}">
+            <xm:f>'Program targeting'!$F$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="79" id="{00000000-000E-0000-0200-00004F000000}">
+            <xm:f>AND('Program targeting'!$G$6&lt;&gt;"Y",NOT(ISBLANK(J6)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="80" id="{00000000-000E-0000-0200-000050000000}">
+            <xm:f>'Program targeting'!$G$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="115" id="{00000000-000E-0000-0200-000073000000}">
+            <xm:f>AND('Program targeting'!$I$6&lt;&gt;"Y",NOT(ISBLANK(J8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="116" id="{00000000-000E-0000-0200-000074000000}">
+            <xm:f>'Program targeting'!$I$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="133" id="{00000000-000E-0000-0200-000085000000}">
+            <xm:f>AND('Program targeting'!$J$6&lt;&gt;"Y",NOT(ISBLANK(J9)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="134" id="{00000000-000E-0000-0200-000086000000}">
+            <xm:f>'Program targeting'!$J$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="9" id="{00000000-000E-0000-0200-000009000000}">
+            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="10" id="{00000000-000E-0000-0200-00000A000000}">
+            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="27" id="{00000000-000E-0000-0200-00001B000000}">
+            <xm:f>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K3)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="28" id="{00000000-000E-0000-0200-00001C000000}">
+            <xm:f>'Program targeting'!$D$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="45" id="{00000000-000E-0000-0200-00002D000000}">
+            <xm:f>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K4)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="46" id="{00000000-000E-0000-0200-00002E000000}">
+            <xm:f>'Program targeting'!$E$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="63" id="{00000000-000E-0000-0200-00003F000000}">
+            <xm:f>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="64" id="{00000000-000E-0000-0200-000040000000}">
+            <xm:f>'Program targeting'!$F$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="81" id="{00000000-000E-0000-0200-000051000000}">
+            <xm:f>AND('Program targeting'!$G$7&lt;&gt;"Y",NOT(ISBLANK(K6)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="82" id="{00000000-000E-0000-0200-000052000000}">
+            <xm:f>'Program targeting'!$G$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="117" id="{00000000-000E-0000-0200-000075000000}">
+            <xm:f>AND('Program targeting'!$I$7&lt;&gt;"Y",NOT(ISBLANK(K8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="118" id="{00000000-000E-0000-0200-000076000000}">
+            <xm:f>'Program targeting'!$I$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="135" id="{00000000-000E-0000-0200-000087000000}">
+            <xm:f>AND('Program targeting'!$J$7&lt;&gt;"Y",NOT(ISBLANK(K9)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="136" id="{00000000-000E-0000-0200-000088000000}">
+            <xm:f>'Program targeting'!$J$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="11" id="{00000000-000E-0000-0200-00000B000000}">
+            <xm:f>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="12" id="{00000000-000E-0000-0200-00000C000000}">
+            <xm:f>'Program targeting'!$C$8&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="29" id="{00000000-000E-0000-0200-00001D000000}">
+            <xm:f>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L3)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="30" id="{00000000-000E-0000-0200-00001E000000}">
+            <xm:f>'Program targeting'!$D$8&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="47" id="{00000000-000E-0000-0200-00002F000000}">
+            <xm:f>AND('Program targeting'!$E$8&lt;&gt;"Y",NOT(ISBLANK(L4)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="48" id="{00000000-000E-0000-0200-000030000000}">
+            <xm:f>'Program targeting'!$E$8&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="65" id="{00000000-000E-0000-0200-000041000000}">
+            <xm:f>AND('Program targeting'!$F$8&lt;&gt;"Y",NOT(ISBLANK(L5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="66" id="{00000000-000E-0000-0200-000042000000}">
+            <xm:f>'Program targeting'!$F$8&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="83" id="{00000000-000E-0000-0200-000053000000}">
+            <xm:f>AND('Program targeting'!$G$8&lt;&gt;"Y",NOT(ISBLANK(L6)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="84" id="{00000000-000E-0000-0200-000054000000}">
+            <xm:f>'Program targeting'!$G$8&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="119" id="{00000000-000E-0000-0200-000077000000}">
+            <xm:f>AND('Program targeting'!$I$8&lt;&gt;"Y",NOT(ISBLANK(L8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="120" id="{00000000-000E-0000-0200-000078000000}">
+            <xm:f>'Program targeting'!$I$8&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="137" id="{00000000-000E-0000-0200-000089000000}">
+            <xm:f>AND('Program targeting'!$J$8&lt;&gt;"Y",NOT(ISBLANK(L9)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="138" id="{00000000-000E-0000-0200-00008A000000}">
+            <xm:f>'Program targeting'!$J$8&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="13" id="{00000000-000E-0000-0200-00000D000000}">
+            <xm:f>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="14" id="{00000000-000E-0000-0200-00000E000000}">
+            <xm:f>'Program targeting'!$C$9&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="31" id="{00000000-000E-0000-0200-00001F000000}">
+            <xm:f>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M3)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="32" id="{00000000-000E-0000-0200-000020000000}">
+            <xm:f>'Program targeting'!$D$9&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="49" id="{00000000-000E-0000-0200-000031000000}">
+            <xm:f>AND('Program targeting'!$E$9&lt;&gt;"Y",NOT(ISBLANK(M4)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="50" id="{00000000-000E-0000-0200-000032000000}">
+            <xm:f>'Program targeting'!$E$9&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="67" id="{00000000-000E-0000-0200-000043000000}">
+            <xm:f>AND('Program targeting'!$F$9&lt;&gt;"Y",NOT(ISBLANK(M5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="68" id="{00000000-000E-0000-0200-000044000000}">
+            <xm:f>'Program targeting'!$F$9&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="85" id="{00000000-000E-0000-0200-000055000000}">
+            <xm:f>AND('Program targeting'!$G$9&lt;&gt;"Y",NOT(ISBLANK(M6)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="86" id="{00000000-000E-0000-0200-000056000000}">
+            <xm:f>'Program targeting'!$G$9&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="121" id="{00000000-000E-0000-0200-000079000000}">
+            <xm:f>AND('Program targeting'!$I$9&lt;&gt;"Y",NOT(ISBLANK(M8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="122" id="{00000000-000E-0000-0200-00007A000000}">
+            <xm:f>'Program targeting'!$I$9&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="139" id="{00000000-000E-0000-0200-00008B000000}">
+            <xm:f>AND('Program targeting'!$J$9&lt;&gt;"Y",NOT(ISBLANK(M9)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="140" id="{00000000-000E-0000-0200-00008C000000}">
+            <xm:f>'Program targeting'!$J$9&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="15" id="{00000000-000E-0000-0200-00000F000000}">
+            <xm:f>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="16" id="{00000000-000E-0000-0200-000010000000}">
+            <xm:f>'Program targeting'!$C$10&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="33" id="{00000000-000E-0000-0200-000021000000}">
+            <xm:f>AND('Program targeting'!$D$10&lt;&gt;"Y",NOT(ISBLANK(N3)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="34" id="{00000000-000E-0000-0200-000022000000}">
+            <xm:f>'Program targeting'!$D$10&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="51" id="{00000000-000E-0000-0200-000033000000}">
+            <xm:f>AND('Program targeting'!$E$10&lt;&gt;"Y",NOT(ISBLANK(N4)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="52" id="{00000000-000E-0000-0200-000034000000}">
+            <xm:f>'Program targeting'!$E$10&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="69" id="{00000000-000E-0000-0200-000045000000}">
+            <xm:f>AND('Program targeting'!$F$10&lt;&gt;"Y",NOT(ISBLANK(N5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="70" id="{00000000-000E-0000-0200-000046000000}">
+            <xm:f>'Program targeting'!$F$10&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="87" id="{00000000-000E-0000-0200-000057000000}">
+            <xm:f>AND('Program targeting'!$G$10&lt;&gt;"Y",NOT(ISBLANK(N6)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="88" id="{00000000-000E-0000-0200-000058000000}">
+            <xm:f>'Program targeting'!$G$10&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="105" id="{00000000-000E-0000-0200-000069000000}">
+            <xm:f>AND('Program targeting'!$H$10&lt;&gt;"Y",NOT(ISBLANK(N7)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="106" id="{00000000-000E-0000-0200-00006A000000}">
+            <xm:f>'Program targeting'!$H$10&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="123" id="{00000000-000E-0000-0200-00007B000000}">
+            <xm:f>AND('Program targeting'!$I$10&lt;&gt;"Y",NOT(ISBLANK(N8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="124" id="{00000000-000E-0000-0200-00007C000000}">
+            <xm:f>'Program targeting'!$I$10&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="141" id="{00000000-000E-0000-0200-00008D000000}">
+            <xm:f>AND('Program targeting'!$J$10&lt;&gt;"Y",NOT(ISBLANK(N9)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="142" id="{00000000-000E-0000-0200-00008E000000}">
+            <xm:f>'Program targeting'!$J$10&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N9</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/books/carbomica_progbook_mt-darwin_hosp_ZW.xlsx
+++ b/books/carbomica_progbook_mt-darwin_hosp_ZW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\carbomica\books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62208EDE-0431-4DA6-BAA0-74F74AEE5D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D4A45E-0303-4F5C-BE85-580F338BED24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
@@ -191,7 +191,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +205,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -267,10 +278,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -288,11 +300,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="296">
+  <dxfs count="136">
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -2036,186 +2051,6 @@
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2319,964 +2154,6 @@
     <dxf>
       <fill>
         <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -3307,9 +2184,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3347,9 +2224,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3382,26 +2259,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3434,26 +2294,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3965,363 +2808,13 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="295" priority="64" operator="equal">
+  <conditionalFormatting sqref="C3:J10">
+    <cfRule type="cellIs" dxfId="135" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="294" priority="1" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="293" priority="10" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="292" priority="19" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="291" priority="28" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="290" priority="37" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="289" priority="46" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="288" priority="55" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="287" priority="65" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="286" priority="2" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="285" priority="11" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="284" priority="20" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="283" priority="29" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="282" priority="38" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="281" priority="47" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="280" priority="56" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="279" priority="66" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="278" priority="3" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="277" priority="12" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="276" priority="21" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="275" priority="30" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="274" priority="39" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="273" priority="48" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="272" priority="57" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="271" priority="67" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="270" priority="4" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="269" priority="13" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="268" priority="22" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="267" priority="31" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="266" priority="40" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="265" priority="49" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="264" priority="58" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="263" priority="68" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="262" priority="5" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="261" priority="14" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="260" priority="23" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="259" priority="32" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="258" priority="41" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="257" priority="50" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="256" priority="59" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="255" priority="69" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="254" priority="6" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="253" priority="15" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="252" priority="24" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="251" priority="33" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="250" priority="42" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="249" priority="51" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="248" priority="60" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="247" priority="70" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="246" priority="7" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="245" priority="16" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="244" priority="25" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="243" priority="34" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="242" priority="43" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="241" priority="52" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="240" priority="61" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="239" priority="71" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="238" priority="8" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="237" priority="17" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="cellIs" dxfId="236" priority="26" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="235" priority="35" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="234" priority="44" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="233" priority="53" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="232" priority="62" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="231" priority="72" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
-    <cfRule type="cellIs" dxfId="230" priority="9" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="229" priority="18" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="228" priority="27" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="227" priority="36" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L7">
-    <cfRule type="cellIs" dxfId="226" priority="45" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="225" priority="54" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
-    <cfRule type="cellIs" dxfId="224" priority="63" operator="equal">
+  <conditionalFormatting sqref="L3:L10">
+    <cfRule type="cellIs" dxfId="134" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4338,8 +2831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4399,15 +2892,15 @@
         <v>39</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="5">
-        <v>61700.341636894198</v>
+      <c r="E3" s="7">
+        <v>6170.3416368941998</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -4421,7 +2914,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
@@ -4435,7 +2928,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>44</v>
       </c>
@@ -4495,15 +2988,15 @@
         <v>39</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="5">
-        <v>40230.509293569397</v>
+      <c r="E10" s="7">
+        <v>4023.5092935694001</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
@@ -4517,7 +3010,7 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
@@ -4531,7 +3024,7 @@
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -4591,15 +3084,15 @@
         <v>39</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="5">
-        <v>30280.759057978099</v>
+      <c r="E17" s="7">
+        <v>600</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
@@ -4613,7 +3106,7 @@
       </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
@@ -4627,7 +3120,7 @@
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>44</v>
       </c>
@@ -4687,15 +3180,15 @@
         <v>39</v>
       </c>
       <c r="D24" s="5"/>
-      <c r="E24" s="5">
-        <v>83800.514012526604</v>
+      <c r="E24" s="7">
+        <v>8380.5140125266007</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>40</v>
       </c>
@@ -4709,7 +3202,7 @@
       </c>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>42</v>
       </c>
@@ -4723,7 +3216,7 @@
       </c>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>44</v>
       </c>
@@ -4783,15 +3276,15 @@
         <v>39</v>
       </c>
       <c r="D31" s="5"/>
-      <c r="E31" s="5">
-        <v>78670.338450647003</v>
+      <c r="E31" s="7">
+        <v>7867.3384506470002</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
@@ -4805,7 +3298,7 @@
       </c>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>42</v>
       </c>
@@ -4819,7 +3312,7 @@
       </c>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>44</v>
       </c>
@@ -4879,15 +3372,15 @@
         <v>39</v>
       </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="5">
-        <v>19830.2454556056</v>
+      <c r="E38" s="7">
+        <v>1983.2454556056</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
@@ -4901,7 +3394,7 @@
       </c>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
@@ -4915,7 +3408,7 @@
       </c>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>44</v>
       </c>
@@ -4975,15 +3468,15 @@
         <v>39</v>
       </c>
       <c r="D45" s="5"/>
-      <c r="E45" s="5">
-        <v>84960.157754329295</v>
+      <c r="E45" s="7">
+        <v>8496.1577543293006</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>40</v>
       </c>
@@ -4997,7 +3490,7 @@
       </c>
       <c r="G46" s="6"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>42</v>
       </c>
@@ -5011,7 +3504,7 @@
       </c>
       <c r="G47" s="6"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>44</v>
       </c>
@@ -5071,7 +3564,7 @@
         <v>39</v>
       </c>
       <c r="D52" s="5"/>
-      <c r="E52" s="5">
+      <c r="E52" s="7">
         <v>4901.3646667208413</v>
       </c>
       <c r="F52" s="4" t="s">
@@ -5079,7 +3572,7 @@
       </c>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>40</v>
       </c>
@@ -5093,7 +3586,7 @@
       </c>
       <c r="G53" s="6"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
@@ -5107,7 +3600,7 @@
       </c>
       <c r="G54" s="6"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>44</v>
       </c>
@@ -5122,324 +3615,68 @@
       <c r="G55" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="223" priority="13">
-      <formula>COUNTIF(G10:G10,"&lt;&gt;" &amp; "")&gt;0</formula>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="expression" dxfId="133" priority="1">
+      <formula>COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="14">
-      <formula>AND(COUNTIF(G10:G10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E10)))</formula>
+    <cfRule type="expression" dxfId="132" priority="2">
+      <formula>AND(COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="221" priority="15">
-      <formula>COUNTIF(G11:G11,"&lt;&gt;" &amp; "")&gt;0</formula>
+  <conditionalFormatting sqref="E9:E13">
+    <cfRule type="expression" dxfId="131" priority="11">
+      <formula>COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="16">
-      <formula>AND(COUNTIF(G11:G11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E11)))</formula>
+    <cfRule type="expression" dxfId="130" priority="12">
+      <formula>AND(COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="219" priority="17">
-      <formula>COUNTIF(G12:G12,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="218" priority="18">
-      <formula>AND(COUNTIF(G12:G12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="217" priority="19">
-      <formula>COUNTIF(G13:G13,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="216" priority="20">
-      <formula>AND(COUNTIF(G13:G13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="215" priority="21">
+  <conditionalFormatting sqref="E16:E20">
+    <cfRule type="expression" dxfId="129" priority="21">
       <formula>COUNTIF(G16:G16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="22">
+    <cfRule type="expression" dxfId="128" priority="22">
       <formula>AND(COUNTIF(G16:G16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="213" priority="23">
-      <formula>COUNTIF(G17:G17,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="212" priority="24">
-      <formula>AND(COUNTIF(G17:G17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="211" priority="25">
-      <formula>COUNTIF(G18:G18,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="210" priority="26">
-      <formula>AND(COUNTIF(G18:G18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="209" priority="27">
-      <formula>COUNTIF(G19:G19,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="208" priority="28">
-      <formula>AND(COUNTIF(G19:G19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="207" priority="1">
-      <formula>COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="206" priority="2">
-      <formula>AND(COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="205" priority="29">
-      <formula>COUNTIF(G20:G20,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="204" priority="30">
-      <formula>AND(COUNTIF(G20:G20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="203" priority="31">
+  <conditionalFormatting sqref="E23:E27">
+    <cfRule type="expression" dxfId="127" priority="31">
       <formula>COUNTIF(G23:G23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="32">
+    <cfRule type="expression" dxfId="126" priority="32">
       <formula>AND(COUNTIF(G23:G23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="201" priority="33">
-      <formula>COUNTIF(G24:G24,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="200" priority="34">
-      <formula>AND(COUNTIF(G24:G24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="expression" dxfId="199" priority="35">
-      <formula>COUNTIF(G25:G25,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="198" priority="36">
-      <formula>AND(COUNTIF(G25:G25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="197" priority="37">
-      <formula>COUNTIF(G26:G26,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="196" priority="38">
-      <formula>AND(COUNTIF(G26:G26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="expression" dxfId="195" priority="39">
-      <formula>COUNTIF(G27:G27,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="194" priority="40">
-      <formula>AND(COUNTIF(G27:G27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="193" priority="3">
-      <formula>COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="192" priority="4">
-      <formula>AND(COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="191" priority="41">
+  <conditionalFormatting sqref="E30:E34">
+    <cfRule type="expression" dxfId="125" priority="41">
       <formula>COUNTIF(G30:G30,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="42">
+    <cfRule type="expression" dxfId="124" priority="42">
       <formula>AND(COUNTIF(G30:G30,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="expression" dxfId="189" priority="43">
-      <formula>COUNTIF(G31:G31,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="188" priority="44">
-      <formula>AND(COUNTIF(G31:G31,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="187" priority="45">
-      <formula>COUNTIF(G32:G32,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="46">
-      <formula>AND(COUNTIF(G32:G32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="expression" dxfId="185" priority="47">
-      <formula>COUNTIF(G33:G33,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="48">
-      <formula>AND(COUNTIF(G33:G33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="183" priority="49">
-      <formula>COUNTIF(G34:G34,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="182" priority="50">
-      <formula>AND(COUNTIF(G34:G34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="181" priority="51">
+  <conditionalFormatting sqref="E37:E41">
+    <cfRule type="expression" dxfId="123" priority="51">
       <formula>COUNTIF(G37:G37,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="52">
+    <cfRule type="expression" dxfId="122" priority="52">
       <formula>AND(COUNTIF(G37:G37,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E37)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="expression" dxfId="179" priority="53">
-      <formula>COUNTIF(G38:G38,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="178" priority="54">
-      <formula>AND(COUNTIF(G38:G38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="expression" dxfId="177" priority="55">
-      <formula>COUNTIF(G39:G39,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="176" priority="56">
-      <formula>AND(COUNTIF(G39:G39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="175" priority="5">
-      <formula>COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="174" priority="6">
-      <formula>AND(COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="expression" dxfId="173" priority="57">
-      <formula>COUNTIF(G40:G40,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="172" priority="58">
-      <formula>AND(COUNTIF(G40:G40,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="171" priority="59">
-      <formula>COUNTIF(G41:G41,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="170" priority="60">
-      <formula>AND(COUNTIF(G41:G41,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="expression" dxfId="169" priority="61">
+  <conditionalFormatting sqref="E44:E48">
+    <cfRule type="expression" dxfId="121" priority="61">
       <formula>COUNTIF(G44:G44,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="62">
+    <cfRule type="expression" dxfId="120" priority="62">
       <formula>AND(COUNTIF(G44:G44,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E44)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="expression" dxfId="167" priority="63">
-      <formula>COUNTIF(G45:G45,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="166" priority="64">
-      <formula>AND(COUNTIF(G45:G45,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="expression" dxfId="165" priority="65">
-      <formula>COUNTIF(G46:G46,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="164" priority="66">
-      <formula>AND(COUNTIF(G46:G46,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="163" priority="67">
-      <formula>COUNTIF(G47:G47,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="162" priority="68">
-      <formula>AND(COUNTIF(G47:G47,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" dxfId="161" priority="69">
-      <formula>COUNTIF(G48:G48,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="160" priority="70">
-      <formula>AND(COUNTIF(G48:G48,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="159" priority="7">
-      <formula>COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="158" priority="8">
-      <formula>AND(COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" dxfId="157" priority="71">
+  <conditionalFormatting sqref="E51:E55">
+    <cfRule type="expression" dxfId="119" priority="71">
       <formula>COUNTIF(G51:G51,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="72">
+    <cfRule type="expression" dxfId="118" priority="72">
       <formula>AND(COUNTIF(G51:G51,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="155" priority="73">
-      <formula>COUNTIF(G52:G52,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="154" priority="74">
-      <formula>AND(COUNTIF(G52:G52,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="expression" dxfId="153" priority="75">
-      <formula>COUNTIF(G53:G53,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="152" priority="76">
-      <formula>AND(COUNTIF(G53:G53,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="151" priority="77">
-      <formula>COUNTIF(G54:G54,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="150" priority="78">
-      <formula>AND(COUNTIF(G54:G54,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" dxfId="149" priority="79">
-      <formula>COUNTIF(G55:G55,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="148" priority="80">
-      <formula>AND(COUNTIF(G55:G55,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="147" priority="9">
-      <formula>COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="146" priority="10">
-      <formula>AND(COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="145" priority="11">
-      <formula>COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="12">
-      <formula>AND(COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -5455,22 +3692,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
     <col min="2" max="5" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -5522,7 +3759,7 @@
         <v>local_procure</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Aga Khan Hospital, Kenya</v>
@@ -5542,7 +3779,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'Program targeting'!$D$2</f>
         <v>Aga Khan Medical Centre, Kenya</v>
@@ -5562,7 +3799,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'Program targeting'!$E$2</f>
         <v>Laudium Community Health Centre, South Africa</v>
@@ -5582,7 +3819,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'Program targeting'!$F$2</f>
         <v>Stanza Bopape Community Health Centre, South Africa</v>
@@ -5602,7 +3839,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'Program targeting'!$G$2</f>
         <v>Mamelodi Regional Hospital, South Africa</v>
@@ -5635,32 +3872,32 @@
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="G7" s="5">
+      <c r="G7" s="8">
         <v>0.66207865504115571</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="8">
         <v>0.32264488486772447</v>
       </c>
-      <c r="I7" s="5">
-        <v>0.93481491862473687</v>
-      </c>
-      <c r="J7" s="5">
+      <c r="I7" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="8">
         <v>0.87045025888889993</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="8">
         <v>0.27390031595093534</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="8">
         <v>0.77815541892443518</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="8">
         <v>0.2314668371953218</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'Program targeting'!$I$2</f>
         <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
@@ -5680,7 +3917,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>'Program targeting'!$J$2</f>
         <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
@@ -5701,68 +3938,12 @@
       <c r="N9" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="143" priority="17">
+  <conditionalFormatting sqref="D2:D9">
+    <cfRule type="expression" dxfId="117" priority="17">
       <formula>COUNTIF(F2:N2,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="18">
+    <cfRule type="expression" dxfId="116" priority="18">
       <formula>AND(COUNTIF(F2:N2,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="141" priority="35">
-      <formula>COUNTIF(F3:N3,"&lt;&gt;" &amp; "")&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="140" priority="36">
-      <formula>AND(COUNTIF(F3:N3,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="139" priority="53">
-      <formula>COUNTIF(F4:N4,"&lt;&gt;" &amp; "")&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="138" priority="54">
-      <formula>AND(COUNTIF(F4:N4,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="137" priority="71">
-      <formula>COUNTIF(F5:N5,"&lt;&gt;" &amp; "")&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="72">
-      <formula>AND(COUNTIF(F5:N5,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="135" priority="89">
-      <formula>COUNTIF(F6:N6,"&lt;&gt;" &amp; "")&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="90">
-      <formula>AND(COUNTIF(F6:N6,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="133" priority="107">
-      <formula>COUNTIF(F7:N7,"&lt;&gt;" &amp; "")&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="108">
-      <formula>AND(COUNTIF(F7:N7,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="131" priority="125">
-      <formula>COUNTIF(F8:N8,"&lt;&gt;" &amp; "")&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="126">
-      <formula>AND(COUNTIF(F8:N8,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="129" priority="143">
-      <formula>COUNTIF(F9:N9,"&lt;&gt;" &amp; "")&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="144">
-      <formula>AND(COUNTIF(F9:N9,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -5970,45 +4151,6 @@
           <xm:sqref>G6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="91" id="{00000000-000E-0000-0200-00005B000000}">
-            <xm:f>AND('Program targeting'!$H$3&lt;&gt;"Y",NOT(ISBLANK(G7)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="92" id="{00000000-000E-0000-0200-00005C000000}">
-            <xm:f>'Program targeting'!$H$3&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G7:M7</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="109" id="{00000000-000E-0000-0200-00006D000000}">
             <xm:f>AND('Program targeting'!$I$3&lt;&gt;"Y",NOT(ISBLANK(G8)))</xm:f>
             <x14:dxf>
@@ -6085,6 +4227,45 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>G9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="91" id="{00000000-000E-0000-0200-00005B000000}">
+            <xm:f>AND('Program targeting'!$H$3&lt;&gt;"Y",NOT(ISBLANK(G7)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="92" id="{00000000-000E-0000-0200-00005C000000}">
+            <xm:f>'Program targeting'!$H$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G7:M7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="3" id="{00000000-000E-0000-0200-000003000000}">

--- a/books/carbomica_progbook_mt-darwin_hosp_ZW.xlsx
+++ b/books/carbomica_progbook_mt-darwin_hosp_ZW.xlsx
@@ -2875,7 +2875,9 @@
         <v>50</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -3088,7 +3090,9 @@
         <v>50</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="5">
         <v>1</v>
@@ -3301,7 +3305,9 @@
         <v>50</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="5">
@@ -3514,7 +3520,9 @@
         <v>50</v>
       </c>
       <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -3727,7 +3735,9 @@
         <v>50</v>
       </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
+      <c r="E47" s="5">
+        <v>0</v>
+      </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
@@ -3940,7 +3950,9 @@
         <v>50</v>
       </c>
       <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
+      <c r="E57" s="5">
+        <v>0</v>
+      </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
@@ -4153,7 +4165,9 @@
         <v>50</v>
       </c>
       <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
+      <c r="E67" s="5">
+        <v>0</v>
+      </c>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
@@ -4366,7 +4380,9 @@
         <v>50</v>
       </c>
       <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
+      <c r="E77" s="5">
+        <v>0</v>
+      </c>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>

--- a/books/carbomica_progbook_mt-darwin_hosp_ZW.xlsx
+++ b/books/carbomica_progbook_mt-darwin_hosp_ZW.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="66">
   <si>
     <t>Targeted to (populations)</t>
   </si>
@@ -36,10 +36,13 @@
     <t>Aga Khan Medical Centre, Kenya</t>
   </si>
   <si>
-    <t>Laudium Community Health Centre, South Africa</t>
+    <t>Chitse Rural Health Care Clinic, Zimbabwe</t>
   </si>
   <si>
-    <t>Stanza Bopape Community Health Centre, South Africa</t>
+    <t>Dotito Rural Health Care Clinic, Zimbabwe</t>
+  </si>
+  <si>
+    <t>Laudium Community Health Centre, South Africa</t>
   </si>
   <si>
     <t>Mamelodi Regional Hospital, South Africa</t>
@@ -48,13 +51,28 @@
     <t>Mt Darwin District Hospital, Zimbabwe</t>
   </si>
   <si>
-    <t>Dotito Rural Health Care Clinic, Zimbabwe</t>
-  </si>
-  <si>
-    <t>Chitse Rural Health Care Clinic, Zimbabwe</t>
+    <t>Stanza Bopape Community Health Centre, South Africa</t>
   </si>
   <si>
     <t>Number of facilities in group</t>
+  </si>
+  <si>
+    <t>borehole_water</t>
+  </si>
+  <si>
+    <t>Borehole water</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>electric_cars</t>
+  </si>
+  <si>
+    <t>Electric cars</t>
   </si>
   <si>
     <t>energy_led</t>
@@ -63,10 +81,22 @@
     <t>Energy saving LED</t>
   </si>
   <si>
-    <t>N</t>
+    <t>local_procure</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Local procurements</t>
+  </si>
+  <si>
+    <t>low_emit_gas</t>
+  </si>
+  <si>
+    <t>Low emitting anesthetic gases</t>
+  </si>
+  <si>
+    <t>low_emit_inhale</t>
+  </si>
+  <si>
+    <t>Low emitting inhalers</t>
   </si>
   <si>
     <t>low_emit_mat</t>
@@ -75,40 +105,10 @@
     <t>Low emitting materials</t>
   </si>
   <si>
-    <t>electric_cars</t>
-  </si>
-  <si>
-    <t>Electric cars</t>
-  </si>
-  <si>
-    <t>low_emit_gas</t>
-  </si>
-  <si>
-    <t>Low emitting anesthetic gases</t>
-  </si>
-  <si>
-    <t>borehole_water</t>
-  </si>
-  <si>
-    <t>Borehole water</t>
-  </si>
-  <si>
     <t>recycle</t>
   </si>
   <si>
     <t>Recycling</t>
-  </si>
-  <si>
-    <t>low_emit_inhale</t>
-  </si>
-  <si>
-    <t>Low emitting inhalers</t>
-  </si>
-  <si>
-    <t>local_procure</t>
-  </si>
-  <si>
-    <t>Local procurements</t>
   </si>
   <si>
     <t>Provenance</t>
@@ -153,7 +153,7 @@
     <t>Coverage</t>
   </si>
   <si>
-    <t>Energy saving LED - coverage</t>
+    <t>SC1 Building energy - multiplier</t>
   </si>
   <si>
     <t>Baseline value</t>
@@ -171,25 +171,49 @@
     <t>Random</t>
   </si>
   <si>
-    <t>Low emitting materials - coverage</t>
+    <t>SC1 Travel - multiplier</t>
   </si>
   <si>
-    <t>Electric cars - coverage</t>
+    <t>SC1 Refrigerants - multiplier</t>
   </si>
   <si>
-    <t>Low emitting anesthetic gases - coverage</t>
+    <t>SC1  Waste - multiplier</t>
   </si>
   <si>
-    <t>Borehole water - coverage</t>
+    <t>SC1 Anaesthetic gases - multiplier</t>
   </si>
   <si>
-    <t>Recycling - coverage</t>
+    <t>SC2 Purchased and consumed grid electricity - multiplier</t>
   </si>
   <si>
-    <t>Low emitting inhalers - coverage</t>
+    <t>SC2 Heat networks - multiplier</t>
   </si>
   <si>
-    <t>Local procurements - coverage</t>
+    <t>SC3 Building energy (building not owned) - multiplier</t>
+  </si>
+  <si>
+    <t>SC3 Refrigerants (building not owned) - multiplier</t>
+  </si>
+  <si>
+    <t>SC3 Travel (vehicles not owned) - multiplier</t>
+  </si>
+  <si>
+    <t>SC3 Employee business travel-road, rail, air - multiplier</t>
+  </si>
+  <si>
+    <t>SC3 Water - multiplier</t>
+  </si>
+  <si>
+    <t>SC3 Waste - multiplier</t>
+  </si>
+  <si>
+    <t>SC3 Contractor logistics - multiplier</t>
+  </si>
+  <si>
+    <t>SC3 Inhalers - multiplier</t>
+  </si>
+  <si>
+    <t>SC3 Supply chain - multiplier</t>
   </si>
 </sst>
 </file>
@@ -715,10 +739,10 @@
         <v>15</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>15</v>
@@ -750,10 +774,10 @@
         <v>15</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>15</v>
@@ -785,10 +809,10 @@
         <v>15</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>15</v>
@@ -820,10 +844,10 @@
         <v>15</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>15</v>
@@ -855,10 +879,10 @@
         <v>15</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>15</v>
@@ -890,10 +914,10 @@
         <v>15</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>15</v>
@@ -925,10 +949,10 @@
         <v>15</v>
       </c>
       <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>15</v>
@@ -960,10 +984,10 @@
         <v>15</v>
       </c>
       <c r="H10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>15</v>
@@ -1575,7 +1599,7 @@
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
-        <v>energy_led</v>
+        <v>borehole_water</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>31</v>
@@ -1607,7 +1631,7 @@
         <v>37</v>
       </c>
       <c r="G2" s="5">
-        <v>1E-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1619,7 +1643,7 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5">
-        <v>6170.3416368942</v>
+        <v>910190.7282664571</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>37</v>
@@ -1671,7 +1695,7 @@
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
-        <v>low_emit_mat</v>
+        <v>electric_cars</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>31</v>
@@ -1703,7 +1727,7 @@
         <v>37</v>
       </c>
       <c r="G9" s="5">
-        <v>1E-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1715,7 +1739,7 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5">
-        <v>4023.5092935694</v>
+        <v>710905.7588300979</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>37</v>
@@ -1767,7 +1791,7 @@
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
-        <v>electric_cars</v>
+        <v>energy_led</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>31</v>
@@ -1799,7 +1823,7 @@
         <v>37</v>
       </c>
       <c r="G16" s="5">
-        <v>1E-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1811,7 +1835,7 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5">
-        <v>600</v>
+        <v>621796.768305492</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>37</v>
@@ -1863,7 +1887,7 @@
     <row r="22" spans="1:7">
       <c r="A22" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
-        <v>low_emit_gas</v>
+        <v>local_procure</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>31</v>
@@ -1895,7 +1919,7 @@
         <v>37</v>
       </c>
       <c r="G23" s="5">
-        <v>1E-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1907,7 +1931,7 @@
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5">
-        <v>8380.514012526601</v>
+        <v>612399.348745988</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>37</v>
@@ -1959,7 +1983,7 @@
     <row r="29" spans="1:7">
       <c r="A29" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
-        <v>borehole_water</v>
+        <v>low_emit_gas</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>31</v>
@@ -1991,7 +2015,7 @@
         <v>37</v>
       </c>
       <c r="G30" s="5">
-        <v>1E-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2003,7 +2027,7 @@
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5">
-        <v>7867.338450647</v>
+        <v>272951.5231945354</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>37</v>
@@ -2055,7 +2079,7 @@
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
-        <v>recycle</v>
+        <v>low_emit_inhale</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>31</v>
@@ -2087,7 +2111,7 @@
         <v>37</v>
       </c>
       <c r="G37" s="5">
-        <v>1E-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2099,7 +2123,7 @@
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5">
-        <v>1983.2454556056</v>
+        <v>839415.3118260821</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>37</v>
@@ -2151,7 +2175,7 @@
     <row r="43" spans="1:7">
       <c r="A43" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
-        <v>low_emit_inhale</v>
+        <v>low_emit_mat</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>31</v>
@@ -2183,7 +2207,7 @@
         <v>37</v>
       </c>
       <c r="G44" s="5">
-        <v>1E-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2195,7 +2219,7 @@
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5">
-        <v>8496.157754329301</v>
+        <v>153921.6510869341</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>37</v>
@@ -2247,7 +2271,7 @@
     <row r="50" spans="1:7">
       <c r="A50" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>local_procure</v>
+        <v>recycle</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>31</v>
@@ -2279,7 +2303,7 @@
         <v>37</v>
       </c>
       <c r="G51" s="5">
-        <v>1E-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2291,7 +2315,7 @@
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5">
-        <v>4901.364666720841</v>
+        <v>661599.0555142699</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>37</v>
@@ -2693,25 +2717,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N79"/>
+  <dimension ref="A1:N159"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="64.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2732,35 +2756,35 @@
       </c>
       <c r="G1" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
-        <v>energy_led</v>
+        <v>borehole_water</v>
       </c>
       <c r="H1" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
-        <v>low_emit_mat</v>
+        <v>electric_cars</v>
       </c>
       <c r="I1" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
-        <v>electric_cars</v>
+        <v>energy_led</v>
       </c>
       <c r="J1" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
-        <v>low_emit_gas</v>
+        <v>local_procure</v>
       </c>
       <c r="K1" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
-        <v>borehole_water</v>
+        <v>low_emit_gas</v>
       </c>
       <c r="L1" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
-        <v>recycle</v>
+        <v>low_emit_inhale</v>
       </c>
       <c r="M1" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
-        <v>low_emit_inhale</v>
+        <v>low_emit_mat</v>
       </c>
       <c r="N1" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>local_procure</v>
+        <v>recycle</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2806,7 +2830,7 @@
     <row r="4" spans="1:14">
       <c r="A4" t="str">
         <f>'Program targeting'!$E$2</f>
-        <v>Laudium Community Health Centre, South Africa</v>
+        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
@@ -2826,7 +2850,7 @@
     <row r="5" spans="1:14">
       <c r="A5" t="str">
         <f>'Program targeting'!$F$2</f>
-        <v>Stanza Bopape Community Health Centre, South Africa</v>
+        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
@@ -2846,7 +2870,7 @@
     <row r="6" spans="1:14">
       <c r="A6" t="str">
         <f>'Program targeting'!$G$2</f>
-        <v>Mamelodi Regional Hospital, South Africa</v>
+        <v>Laudium Community Health Centre, South Africa</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
@@ -2866,21 +2890,15 @@
     <row r="7" spans="1:14">
       <c r="A7" t="str">
         <f>'Program targeting'!$H$2</f>
-        <v>Mt Darwin District Hospital, Zimbabwe</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>50</v>
+        <v>Mamelodi Regional Hospital, South Africa</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
+      <c r="E7" s="6"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -2892,17 +2910,23 @@
     <row r="8" spans="1:14">
       <c r="A8" t="str">
         <f>'Program targeting'!$I$2</f>
-        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>49</v>
+        <v>Mt Darwin District Hospital, Zimbabwe</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="I8" s="5">
+        <v>0.1780047904120736</v>
+      </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -2912,7 +2936,7 @@
     <row r="9" spans="1:14">
       <c r="A9" t="str">
         <f>'Program targeting'!$J$2</f>
-        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
+        <v>Stanza Bopape Community Health Centre, South Africa</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
@@ -2947,35 +2971,35 @@
       </c>
       <c r="G11" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
-        <v>energy_led</v>
+        <v>borehole_water</v>
       </c>
       <c r="H11" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
-        <v>low_emit_mat</v>
+        <v>electric_cars</v>
       </c>
       <c r="I11" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
-        <v>electric_cars</v>
+        <v>energy_led</v>
       </c>
       <c r="J11" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
-        <v>low_emit_gas</v>
+        <v>local_procure</v>
       </c>
       <c r="K11" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
-        <v>borehole_water</v>
+        <v>low_emit_gas</v>
       </c>
       <c r="L11" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
-        <v>recycle</v>
+        <v>low_emit_inhale</v>
       </c>
       <c r="M11" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
-        <v>low_emit_inhale</v>
+        <v>low_emit_mat</v>
       </c>
       <c r="N11" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>local_procure</v>
+        <v>recycle</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -3021,7 +3045,7 @@
     <row r="14" spans="1:14">
       <c r="A14" t="str">
         <f>'Program targeting'!$E$2</f>
-        <v>Laudium Community Health Centre, South Africa</v>
+        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
@@ -3041,7 +3065,7 @@
     <row r="15" spans="1:14">
       <c r="A15" t="str">
         <f>'Program targeting'!$F$2</f>
-        <v>Stanza Bopape Community Health Centre, South Africa</v>
+        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
@@ -3061,7 +3085,7 @@
     <row r="16" spans="1:14">
       <c r="A16" t="str">
         <f>'Program targeting'!$G$2</f>
-        <v>Mamelodi Regional Hospital, South Africa</v>
+        <v>Laudium Community Health Centre, South Africa</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -3081,22 +3105,16 @@
     <row r="17" spans="1:14">
       <c r="A17" t="str">
         <f>'Program targeting'!$H$2</f>
-        <v>Mt Darwin District Hospital, Zimbabwe</v>
-      </c>
-      <c r="B17" s="5">
-        <v>0</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>50</v>
+        <v>Mamelodi Regional Hospital, South Africa</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
+      <c r="E17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="5">
-        <v>1</v>
-      </c>
+      <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -3107,16 +3125,22 @@
     <row r="18" spans="1:14">
       <c r="A18" t="str">
         <f>'Program targeting'!$I$2</f>
-        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
-        <v>49</v>
+        <v>Mt Darwin District Hospital, Zimbabwe</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="H18" s="5">
+        <v>0.288854417846759</v>
+      </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -3127,7 +3151,7 @@
     <row r="19" spans="1:14">
       <c r="A19" t="str">
         <f>'Program targeting'!$J$2</f>
-        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
+        <v>Stanza Bopape Community Health Centre, South Africa</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
@@ -3162,35 +3186,35 @@
       </c>
       <c r="G21" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
-        <v>energy_led</v>
+        <v>borehole_water</v>
       </c>
       <c r="H21" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
-        <v>low_emit_mat</v>
+        <v>electric_cars</v>
       </c>
       <c r="I21" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
-        <v>electric_cars</v>
+        <v>energy_led</v>
       </c>
       <c r="J21" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
-        <v>low_emit_gas</v>
+        <v>local_procure</v>
       </c>
       <c r="K21" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
-        <v>borehole_water</v>
+        <v>low_emit_gas</v>
       </c>
       <c r="L21" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
-        <v>recycle</v>
+        <v>low_emit_inhale</v>
       </c>
       <c r="M21" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
-        <v>low_emit_inhale</v>
+        <v>low_emit_mat</v>
       </c>
       <c r="N21" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>local_procure</v>
+        <v>recycle</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -3236,7 +3260,7 @@
     <row r="24" spans="1:14">
       <c r="A24" t="str">
         <f>'Program targeting'!$E$2</f>
-        <v>Laudium Community Health Centre, South Africa</v>
+        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
@@ -3256,7 +3280,7 @@
     <row r="25" spans="1:14">
       <c r="A25" t="str">
         <f>'Program targeting'!$F$2</f>
-        <v>Stanza Bopape Community Health Centre, South Africa</v>
+        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
@@ -3276,7 +3300,7 @@
     <row r="26" spans="1:14">
       <c r="A26" t="str">
         <f>'Program targeting'!$G$2</f>
-        <v>Mamelodi Regional Hospital, South Africa</v>
+        <v>Laudium Community Health Centre, South Africa</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
@@ -3296,23 +3320,17 @@
     <row r="27" spans="1:14">
       <c r="A27" t="str">
         <f>'Program targeting'!$H$2</f>
-        <v>Mt Darwin District Hospital, Zimbabwe</v>
-      </c>
-      <c r="B27" s="5">
-        <v>0</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>50</v>
+        <v>Mamelodi Regional Hospital, South Africa</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="5">
-        <v>0</v>
-      </c>
+      <c r="E27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="5">
-        <v>1</v>
-      </c>
+      <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
@@ -3322,7 +3340,7 @@
     <row r="28" spans="1:14">
       <c r="A28" t="str">
         <f>'Program targeting'!$I$2</f>
-        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
+        <v>Mt Darwin District Hospital, Zimbabwe</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
@@ -3342,7 +3360,7 @@
     <row r="29" spans="1:14">
       <c r="A29" t="str">
         <f>'Program targeting'!$J$2</f>
-        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
+        <v>Stanza Bopape Community Health Centre, South Africa</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
@@ -3377,35 +3395,35 @@
       </c>
       <c r="G31" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
-        <v>energy_led</v>
+        <v>borehole_water</v>
       </c>
       <c r="H31" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
-        <v>low_emit_mat</v>
+        <v>electric_cars</v>
       </c>
       <c r="I31" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
-        <v>electric_cars</v>
+        <v>energy_led</v>
       </c>
       <c r="J31" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
-        <v>low_emit_gas</v>
+        <v>local_procure</v>
       </c>
       <c r="K31" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
-        <v>borehole_water</v>
+        <v>low_emit_gas</v>
       </c>
       <c r="L31" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
-        <v>recycle</v>
+        <v>low_emit_inhale</v>
       </c>
       <c r="M31" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
-        <v>low_emit_inhale</v>
+        <v>low_emit_mat</v>
       </c>
       <c r="N31" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>local_procure</v>
+        <v>recycle</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -3451,7 +3469,7 @@
     <row r="34" spans="1:14">
       <c r="A34" t="str">
         <f>'Program targeting'!$E$2</f>
-        <v>Laudium Community Health Centre, South Africa</v>
+        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
@@ -3471,7 +3489,7 @@
     <row r="35" spans="1:14">
       <c r="A35" t="str">
         <f>'Program targeting'!$F$2</f>
-        <v>Stanza Bopape Community Health Centre, South Africa</v>
+        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
@@ -3491,7 +3509,7 @@
     <row r="36" spans="1:14">
       <c r="A36" t="str">
         <f>'Program targeting'!$G$2</f>
-        <v>Mamelodi Regional Hospital, South Africa</v>
+        <v>Laudium Community Health Centre, South Africa</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
@@ -3511,24 +3529,18 @@
     <row r="37" spans="1:14">
       <c r="A37" t="str">
         <f>'Program targeting'!$H$2</f>
-        <v>Mt Darwin District Hospital, Zimbabwe</v>
-      </c>
-      <c r="B37" s="5">
-        <v>0</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>50</v>
+        <v>Mamelodi Regional Hospital, South Africa</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="D37" s="6"/>
-      <c r="E37" s="5">
-        <v>0</v>
-      </c>
+      <c r="E37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="5">
-        <v>1</v>
-      </c>
+      <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
@@ -3537,14 +3549,18 @@
     <row r="38" spans="1:14">
       <c r="A38" t="str">
         <f>'Program targeting'!$I$2</f>
-        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6" t="s">
-        <v>49</v>
+        <v>Mt Darwin District Hospital, Zimbabwe</v>
+      </c>
+      <c r="B38" s="5">
+        <v>1</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="E38" s="5">
+        <v>0</v>
+      </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -3552,12 +3568,14 @@
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
+      <c r="N38" s="5">
+        <v>0.3058330055083578</v>
+      </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="str">
         <f>'Program targeting'!$J$2</f>
-        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
+        <v>Stanza Bopape Community Health Centre, South Africa</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
@@ -3592,35 +3610,35 @@
       </c>
       <c r="G41" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
-        <v>energy_led</v>
+        <v>borehole_water</v>
       </c>
       <c r="H41" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
-        <v>low_emit_mat</v>
+        <v>electric_cars</v>
       </c>
       <c r="I41" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
-        <v>electric_cars</v>
+        <v>energy_led</v>
       </c>
       <c r="J41" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
-        <v>low_emit_gas</v>
+        <v>local_procure</v>
       </c>
       <c r="K41" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
-        <v>borehole_water</v>
+        <v>low_emit_gas</v>
       </c>
       <c r="L41" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
-        <v>recycle</v>
+        <v>low_emit_inhale</v>
       </c>
       <c r="M41" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
-        <v>low_emit_inhale</v>
+        <v>low_emit_mat</v>
       </c>
       <c r="N41" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>local_procure</v>
+        <v>recycle</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -3666,7 +3684,7 @@
     <row r="44" spans="1:14">
       <c r="A44" t="str">
         <f>'Program targeting'!$E$2</f>
-        <v>Laudium Community Health Centre, South Africa</v>
+        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="s">
@@ -3686,7 +3704,7 @@
     <row r="45" spans="1:14">
       <c r="A45" t="str">
         <f>'Program targeting'!$F$2</f>
-        <v>Stanza Bopape Community Health Centre, South Africa</v>
+        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6" t="s">
@@ -3706,7 +3724,7 @@
     <row r="46" spans="1:14">
       <c r="A46" t="str">
         <f>'Program targeting'!$G$2</f>
-        <v>Mamelodi Regional Hospital, South Africa</v>
+        <v>Laudium Community Health Centre, South Africa</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6" t="s">
@@ -3726,25 +3744,19 @@
     <row r="47" spans="1:14">
       <c r="A47" t="str">
         <f>'Program targeting'!$H$2</f>
-        <v>Mt Darwin District Hospital, Zimbabwe</v>
-      </c>
-      <c r="B47" s="5">
-        <v>0</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>50</v>
+        <v>Mamelodi Regional Hospital, South Africa</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="5">
-        <v>0</v>
-      </c>
+      <c r="E47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
-      <c r="K47" s="5">
-        <v>1</v>
-      </c>
+      <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
@@ -3752,19 +3764,25 @@
     <row r="48" spans="1:14">
       <c r="A48" t="str">
         <f>'Program targeting'!$I$2</f>
-        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
-      </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6" t="s">
-        <v>49</v>
+        <v>Mt Darwin District Hospital, Zimbabwe</v>
+      </c>
+      <c r="B48" s="5">
+        <v>1</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
+      <c r="E48" s="5">
+        <v>0</v>
+      </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
+      <c r="K48" s="5">
+        <v>0.3467439520173092</v>
+      </c>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
@@ -3772,7 +3790,7 @@
     <row r="49" spans="1:14">
       <c r="A49" t="str">
         <f>'Program targeting'!$J$2</f>
-        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
+        <v>Stanza Bopape Community Health Centre, South Africa</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6" t="s">
@@ -3807,35 +3825,35 @@
       </c>
       <c r="G51" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
-        <v>energy_led</v>
+        <v>borehole_water</v>
       </c>
       <c r="H51" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
-        <v>low_emit_mat</v>
+        <v>electric_cars</v>
       </c>
       <c r="I51" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
-        <v>electric_cars</v>
+        <v>energy_led</v>
       </c>
       <c r="J51" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
-        <v>low_emit_gas</v>
+        <v>local_procure</v>
       </c>
       <c r="K51" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
-        <v>borehole_water</v>
+        <v>low_emit_gas</v>
       </c>
       <c r="L51" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
-        <v>recycle</v>
+        <v>low_emit_inhale</v>
       </c>
       <c r="M51" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
-        <v>low_emit_inhale</v>
+        <v>low_emit_mat</v>
       </c>
       <c r="N51" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>local_procure</v>
+        <v>recycle</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3881,7 +3899,7 @@
     <row r="54" spans="1:14">
       <c r="A54" t="str">
         <f>'Program targeting'!$E$2</f>
-        <v>Laudium Community Health Centre, South Africa</v>
+        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6" t="s">
@@ -3901,7 +3919,7 @@
     <row r="55" spans="1:14">
       <c r="A55" t="str">
         <f>'Program targeting'!$F$2</f>
-        <v>Stanza Bopape Community Health Centre, South Africa</v>
+        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6" t="s">
@@ -3921,7 +3939,7 @@
     <row r="56" spans="1:14">
       <c r="A56" t="str">
         <f>'Program targeting'!$G$2</f>
-        <v>Mamelodi Regional Hospital, South Africa</v>
+        <v>Laudium Community Health Centre, South Africa</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6" t="s">
@@ -3941,43 +3959,43 @@
     <row r="57" spans="1:14">
       <c r="A57" t="str">
         <f>'Program targeting'!$H$2</f>
-        <v>Mt Darwin District Hospital, Zimbabwe</v>
-      </c>
-      <c r="B57" s="5">
-        <v>0</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>50</v>
+        <v>Mamelodi Regional Hospital, South Africa</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="D57" s="6"/>
-      <c r="E57" s="5">
-        <v>0</v>
-      </c>
+      <c r="E57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
-      <c r="L57" s="5">
-        <v>1</v>
-      </c>
+      <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" t="str">
         <f>'Program targeting'!$I$2</f>
-        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
-      </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6" t="s">
-        <v>49</v>
+        <v>Mt Darwin District Hospital, Zimbabwe</v>
+      </c>
+      <c r="B58" s="5">
+        <v>1</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
+      <c r="E58" s="5">
+        <v>0</v>
+      </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
+      <c r="I58" s="5">
+        <v>0.1780047904120736</v>
+      </c>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
@@ -3987,7 +4005,7 @@
     <row r="59" spans="1:14">
       <c r="A59" t="str">
         <f>'Program targeting'!$J$2</f>
-        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
+        <v>Stanza Bopape Community Health Centre, South Africa</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
@@ -4022,35 +4040,35 @@
       </c>
       <c r="G61" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
-        <v>energy_led</v>
+        <v>borehole_water</v>
       </c>
       <c r="H61" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
-        <v>low_emit_mat</v>
+        <v>electric_cars</v>
       </c>
       <c r="I61" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
-        <v>electric_cars</v>
+        <v>energy_led</v>
       </c>
       <c r="J61" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
-        <v>low_emit_gas</v>
+        <v>local_procure</v>
       </c>
       <c r="K61" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
-        <v>borehole_water</v>
+        <v>low_emit_gas</v>
       </c>
       <c r="L61" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
-        <v>recycle</v>
+        <v>low_emit_inhale</v>
       </c>
       <c r="M61" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
-        <v>low_emit_inhale</v>
+        <v>low_emit_mat</v>
       </c>
       <c r="N61" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>local_procure</v>
+        <v>recycle</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -4096,7 +4114,7 @@
     <row r="64" spans="1:14">
       <c r="A64" t="str">
         <f>'Program targeting'!$E$2</f>
-        <v>Laudium Community Health Centre, South Africa</v>
+        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6" t="s">
@@ -4116,7 +4134,7 @@
     <row r="65" spans="1:14">
       <c r="A65" t="str">
         <f>'Program targeting'!$F$2</f>
-        <v>Stanza Bopape Community Health Centre, South Africa</v>
+        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6" t="s">
@@ -4136,7 +4154,7 @@
     <row r="66" spans="1:14">
       <c r="A66" t="str">
         <f>'Program targeting'!$G$2</f>
-        <v>Mamelodi Regional Hospital, South Africa</v>
+        <v>Laudium Community Health Centre, South Africa</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6" t="s">
@@ -4156,33 +4174,27 @@
     <row r="67" spans="1:14">
       <c r="A67" t="str">
         <f>'Program targeting'!$H$2</f>
-        <v>Mt Darwin District Hospital, Zimbabwe</v>
-      </c>
-      <c r="B67" s="5">
-        <v>0</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>50</v>
+        <v>Mamelodi Regional Hospital, South Africa</v>
+      </c>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="D67" s="6"/>
-      <c r="E67" s="5">
-        <v>0</v>
-      </c>
+      <c r="E67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
-      <c r="M67" s="5">
-        <v>1</v>
-      </c>
+      <c r="M67" s="6"/>
       <c r="N67" s="6"/>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" t="str">
         <f>'Program targeting'!$I$2</f>
-        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
+        <v>Mt Darwin District Hospital, Zimbabwe</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6" t="s">
@@ -4202,7 +4214,7 @@
     <row r="69" spans="1:14">
       <c r="A69" t="str">
         <f>'Program targeting'!$J$2</f>
-        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
+        <v>Stanza Bopape Community Health Centre, South Africa</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6" t="s">
@@ -4237,35 +4249,35 @@
       </c>
       <c r="G71" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
-        <v>energy_led</v>
+        <v>borehole_water</v>
       </c>
       <c r="H71" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
-        <v>low_emit_mat</v>
+        <v>electric_cars</v>
       </c>
       <c r="I71" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
-        <v>electric_cars</v>
+        <v>energy_led</v>
       </c>
       <c r="J71" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
-        <v>low_emit_gas</v>
+        <v>local_procure</v>
       </c>
       <c r="K71" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
-        <v>borehole_water</v>
+        <v>low_emit_gas</v>
       </c>
       <c r="L71" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
-        <v>recycle</v>
+        <v>low_emit_inhale</v>
       </c>
       <c r="M71" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
-        <v>low_emit_inhale</v>
+        <v>low_emit_mat</v>
       </c>
       <c r="N71" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>local_procure</v>
+        <v>recycle</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -4311,7 +4323,7 @@
     <row r="74" spans="1:14">
       <c r="A74" t="str">
         <f>'Program targeting'!$E$2</f>
-        <v>Laudium Community Health Centre, South Africa</v>
+        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6" t="s">
@@ -4331,7 +4343,7 @@
     <row r="75" spans="1:14">
       <c r="A75" t="str">
         <f>'Program targeting'!$F$2</f>
-        <v>Stanza Bopape Community Health Centre, South Africa</v>
+        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6" t="s">
@@ -4351,7 +4363,7 @@
     <row r="76" spans="1:14">
       <c r="A76" t="str">
         <f>'Program targeting'!$G$2</f>
-        <v>Mamelodi Regional Hospital, South Africa</v>
+        <v>Laudium Community Health Centre, South Africa</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6" t="s">
@@ -4371,18 +4383,14 @@
     <row r="77" spans="1:14">
       <c r="A77" t="str">
         <f>'Program targeting'!$H$2</f>
-        <v>Mt Darwin District Hospital, Zimbabwe</v>
-      </c>
-      <c r="B77" s="5">
-        <v>0</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>50</v>
+        <v>Mamelodi Regional Hospital, South Africa</v>
+      </c>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="D77" s="6"/>
-      <c r="E77" s="5">
-        <v>0</v>
-      </c>
+      <c r="E77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
@@ -4390,14 +4398,12 @@
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
-      <c r="N77" s="5">
-        <v>1</v>
-      </c>
+      <c r="N77" s="6"/>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" t="str">
         <f>'Program targeting'!$I$2</f>
-        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
+        <v>Mt Darwin District Hospital, Zimbabwe</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6" t="s">
@@ -4417,7 +4423,7 @@
     <row r="79" spans="1:14">
       <c r="A79" t="str">
         <f>'Program targeting'!$J$2</f>
-        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
+        <v>Stanza Bopape Community Health Centre, South Africa</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6" t="s">
@@ -4434,7 +4440,1837 @@
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
     </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G81" s="2" t="str">
+        <f>'Program targeting'!$A$3</f>
+        <v>borehole_water</v>
+      </c>
+      <c r="H81" s="2" t="str">
+        <f>'Program targeting'!$A$4</f>
+        <v>electric_cars</v>
+      </c>
+      <c r="I81" s="2" t="str">
+        <f>'Program targeting'!$A$5</f>
+        <v>energy_led</v>
+      </c>
+      <c r="J81" s="2" t="str">
+        <f>'Program targeting'!$A$6</f>
+        <v>local_procure</v>
+      </c>
+      <c r="K81" s="2" t="str">
+        <f>'Program targeting'!$A$7</f>
+        <v>low_emit_gas</v>
+      </c>
+      <c r="L81" s="2" t="str">
+        <f>'Program targeting'!$A$8</f>
+        <v>low_emit_inhale</v>
+      </c>
+      <c r="M81" s="2" t="str">
+        <f>'Program targeting'!$A$9</f>
+        <v>low_emit_mat</v>
+      </c>
+      <c r="N81" s="2" t="str">
+        <f>'Program targeting'!$A$10</f>
+        <v>recycle</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" t="str">
+        <f>'Program targeting'!$C$2</f>
+        <v>Aga Khan Hospital, Kenya</v>
+      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" t="str">
+        <f>'Program targeting'!$D$2</f>
+        <v>Aga Khan Medical Centre, Kenya</v>
+      </c>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" t="str">
+        <f>'Program targeting'!$E$2</f>
+        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
+      </c>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" t="str">
+        <f>'Program targeting'!$F$2</f>
+        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
+      </c>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" t="str">
+        <f>'Program targeting'!$G$2</f>
+        <v>Laudium Community Health Centre, South Africa</v>
+      </c>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" t="str">
+        <f>'Program targeting'!$H$2</f>
+        <v>Mamelodi Regional Hospital, South Africa</v>
+      </c>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" t="str">
+        <f>'Program targeting'!$I$2</f>
+        <v>Mt Darwin District Hospital, Zimbabwe</v>
+      </c>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" t="str">
+        <f>'Program targeting'!$J$2</f>
+        <v>Stanza Bopape Community Health Centre, South Africa</v>
+      </c>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G91" s="2" t="str">
+        <f>'Program targeting'!$A$3</f>
+        <v>borehole_water</v>
+      </c>
+      <c r="H91" s="2" t="str">
+        <f>'Program targeting'!$A$4</f>
+        <v>electric_cars</v>
+      </c>
+      <c r="I91" s="2" t="str">
+        <f>'Program targeting'!$A$5</f>
+        <v>energy_led</v>
+      </c>
+      <c r="J91" s="2" t="str">
+        <f>'Program targeting'!$A$6</f>
+        <v>local_procure</v>
+      </c>
+      <c r="K91" s="2" t="str">
+        <f>'Program targeting'!$A$7</f>
+        <v>low_emit_gas</v>
+      </c>
+      <c r="L91" s="2" t="str">
+        <f>'Program targeting'!$A$8</f>
+        <v>low_emit_inhale</v>
+      </c>
+      <c r="M91" s="2" t="str">
+        <f>'Program targeting'!$A$9</f>
+        <v>low_emit_mat</v>
+      </c>
+      <c r="N91" s="2" t="str">
+        <f>'Program targeting'!$A$10</f>
+        <v>recycle</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" t="str">
+        <f>'Program targeting'!$C$2</f>
+        <v>Aga Khan Hospital, Kenya</v>
+      </c>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" t="str">
+        <f>'Program targeting'!$D$2</f>
+        <v>Aga Khan Medical Centre, Kenya</v>
+      </c>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" t="str">
+        <f>'Program targeting'!$E$2</f>
+        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
+      </c>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" t="str">
+        <f>'Program targeting'!$F$2</f>
+        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
+      </c>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" t="str">
+        <f>'Program targeting'!$G$2</f>
+        <v>Laudium Community Health Centre, South Africa</v>
+      </c>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" t="str">
+        <f>'Program targeting'!$H$2</f>
+        <v>Mamelodi Regional Hospital, South Africa</v>
+      </c>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" t="str">
+        <f>'Program targeting'!$I$2</f>
+        <v>Mt Darwin District Hospital, Zimbabwe</v>
+      </c>
+      <c r="B98" s="5">
+        <v>1</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D98" s="6"/>
+      <c r="E98" s="5">
+        <v>0</v>
+      </c>
+      <c r="G98" s="6"/>
+      <c r="H98" s="5">
+        <v>0.288854417846759</v>
+      </c>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" t="str">
+        <f>'Program targeting'!$J$2</f>
+        <v>Stanza Bopape Community Health Centre, South Africa</v>
+      </c>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G101" s="2" t="str">
+        <f>'Program targeting'!$A$3</f>
+        <v>borehole_water</v>
+      </c>
+      <c r="H101" s="2" t="str">
+        <f>'Program targeting'!$A$4</f>
+        <v>electric_cars</v>
+      </c>
+      <c r="I101" s="2" t="str">
+        <f>'Program targeting'!$A$5</f>
+        <v>energy_led</v>
+      </c>
+      <c r="J101" s="2" t="str">
+        <f>'Program targeting'!$A$6</f>
+        <v>local_procure</v>
+      </c>
+      <c r="K101" s="2" t="str">
+        <f>'Program targeting'!$A$7</f>
+        <v>low_emit_gas</v>
+      </c>
+      <c r="L101" s="2" t="str">
+        <f>'Program targeting'!$A$8</f>
+        <v>low_emit_inhale</v>
+      </c>
+      <c r="M101" s="2" t="str">
+        <f>'Program targeting'!$A$9</f>
+        <v>low_emit_mat</v>
+      </c>
+      <c r="N101" s="2" t="str">
+        <f>'Program targeting'!$A$10</f>
+        <v>recycle</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" t="str">
+        <f>'Program targeting'!$C$2</f>
+        <v>Aga Khan Hospital, Kenya</v>
+      </c>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="6"/>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" t="str">
+        <f>'Program targeting'!$D$2</f>
+        <v>Aga Khan Medical Centre, Kenya</v>
+      </c>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="6"/>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" t="str">
+        <f>'Program targeting'!$E$2</f>
+        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
+      </c>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="6"/>
+      <c r="N104" s="6"/>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" t="str">
+        <f>'Program targeting'!$F$2</f>
+        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
+      </c>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="6"/>
+      <c r="N105" s="6"/>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" t="str">
+        <f>'Program targeting'!$G$2</f>
+        <v>Laudium Community Health Centre, South Africa</v>
+      </c>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="6"/>
+      <c r="N106" s="6"/>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" t="str">
+        <f>'Program targeting'!$H$2</f>
+        <v>Mamelodi Regional Hospital, South Africa</v>
+      </c>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="6"/>
+      <c r="M107" s="6"/>
+      <c r="N107" s="6"/>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" t="str">
+        <f>'Program targeting'!$I$2</f>
+        <v>Mt Darwin District Hospital, Zimbabwe</v>
+      </c>
+      <c r="B108" s="5">
+        <v>1</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D108" s="6"/>
+      <c r="E108" s="5">
+        <v>0</v>
+      </c>
+      <c r="G108" s="6"/>
+      <c r="H108" s="5">
+        <v>0.288854417846759</v>
+      </c>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="6"/>
+      <c r="N108" s="6"/>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" t="str">
+        <f>'Program targeting'!$J$2</f>
+        <v>Stanza Bopape Community Health Centre, South Africa</v>
+      </c>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="6"/>
+      <c r="N109" s="6"/>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G111" s="2" t="str">
+        <f>'Program targeting'!$A$3</f>
+        <v>borehole_water</v>
+      </c>
+      <c r="H111" s="2" t="str">
+        <f>'Program targeting'!$A$4</f>
+        <v>electric_cars</v>
+      </c>
+      <c r="I111" s="2" t="str">
+        <f>'Program targeting'!$A$5</f>
+        <v>energy_led</v>
+      </c>
+      <c r="J111" s="2" t="str">
+        <f>'Program targeting'!$A$6</f>
+        <v>local_procure</v>
+      </c>
+      <c r="K111" s="2" t="str">
+        <f>'Program targeting'!$A$7</f>
+        <v>low_emit_gas</v>
+      </c>
+      <c r="L111" s="2" t="str">
+        <f>'Program targeting'!$A$8</f>
+        <v>low_emit_inhale</v>
+      </c>
+      <c r="M111" s="2" t="str">
+        <f>'Program targeting'!$A$9</f>
+        <v>low_emit_mat</v>
+      </c>
+      <c r="N111" s="2" t="str">
+        <f>'Program targeting'!$A$10</f>
+        <v>recycle</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" t="str">
+        <f>'Program targeting'!$C$2</f>
+        <v>Aga Khan Hospital, Kenya</v>
+      </c>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="6"/>
+      <c r="M112" s="6"/>
+      <c r="N112" s="6"/>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113" t="str">
+        <f>'Program targeting'!$D$2</f>
+        <v>Aga Khan Medical Centre, Kenya</v>
+      </c>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="6"/>
+      <c r="N113" s="6"/>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114" t="str">
+        <f>'Program targeting'!$E$2</f>
+        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
+      </c>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="6"/>
+      <c r="N114" s="6"/>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" t="str">
+        <f>'Program targeting'!$F$2</f>
+        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
+      </c>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6"/>
+      <c r="N115" s="6"/>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116" t="str">
+        <f>'Program targeting'!$G$2</f>
+        <v>Laudium Community Health Centre, South Africa</v>
+      </c>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="6"/>
+      <c r="M116" s="6"/>
+      <c r="N116" s="6"/>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117" t="str">
+        <f>'Program targeting'!$H$2</f>
+        <v>Mamelodi Regional Hospital, South Africa</v>
+      </c>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="6"/>
+      <c r="M117" s="6"/>
+      <c r="N117" s="6"/>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="A118" t="str">
+        <f>'Program targeting'!$I$2</f>
+        <v>Mt Darwin District Hospital, Zimbabwe</v>
+      </c>
+      <c r="B118" s="5">
+        <v>1</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D118" s="6"/>
+      <c r="E118" s="5">
+        <v>0</v>
+      </c>
+      <c r="G118" s="5">
+        <v>0.2106957427651659</v>
+      </c>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="6"/>
+      <c r="L118" s="6"/>
+      <c r="M118" s="6"/>
+      <c r="N118" s="6"/>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119" t="str">
+        <f>'Program targeting'!$J$2</f>
+        <v>Stanza Bopape Community Health Centre, South Africa</v>
+      </c>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
+      <c r="L119" s="6"/>
+      <c r="M119" s="6"/>
+      <c r="N119" s="6"/>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="A121" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G121" s="2" t="str">
+        <f>'Program targeting'!$A$3</f>
+        <v>borehole_water</v>
+      </c>
+      <c r="H121" s="2" t="str">
+        <f>'Program targeting'!$A$4</f>
+        <v>electric_cars</v>
+      </c>
+      <c r="I121" s="2" t="str">
+        <f>'Program targeting'!$A$5</f>
+        <v>energy_led</v>
+      </c>
+      <c r="J121" s="2" t="str">
+        <f>'Program targeting'!$A$6</f>
+        <v>local_procure</v>
+      </c>
+      <c r="K121" s="2" t="str">
+        <f>'Program targeting'!$A$7</f>
+        <v>low_emit_gas</v>
+      </c>
+      <c r="L121" s="2" t="str">
+        <f>'Program targeting'!$A$8</f>
+        <v>low_emit_inhale</v>
+      </c>
+      <c r="M121" s="2" t="str">
+        <f>'Program targeting'!$A$9</f>
+        <v>low_emit_mat</v>
+      </c>
+      <c r="N121" s="2" t="str">
+        <f>'Program targeting'!$A$10</f>
+        <v>recycle</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="A122" t="str">
+        <f>'Program targeting'!$C$2</f>
+        <v>Aga Khan Hospital, Kenya</v>
+      </c>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+      <c r="J122" s="6"/>
+      <c r="K122" s="6"/>
+      <c r="L122" s="6"/>
+      <c r="M122" s="6"/>
+      <c r="N122" s="6"/>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="A123" t="str">
+        <f>'Program targeting'!$D$2</f>
+        <v>Aga Khan Medical Centre, Kenya</v>
+      </c>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
+      <c r="J123" s="6"/>
+      <c r="K123" s="6"/>
+      <c r="L123" s="6"/>
+      <c r="M123" s="6"/>
+      <c r="N123" s="6"/>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="A124" t="str">
+        <f>'Program targeting'!$E$2</f>
+        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
+      </c>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
+      <c r="J124" s="6"/>
+      <c r="K124" s="6"/>
+      <c r="L124" s="6"/>
+      <c r="M124" s="6"/>
+      <c r="N124" s="6"/>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125" t="str">
+        <f>'Program targeting'!$F$2</f>
+        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
+      </c>
+      <c r="B125" s="6"/>
+      <c r="C125" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
+      <c r="J125" s="6"/>
+      <c r="K125" s="6"/>
+      <c r="L125" s="6"/>
+      <c r="M125" s="6"/>
+      <c r="N125" s="6"/>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126" t="str">
+        <f>'Program targeting'!$G$2</f>
+        <v>Laudium Community Health Centre, South Africa</v>
+      </c>
+      <c r="B126" s="6"/>
+      <c r="C126" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
+      <c r="J126" s="6"/>
+      <c r="K126" s="6"/>
+      <c r="L126" s="6"/>
+      <c r="M126" s="6"/>
+      <c r="N126" s="6"/>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127" t="str">
+        <f>'Program targeting'!$H$2</f>
+        <v>Mamelodi Regional Hospital, South Africa</v>
+      </c>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6"/>
+      <c r="J127" s="6"/>
+      <c r="K127" s="6"/>
+      <c r="L127" s="6"/>
+      <c r="M127" s="6"/>
+      <c r="N127" s="6"/>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="A128" t="str">
+        <f>'Program targeting'!$I$2</f>
+        <v>Mt Darwin District Hospital, Zimbabwe</v>
+      </c>
+      <c r="B128" s="6"/>
+      <c r="C128" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="6"/>
+      <c r="J128" s="6"/>
+      <c r="K128" s="6"/>
+      <c r="L128" s="6"/>
+      <c r="M128" s="6"/>
+      <c r="N128" s="6"/>
+    </row>
+    <row r="129" spans="1:14">
+      <c r="A129" t="str">
+        <f>'Program targeting'!$J$2</f>
+        <v>Stanza Bopape Community Health Centre, South Africa</v>
+      </c>
+      <c r="B129" s="6"/>
+      <c r="C129" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="6"/>
+      <c r="K129" s="6"/>
+      <c r="L129" s="6"/>
+      <c r="M129" s="6"/>
+      <c r="N129" s="6"/>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="A131" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G131" s="2" t="str">
+        <f>'Program targeting'!$A$3</f>
+        <v>borehole_water</v>
+      </c>
+      <c r="H131" s="2" t="str">
+        <f>'Program targeting'!$A$4</f>
+        <v>electric_cars</v>
+      </c>
+      <c r="I131" s="2" t="str">
+        <f>'Program targeting'!$A$5</f>
+        <v>energy_led</v>
+      </c>
+      <c r="J131" s="2" t="str">
+        <f>'Program targeting'!$A$6</f>
+        <v>local_procure</v>
+      </c>
+      <c r="K131" s="2" t="str">
+        <f>'Program targeting'!$A$7</f>
+        <v>low_emit_gas</v>
+      </c>
+      <c r="L131" s="2" t="str">
+        <f>'Program targeting'!$A$8</f>
+        <v>low_emit_inhale</v>
+      </c>
+      <c r="M131" s="2" t="str">
+        <f>'Program targeting'!$A$9</f>
+        <v>low_emit_mat</v>
+      </c>
+      <c r="N131" s="2" t="str">
+        <f>'Program targeting'!$A$10</f>
+        <v>recycle</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
+      <c r="A132" t="str">
+        <f>'Program targeting'!$C$2</f>
+        <v>Aga Khan Hospital, Kenya</v>
+      </c>
+      <c r="B132" s="6"/>
+      <c r="C132" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="6"/>
+      <c r="K132" s="6"/>
+      <c r="L132" s="6"/>
+      <c r="M132" s="6"/>
+      <c r="N132" s="6"/>
+    </row>
+    <row r="133" spans="1:14">
+      <c r="A133" t="str">
+        <f>'Program targeting'!$D$2</f>
+        <v>Aga Khan Medical Centre, Kenya</v>
+      </c>
+      <c r="B133" s="6"/>
+      <c r="C133" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="6"/>
+      <c r="K133" s="6"/>
+      <c r="L133" s="6"/>
+      <c r="M133" s="6"/>
+      <c r="N133" s="6"/>
+    </row>
+    <row r="134" spans="1:14">
+      <c r="A134" t="str">
+        <f>'Program targeting'!$E$2</f>
+        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
+      </c>
+      <c r="B134" s="6"/>
+      <c r="C134" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="6"/>
+      <c r="K134" s="6"/>
+      <c r="L134" s="6"/>
+      <c r="M134" s="6"/>
+      <c r="N134" s="6"/>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="A135" t="str">
+        <f>'Program targeting'!$F$2</f>
+        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
+      </c>
+      <c r="B135" s="6"/>
+      <c r="C135" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
+      <c r="I135" s="6"/>
+      <c r="J135" s="6"/>
+      <c r="K135" s="6"/>
+      <c r="L135" s="6"/>
+      <c r="M135" s="6"/>
+      <c r="N135" s="6"/>
+    </row>
+    <row r="136" spans="1:14">
+      <c r="A136" t="str">
+        <f>'Program targeting'!$G$2</f>
+        <v>Laudium Community Health Centre, South Africa</v>
+      </c>
+      <c r="B136" s="6"/>
+      <c r="C136" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
+      <c r="J136" s="6"/>
+      <c r="K136" s="6"/>
+      <c r="L136" s="6"/>
+      <c r="M136" s="6"/>
+      <c r="N136" s="6"/>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="A137" t="str">
+        <f>'Program targeting'!$H$2</f>
+        <v>Mamelodi Regional Hospital, South Africa</v>
+      </c>
+      <c r="B137" s="6"/>
+      <c r="C137" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="6"/>
+      <c r="J137" s="6"/>
+      <c r="K137" s="6"/>
+      <c r="L137" s="6"/>
+      <c r="M137" s="6"/>
+      <c r="N137" s="6"/>
+    </row>
+    <row r="138" spans="1:14">
+      <c r="A138" t="str">
+        <f>'Program targeting'!$I$2</f>
+        <v>Mt Darwin District Hospital, Zimbabwe</v>
+      </c>
+      <c r="B138" s="6"/>
+      <c r="C138" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6"/>
+      <c r="K138" s="6"/>
+      <c r="L138" s="6"/>
+      <c r="M138" s="6"/>
+      <c r="N138" s="6"/>
+    </row>
+    <row r="139" spans="1:14">
+      <c r="A139" t="str">
+        <f>'Program targeting'!$J$2</f>
+        <v>Stanza Bopape Community Health Centre, South Africa</v>
+      </c>
+      <c r="B139" s="6"/>
+      <c r="C139" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
+      <c r="J139" s="6"/>
+      <c r="K139" s="6"/>
+      <c r="L139" s="6"/>
+      <c r="M139" s="6"/>
+      <c r="N139" s="6"/>
+    </row>
+    <row r="141" spans="1:14">
+      <c r="A141" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G141" s="2" t="str">
+        <f>'Program targeting'!$A$3</f>
+        <v>borehole_water</v>
+      </c>
+      <c r="H141" s="2" t="str">
+        <f>'Program targeting'!$A$4</f>
+        <v>electric_cars</v>
+      </c>
+      <c r="I141" s="2" t="str">
+        <f>'Program targeting'!$A$5</f>
+        <v>energy_led</v>
+      </c>
+      <c r="J141" s="2" t="str">
+        <f>'Program targeting'!$A$6</f>
+        <v>local_procure</v>
+      </c>
+      <c r="K141" s="2" t="str">
+        <f>'Program targeting'!$A$7</f>
+        <v>low_emit_gas</v>
+      </c>
+      <c r="L141" s="2" t="str">
+        <f>'Program targeting'!$A$8</f>
+        <v>low_emit_inhale</v>
+      </c>
+      <c r="M141" s="2" t="str">
+        <f>'Program targeting'!$A$9</f>
+        <v>low_emit_mat</v>
+      </c>
+      <c r="N141" s="2" t="str">
+        <f>'Program targeting'!$A$10</f>
+        <v>recycle</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="A142" t="str">
+        <f>'Program targeting'!$C$2</f>
+        <v>Aga Khan Hospital, Kenya</v>
+      </c>
+      <c r="B142" s="6"/>
+      <c r="C142" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
+      <c r="K142" s="6"/>
+      <c r="L142" s="6"/>
+      <c r="M142" s="6"/>
+      <c r="N142" s="6"/>
+    </row>
+    <row r="143" spans="1:14">
+      <c r="A143" t="str">
+        <f>'Program targeting'!$D$2</f>
+        <v>Aga Khan Medical Centre, Kenya</v>
+      </c>
+      <c r="B143" s="6"/>
+      <c r="C143" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="K143" s="6"/>
+      <c r="L143" s="6"/>
+      <c r="M143" s="6"/>
+      <c r="N143" s="6"/>
+    </row>
+    <row r="144" spans="1:14">
+      <c r="A144" t="str">
+        <f>'Program targeting'!$E$2</f>
+        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
+      </c>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="6"/>
+      <c r="K144" s="6"/>
+      <c r="L144" s="6"/>
+      <c r="M144" s="6"/>
+      <c r="N144" s="6"/>
+    </row>
+    <row r="145" spans="1:14">
+      <c r="A145" t="str">
+        <f>'Program targeting'!$F$2</f>
+        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
+      </c>
+      <c r="B145" s="6"/>
+      <c r="C145" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
+      <c r="J145" s="6"/>
+      <c r="K145" s="6"/>
+      <c r="L145" s="6"/>
+      <c r="M145" s="6"/>
+      <c r="N145" s="6"/>
+    </row>
+    <row r="146" spans="1:14">
+      <c r="A146" t="str">
+        <f>'Program targeting'!$G$2</f>
+        <v>Laudium Community Health Centre, South Africa</v>
+      </c>
+      <c r="B146" s="6"/>
+      <c r="C146" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6"/>
+      <c r="J146" s="6"/>
+      <c r="K146" s="6"/>
+      <c r="L146" s="6"/>
+      <c r="M146" s="6"/>
+      <c r="N146" s="6"/>
+    </row>
+    <row r="147" spans="1:14">
+      <c r="A147" t="str">
+        <f>'Program targeting'!$H$2</f>
+        <v>Mamelodi Regional Hospital, South Africa</v>
+      </c>
+      <c r="B147" s="6"/>
+      <c r="C147" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
+      <c r="I147" s="6"/>
+      <c r="J147" s="6"/>
+      <c r="K147" s="6"/>
+      <c r="L147" s="6"/>
+      <c r="M147" s="6"/>
+      <c r="N147" s="6"/>
+    </row>
+    <row r="148" spans="1:14">
+      <c r="A148" t="str">
+        <f>'Program targeting'!$I$2</f>
+        <v>Mt Darwin District Hospital, Zimbabwe</v>
+      </c>
+      <c r="B148" s="5">
+        <v>1</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D148" s="6"/>
+      <c r="E148" s="5">
+        <v>0</v>
+      </c>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="6"/>
+      <c r="K148" s="6"/>
+      <c r="L148" s="5">
+        <v>0.5045630179484755</v>
+      </c>
+      <c r="M148" s="6"/>
+      <c r="N148" s="6"/>
+    </row>
+    <row r="149" spans="1:14">
+      <c r="A149" t="str">
+        <f>'Program targeting'!$J$2</f>
+        <v>Stanza Bopape Community Health Centre, South Africa</v>
+      </c>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6"/>
+      <c r="I149" s="6"/>
+      <c r="J149" s="6"/>
+      <c r="K149" s="6"/>
+      <c r="L149" s="6"/>
+      <c r="M149" s="6"/>
+      <c r="N149" s="6"/>
+    </row>
+    <row r="151" spans="1:14">
+      <c r="A151" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G151" s="2" t="str">
+        <f>'Program targeting'!$A$3</f>
+        <v>borehole_water</v>
+      </c>
+      <c r="H151" s="2" t="str">
+        <f>'Program targeting'!$A$4</f>
+        <v>electric_cars</v>
+      </c>
+      <c r="I151" s="2" t="str">
+        <f>'Program targeting'!$A$5</f>
+        <v>energy_led</v>
+      </c>
+      <c r="J151" s="2" t="str">
+        <f>'Program targeting'!$A$6</f>
+        <v>local_procure</v>
+      </c>
+      <c r="K151" s="2" t="str">
+        <f>'Program targeting'!$A$7</f>
+        <v>low_emit_gas</v>
+      </c>
+      <c r="L151" s="2" t="str">
+        <f>'Program targeting'!$A$8</f>
+        <v>low_emit_inhale</v>
+      </c>
+      <c r="M151" s="2" t="str">
+        <f>'Program targeting'!$A$9</f>
+        <v>low_emit_mat</v>
+      </c>
+      <c r="N151" s="2" t="str">
+        <f>'Program targeting'!$A$10</f>
+        <v>recycle</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
+      <c r="A152" t="str">
+        <f>'Program targeting'!$C$2</f>
+        <v>Aga Khan Hospital, Kenya</v>
+      </c>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="6"/>
+      <c r="J152" s="6"/>
+      <c r="K152" s="6"/>
+      <c r="L152" s="6"/>
+      <c r="M152" s="6"/>
+      <c r="N152" s="6"/>
+    </row>
+    <row r="153" spans="1:14">
+      <c r="A153" t="str">
+        <f>'Program targeting'!$D$2</f>
+        <v>Aga Khan Medical Centre, Kenya</v>
+      </c>
+      <c r="B153" s="6"/>
+      <c r="C153" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="6"/>
+      <c r="J153" s="6"/>
+      <c r="K153" s="6"/>
+      <c r="L153" s="6"/>
+      <c r="M153" s="6"/>
+      <c r="N153" s="6"/>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="A154" t="str">
+        <f>'Program targeting'!$E$2</f>
+        <v>Chitse Rural Health Care Clinic, Zimbabwe</v>
+      </c>
+      <c r="B154" s="6"/>
+      <c r="C154" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="6"/>
+      <c r="I154" s="6"/>
+      <c r="J154" s="6"/>
+      <c r="K154" s="6"/>
+      <c r="L154" s="6"/>
+      <c r="M154" s="6"/>
+      <c r="N154" s="6"/>
+    </row>
+    <row r="155" spans="1:14">
+      <c r="A155" t="str">
+        <f>'Program targeting'!$F$2</f>
+        <v>Dotito Rural Health Care Clinic, Zimbabwe</v>
+      </c>
+      <c r="B155" s="6"/>
+      <c r="C155" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
+      <c r="I155" s="6"/>
+      <c r="J155" s="6"/>
+      <c r="K155" s="6"/>
+      <c r="L155" s="6"/>
+      <c r="M155" s="6"/>
+      <c r="N155" s="6"/>
+    </row>
+    <row r="156" spans="1:14">
+      <c r="A156" t="str">
+        <f>'Program targeting'!$G$2</f>
+        <v>Laudium Community Health Centre, South Africa</v>
+      </c>
+      <c r="B156" s="6"/>
+      <c r="C156" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+      <c r="G156" s="6"/>
+      <c r="H156" s="6"/>
+      <c r="I156" s="6"/>
+      <c r="J156" s="6"/>
+      <c r="K156" s="6"/>
+      <c r="L156" s="6"/>
+      <c r="M156" s="6"/>
+      <c r="N156" s="6"/>
+    </row>
+    <row r="157" spans="1:14">
+      <c r="A157" t="str">
+        <f>'Program targeting'!$H$2</f>
+        <v>Mamelodi Regional Hospital, South Africa</v>
+      </c>
+      <c r="B157" s="6"/>
+      <c r="C157" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="6"/>
+      <c r="J157" s="6"/>
+      <c r="K157" s="6"/>
+      <c r="L157" s="6"/>
+      <c r="M157" s="6"/>
+      <c r="N157" s="6"/>
+    </row>
+    <row r="158" spans="1:14">
+      <c r="A158" t="str">
+        <f>'Program targeting'!$I$2</f>
+        <v>Mt Darwin District Hospital, Zimbabwe</v>
+      </c>
+      <c r="B158" s="5">
+        <v>1</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D158" s="6"/>
+      <c r="E158" s="5">
+        <v>0</v>
+      </c>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="6"/>
+      <c r="J158" s="5">
+        <v>0.1865224087212589</v>
+      </c>
+      <c r="K158" s="6"/>
+      <c r="L158" s="6"/>
+      <c r="M158" s="6"/>
+      <c r="N158" s="6"/>
+    </row>
+    <row r="159" spans="1:14">
+      <c r="A159" t="str">
+        <f>'Program targeting'!$J$2</f>
+        <v>Stanza Bopape Community Health Centre, South Africa</v>
+      </c>
+      <c r="B159" s="6"/>
+      <c r="C159" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
+      <c r="I159" s="6"/>
+      <c r="J159" s="6"/>
+      <c r="K159" s="6"/>
+      <c r="L159" s="6"/>
+      <c r="M159" s="6"/>
+      <c r="N159" s="6"/>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="D102">
+    <cfRule type="expression" dxfId="1" priority="1457">
+      <formula>COUNTIF(F102:N102,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1458">
+      <formula>AND(COUNTIF(F102:N102,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D102)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D103">
+    <cfRule type="expression" dxfId="1" priority="1475">
+      <formula>COUNTIF(F103:N103,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1476">
+      <formula>AND(COUNTIF(F103:N103,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D103)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D104">
+    <cfRule type="expression" dxfId="1" priority="1493">
+      <formula>COUNTIF(F104:N104,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1494">
+      <formula>AND(COUNTIF(F104:N104,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D104)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D105">
+    <cfRule type="expression" dxfId="1" priority="1511">
+      <formula>COUNTIF(F105:N105,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1512">
+      <formula>AND(COUNTIF(F105:N105,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D105)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D106">
+    <cfRule type="expression" dxfId="1" priority="1529">
+      <formula>COUNTIF(F106:N106,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1530">
+      <formula>AND(COUNTIF(F106:N106,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D106)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D107">
+    <cfRule type="expression" dxfId="1" priority="1547">
+      <formula>COUNTIF(F107:N107,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1548">
+      <formula>AND(COUNTIF(F107:N107,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D107)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D108">
+    <cfRule type="expression" dxfId="1" priority="1565">
+      <formula>COUNTIF(F108:N108,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1566">
+      <formula>AND(COUNTIF(F108:N108,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D108)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D109">
+    <cfRule type="expression" dxfId="1" priority="1583">
+      <formula>COUNTIF(F109:N109,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1584">
+      <formula>AND(COUNTIF(F109:N109,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D109)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D112">
+    <cfRule type="expression" dxfId="1" priority="1601">
+      <formula>COUNTIF(F112:N112,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1602">
+      <formula>AND(COUNTIF(F112:N112,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D112)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D113">
+    <cfRule type="expression" dxfId="1" priority="1619">
+      <formula>COUNTIF(F113:N113,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1620">
+      <formula>AND(COUNTIF(F113:N113,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D113)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D114">
+    <cfRule type="expression" dxfId="1" priority="1637">
+      <formula>COUNTIF(F114:N114,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1638">
+      <formula>AND(COUNTIF(F114:N114,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D114)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D115">
+    <cfRule type="expression" dxfId="1" priority="1655">
+      <formula>COUNTIF(F115:N115,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1656">
+      <formula>AND(COUNTIF(F115:N115,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D115)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D116">
+    <cfRule type="expression" dxfId="1" priority="1673">
+      <formula>COUNTIF(F116:N116,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1674">
+      <formula>AND(COUNTIF(F116:N116,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D116)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D117">
+    <cfRule type="expression" dxfId="1" priority="1691">
+      <formula>COUNTIF(F117:N117,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1692">
+      <formula>AND(COUNTIF(F117:N117,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D117)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D118">
+    <cfRule type="expression" dxfId="1" priority="1709">
+      <formula>COUNTIF(F118:N118,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1710">
+      <formula>AND(COUNTIF(F118:N118,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D118)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D119">
+    <cfRule type="expression" dxfId="1" priority="1727">
+      <formula>COUNTIF(F119:N119,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1728">
+      <formula>AND(COUNTIF(F119:N119,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D119)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D12">
     <cfRule type="expression" dxfId="1" priority="161">
       <formula>COUNTIF(F12:N12,"&lt;&gt;" &amp; "")&lt;2</formula>
@@ -4443,6 +6279,70 @@
       <formula>AND(COUNTIF(F12:N12,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D12)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D122">
+    <cfRule type="expression" dxfId="1" priority="1745">
+      <formula>COUNTIF(F122:N122,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1746">
+      <formula>AND(COUNTIF(F122:N122,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D122)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D123">
+    <cfRule type="expression" dxfId="1" priority="1763">
+      <formula>COUNTIF(F123:N123,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1764">
+      <formula>AND(COUNTIF(F123:N123,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D123)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D124">
+    <cfRule type="expression" dxfId="1" priority="1781">
+      <formula>COUNTIF(F124:N124,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1782">
+      <formula>AND(COUNTIF(F124:N124,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D124)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D125">
+    <cfRule type="expression" dxfId="1" priority="1799">
+      <formula>COUNTIF(F125:N125,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1800">
+      <formula>AND(COUNTIF(F125:N125,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D125)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D126">
+    <cfRule type="expression" dxfId="1" priority="1817">
+      <formula>COUNTIF(F126:N126,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1818">
+      <formula>AND(COUNTIF(F126:N126,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D126)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D127">
+    <cfRule type="expression" dxfId="1" priority="1835">
+      <formula>COUNTIF(F127:N127,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1836">
+      <formula>AND(COUNTIF(F127:N127,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D127)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D128">
+    <cfRule type="expression" dxfId="1" priority="1853">
+      <formula>COUNTIF(F128:N128,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1854">
+      <formula>AND(COUNTIF(F128:N128,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D128)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D129">
+    <cfRule type="expression" dxfId="1" priority="1871">
+      <formula>COUNTIF(F129:N129,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1872">
+      <formula>AND(COUNTIF(F129:N129,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D129)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D13">
     <cfRule type="expression" dxfId="1" priority="179">
       <formula>COUNTIF(F13:N13,"&lt;&gt;" &amp; "")&lt;2</formula>
@@ -4451,6 +6351,70 @@
       <formula>AND(COUNTIF(F13:N13,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D13)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D132">
+    <cfRule type="expression" dxfId="1" priority="1889">
+      <formula>COUNTIF(F132:N132,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1890">
+      <formula>AND(COUNTIF(F132:N132,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D132)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D133">
+    <cfRule type="expression" dxfId="1" priority="1907">
+      <formula>COUNTIF(F133:N133,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1908">
+      <formula>AND(COUNTIF(F133:N133,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D133)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D134">
+    <cfRule type="expression" dxfId="1" priority="1925">
+      <formula>COUNTIF(F134:N134,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1926">
+      <formula>AND(COUNTIF(F134:N134,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D134)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D135">
+    <cfRule type="expression" dxfId="1" priority="1943">
+      <formula>COUNTIF(F135:N135,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1944">
+      <formula>AND(COUNTIF(F135:N135,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D135)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D136">
+    <cfRule type="expression" dxfId="1" priority="1961">
+      <formula>COUNTIF(F136:N136,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1962">
+      <formula>AND(COUNTIF(F136:N136,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D136)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D137">
+    <cfRule type="expression" dxfId="1" priority="1979">
+      <formula>COUNTIF(F137:N137,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1980">
+      <formula>AND(COUNTIF(F137:N137,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D137)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D138">
+    <cfRule type="expression" dxfId="1" priority="1997">
+      <formula>COUNTIF(F138:N138,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1998">
+      <formula>AND(COUNTIF(F138:N138,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D138)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D139">
+    <cfRule type="expression" dxfId="1" priority="2015">
+      <formula>COUNTIF(F139:N139,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2016">
+      <formula>AND(COUNTIF(F139:N139,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D139)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D14">
     <cfRule type="expression" dxfId="1" priority="197">
       <formula>COUNTIF(F14:N14,"&lt;&gt;" &amp; "")&lt;2</formula>
@@ -4459,6 +6423,70 @@
       <formula>AND(COUNTIF(F14:N14,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D14)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D142">
+    <cfRule type="expression" dxfId="1" priority="2033">
+      <formula>COUNTIF(F142:N142,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2034">
+      <formula>AND(COUNTIF(F142:N142,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D142)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D143">
+    <cfRule type="expression" dxfId="1" priority="2051">
+      <formula>COUNTIF(F143:N143,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2052">
+      <formula>AND(COUNTIF(F143:N143,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D143)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D144">
+    <cfRule type="expression" dxfId="1" priority="2069">
+      <formula>COUNTIF(F144:N144,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2070">
+      <formula>AND(COUNTIF(F144:N144,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D144)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D145">
+    <cfRule type="expression" dxfId="1" priority="2087">
+      <formula>COUNTIF(F145:N145,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2088">
+      <formula>AND(COUNTIF(F145:N145,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D145)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D146">
+    <cfRule type="expression" dxfId="1" priority="2105">
+      <formula>COUNTIF(F146:N146,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2106">
+      <formula>AND(COUNTIF(F146:N146,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D146)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D147">
+    <cfRule type="expression" dxfId="1" priority="2123">
+      <formula>COUNTIF(F147:N147,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2124">
+      <formula>AND(COUNTIF(F147:N147,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D147)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D148">
+    <cfRule type="expression" dxfId="1" priority="2141">
+      <formula>COUNTIF(F148:N148,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2142">
+      <formula>AND(COUNTIF(F148:N148,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D148)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D149">
+    <cfRule type="expression" dxfId="1" priority="2159">
+      <formula>COUNTIF(F149:N149,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2160">
+      <formula>AND(COUNTIF(F149:N149,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D149)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D15">
     <cfRule type="expression" dxfId="1" priority="215">
       <formula>COUNTIF(F15:N15,"&lt;&gt;" &amp; "")&lt;2</formula>
@@ -4467,6 +6495,70 @@
       <formula>AND(COUNTIF(F15:N15,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D15)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D152">
+    <cfRule type="expression" dxfId="1" priority="2177">
+      <formula>COUNTIF(F152:N152,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2178">
+      <formula>AND(COUNTIF(F152:N152,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D152)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D153">
+    <cfRule type="expression" dxfId="1" priority="2195">
+      <formula>COUNTIF(F153:N153,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2196">
+      <formula>AND(COUNTIF(F153:N153,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D153)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D154">
+    <cfRule type="expression" dxfId="1" priority="2213">
+      <formula>COUNTIF(F154:N154,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2214">
+      <formula>AND(COUNTIF(F154:N154,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D154)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D155">
+    <cfRule type="expression" dxfId="1" priority="2231">
+      <formula>COUNTIF(F155:N155,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2232">
+      <formula>AND(COUNTIF(F155:N155,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D155)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D156">
+    <cfRule type="expression" dxfId="1" priority="2249">
+      <formula>COUNTIF(F156:N156,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2250">
+      <formula>AND(COUNTIF(F156:N156,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D156)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D157">
+    <cfRule type="expression" dxfId="1" priority="2267">
+      <formula>COUNTIF(F157:N157,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2268">
+      <formula>AND(COUNTIF(F157:N157,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D157)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D158">
+    <cfRule type="expression" dxfId="1" priority="2285">
+      <formula>COUNTIF(F158:N158,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2286">
+      <formula>AND(COUNTIF(F158:N158,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D158)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D159">
+    <cfRule type="expression" dxfId="1" priority="2303">
+      <formula>COUNTIF(F159:N159,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2304">
+      <formula>AND(COUNTIF(F159:N159,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D159)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D16">
     <cfRule type="expression" dxfId="1" priority="233">
       <formula>COUNTIF(F16:N16,"&lt;&gt;" &amp; "")&lt;2</formula>
@@ -4939,6 +7031,70 @@
       <formula>AND(COUNTIF(F8:N8,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D8)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D82">
+    <cfRule type="expression" dxfId="1" priority="1169">
+      <formula>COUNTIF(F82:N82,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1170">
+      <formula>AND(COUNTIF(F82:N82,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D82)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D83">
+    <cfRule type="expression" dxfId="1" priority="1187">
+      <formula>COUNTIF(F83:N83,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1188">
+      <formula>AND(COUNTIF(F83:N83,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84">
+    <cfRule type="expression" dxfId="1" priority="1205">
+      <formula>COUNTIF(F84:N84,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1206">
+      <formula>AND(COUNTIF(F84:N84,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D84)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D85">
+    <cfRule type="expression" dxfId="1" priority="1223">
+      <formula>COUNTIF(F85:N85,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1224">
+      <formula>AND(COUNTIF(F85:N85,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D85)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D86">
+    <cfRule type="expression" dxfId="1" priority="1241">
+      <formula>COUNTIF(F86:N86,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1242">
+      <formula>AND(COUNTIF(F86:N86,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D86)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87">
+    <cfRule type="expression" dxfId="1" priority="1259">
+      <formula>COUNTIF(F87:N87,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1260">
+      <formula>AND(COUNTIF(F87:N87,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D87)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D88">
+    <cfRule type="expression" dxfId="1" priority="1277">
+      <formula>COUNTIF(F88:N88,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1278">
+      <formula>AND(COUNTIF(F88:N88,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D88)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D89">
+    <cfRule type="expression" dxfId="1" priority="1295">
+      <formula>COUNTIF(F89:N89,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1296">
+      <formula>AND(COUNTIF(F89:N89,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D89)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D9">
     <cfRule type="expression" dxfId="1" priority="143">
       <formula>COUNTIF(F9:N9,"&lt;&gt;" &amp; "")&lt;2</formula>
@@ -4947,6 +7103,198 @@
       <formula>AND(COUNTIF(F9:N9,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D9)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D92">
+    <cfRule type="expression" dxfId="1" priority="1313">
+      <formula>COUNTIF(F92:N92,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1314">
+      <formula>AND(COUNTIF(F92:N92,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D92)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D93">
+    <cfRule type="expression" dxfId="1" priority="1331">
+      <formula>COUNTIF(F93:N93,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1332">
+      <formula>AND(COUNTIF(F93:N93,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D93)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D94">
+    <cfRule type="expression" dxfId="1" priority="1349">
+      <formula>COUNTIF(F94:N94,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1350">
+      <formula>AND(COUNTIF(F94:N94,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D94)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D95">
+    <cfRule type="expression" dxfId="1" priority="1367">
+      <formula>COUNTIF(F95:N95,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1368">
+      <formula>AND(COUNTIF(F95:N95,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D95)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D96">
+    <cfRule type="expression" dxfId="1" priority="1385">
+      <formula>COUNTIF(F96:N96,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1386">
+      <formula>AND(COUNTIF(F96:N96,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D96)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D97">
+    <cfRule type="expression" dxfId="1" priority="1403">
+      <formula>COUNTIF(F97:N97,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1404">
+      <formula>AND(COUNTIF(F97:N97,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D97)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D98">
+    <cfRule type="expression" dxfId="1" priority="1421">
+      <formula>COUNTIF(F98:N98,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1422">
+      <formula>AND(COUNTIF(F98:N98,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D98)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D99">
+    <cfRule type="expression" dxfId="1" priority="1439">
+      <formula>COUNTIF(F99:N99,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1440">
+      <formula>AND(COUNTIF(F99:N99,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D99)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G102">
+    <cfRule type="expression" dxfId="2" priority="1441">
+      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G102)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1442">
+      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G103">
+    <cfRule type="expression" dxfId="2" priority="1459">
+      <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G103)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1460">
+      <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G104">
+    <cfRule type="expression" dxfId="2" priority="1477">
+      <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G104)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1478">
+      <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G105">
+    <cfRule type="expression" dxfId="2" priority="1495">
+      <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G105)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1496">
+      <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G106">
+    <cfRule type="expression" dxfId="2" priority="1513">
+      <formula>AND('Program targeting'!$G$3&lt;&gt;"Y",NOT(ISBLANK(G106)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1514">
+      <formula>'Program targeting'!$G$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G107">
+    <cfRule type="expression" dxfId="2" priority="1531">
+      <formula>AND('Program targeting'!$H$3&lt;&gt;"Y",NOT(ISBLANK(G107)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1532">
+      <formula>'Program targeting'!$H$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G108">
+    <cfRule type="expression" dxfId="2" priority="1549">
+      <formula>AND('Program targeting'!$I$3&lt;&gt;"Y",NOT(ISBLANK(G108)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1550">
+      <formula>'Program targeting'!$I$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G109">
+    <cfRule type="expression" dxfId="2" priority="1567">
+      <formula>AND('Program targeting'!$J$3&lt;&gt;"Y",NOT(ISBLANK(G109)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1568">
+      <formula>'Program targeting'!$J$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G112">
+    <cfRule type="expression" dxfId="2" priority="1585">
+      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G112)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1586">
+      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G113">
+    <cfRule type="expression" dxfId="2" priority="1603">
+      <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G113)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1604">
+      <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G114">
+    <cfRule type="expression" dxfId="2" priority="1621">
+      <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G114)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1622">
+      <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G115">
+    <cfRule type="expression" dxfId="2" priority="1639">
+      <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G115)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1640">
+      <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G116">
+    <cfRule type="expression" dxfId="2" priority="1657">
+      <formula>AND('Program targeting'!$G$3&lt;&gt;"Y",NOT(ISBLANK(G116)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1658">
+      <formula>'Program targeting'!$G$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G117">
+    <cfRule type="expression" dxfId="2" priority="1675">
+      <formula>AND('Program targeting'!$H$3&lt;&gt;"Y",NOT(ISBLANK(G117)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1676">
+      <formula>'Program targeting'!$H$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G118">
+    <cfRule type="expression" dxfId="2" priority="1693">
+      <formula>AND('Program targeting'!$I$3&lt;&gt;"Y",NOT(ISBLANK(G118)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1694">
+      <formula>'Program targeting'!$I$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G119">
+    <cfRule type="expression" dxfId="2" priority="1711">
+      <formula>AND('Program targeting'!$J$3&lt;&gt;"Y",NOT(ISBLANK(G119)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1712">
+      <formula>'Program targeting'!$J$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G12">
     <cfRule type="expression" dxfId="2" priority="145">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G12)))</formula>
@@ -4955,6 +7303,70 @@
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G122">
+    <cfRule type="expression" dxfId="2" priority="1729">
+      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G122)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1730">
+      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G123">
+    <cfRule type="expression" dxfId="2" priority="1747">
+      <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G123)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1748">
+      <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G124">
+    <cfRule type="expression" dxfId="2" priority="1765">
+      <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G124)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1766">
+      <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G125">
+    <cfRule type="expression" dxfId="2" priority="1783">
+      <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G125)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1784">
+      <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G126">
+    <cfRule type="expression" dxfId="2" priority="1801">
+      <formula>AND('Program targeting'!$G$3&lt;&gt;"Y",NOT(ISBLANK(G126)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1802">
+      <formula>'Program targeting'!$G$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G127">
+    <cfRule type="expression" dxfId="2" priority="1819">
+      <formula>AND('Program targeting'!$H$3&lt;&gt;"Y",NOT(ISBLANK(G127)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1820">
+      <formula>'Program targeting'!$H$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G128">
+    <cfRule type="expression" dxfId="2" priority="1837">
+      <formula>AND('Program targeting'!$I$3&lt;&gt;"Y",NOT(ISBLANK(G128)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1838">
+      <formula>'Program targeting'!$I$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G129">
+    <cfRule type="expression" dxfId="2" priority="1855">
+      <formula>AND('Program targeting'!$J$3&lt;&gt;"Y",NOT(ISBLANK(G129)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1856">
+      <formula>'Program targeting'!$J$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G13">
     <cfRule type="expression" dxfId="2" priority="163">
       <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G13)))</formula>
@@ -4963,6 +7375,70 @@
       <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G132">
+    <cfRule type="expression" dxfId="2" priority="1873">
+      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G132)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1874">
+      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G133">
+    <cfRule type="expression" dxfId="2" priority="1891">
+      <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G133)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1892">
+      <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G134">
+    <cfRule type="expression" dxfId="2" priority="1909">
+      <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G134)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1910">
+      <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G135">
+    <cfRule type="expression" dxfId="2" priority="1927">
+      <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G135)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1928">
+      <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G136">
+    <cfRule type="expression" dxfId="2" priority="1945">
+      <formula>AND('Program targeting'!$G$3&lt;&gt;"Y",NOT(ISBLANK(G136)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1946">
+      <formula>'Program targeting'!$G$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G137">
+    <cfRule type="expression" dxfId="2" priority="1963">
+      <formula>AND('Program targeting'!$H$3&lt;&gt;"Y",NOT(ISBLANK(G137)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1964">
+      <formula>'Program targeting'!$H$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G138">
+    <cfRule type="expression" dxfId="2" priority="1981">
+      <formula>AND('Program targeting'!$I$3&lt;&gt;"Y",NOT(ISBLANK(G138)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1982">
+      <formula>'Program targeting'!$I$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G139">
+    <cfRule type="expression" dxfId="2" priority="1999">
+      <formula>AND('Program targeting'!$J$3&lt;&gt;"Y",NOT(ISBLANK(G139)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2000">
+      <formula>'Program targeting'!$J$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G14">
     <cfRule type="expression" dxfId="2" priority="181">
       <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G14)))</formula>
@@ -4971,6 +7447,70 @@
       <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G142">
+    <cfRule type="expression" dxfId="2" priority="2017">
+      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G142)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2018">
+      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G143">
+    <cfRule type="expression" dxfId="2" priority="2035">
+      <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G143)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2036">
+      <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G144">
+    <cfRule type="expression" dxfId="2" priority="2053">
+      <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G144)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2054">
+      <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G145">
+    <cfRule type="expression" dxfId="2" priority="2071">
+      <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G145)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2072">
+      <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G146">
+    <cfRule type="expression" dxfId="2" priority="2089">
+      <formula>AND('Program targeting'!$G$3&lt;&gt;"Y",NOT(ISBLANK(G146)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2090">
+      <formula>'Program targeting'!$G$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G147">
+    <cfRule type="expression" dxfId="2" priority="2107">
+      <formula>AND('Program targeting'!$H$3&lt;&gt;"Y",NOT(ISBLANK(G147)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2108">
+      <formula>'Program targeting'!$H$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G148">
+    <cfRule type="expression" dxfId="2" priority="2125">
+      <formula>AND('Program targeting'!$I$3&lt;&gt;"Y",NOT(ISBLANK(G148)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2126">
+      <formula>'Program targeting'!$I$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G149">
+    <cfRule type="expression" dxfId="2" priority="2143">
+      <formula>AND('Program targeting'!$J$3&lt;&gt;"Y",NOT(ISBLANK(G149)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2144">
+      <formula>'Program targeting'!$J$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G15">
     <cfRule type="expression" dxfId="2" priority="199">
       <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G15)))</formula>
@@ -4979,6 +7519,70 @@
       <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G152">
+    <cfRule type="expression" dxfId="2" priority="2161">
+      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G152)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2162">
+      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G153">
+    <cfRule type="expression" dxfId="2" priority="2179">
+      <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G153)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2180">
+      <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G154">
+    <cfRule type="expression" dxfId="2" priority="2197">
+      <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G154)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2198">
+      <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G155">
+    <cfRule type="expression" dxfId="2" priority="2215">
+      <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G155)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2216">
+      <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G156">
+    <cfRule type="expression" dxfId="2" priority="2233">
+      <formula>AND('Program targeting'!$G$3&lt;&gt;"Y",NOT(ISBLANK(G156)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2234">
+      <formula>'Program targeting'!$G$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G157">
+    <cfRule type="expression" dxfId="2" priority="2251">
+      <formula>AND('Program targeting'!$H$3&lt;&gt;"Y",NOT(ISBLANK(G157)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2252">
+      <formula>'Program targeting'!$H$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G158">
+    <cfRule type="expression" dxfId="2" priority="2269">
+      <formula>AND('Program targeting'!$I$3&lt;&gt;"Y",NOT(ISBLANK(G158)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2270">
+      <formula>'Program targeting'!$I$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G159">
+    <cfRule type="expression" dxfId="2" priority="2287">
+      <formula>AND('Program targeting'!$J$3&lt;&gt;"Y",NOT(ISBLANK(G159)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2288">
+      <formula>'Program targeting'!$J$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G16">
     <cfRule type="expression" dxfId="2" priority="217">
       <formula>AND('Program targeting'!$G$3&lt;&gt;"Y",NOT(ISBLANK(G16)))</formula>
@@ -5451,6 +8055,70 @@
       <formula>'Program targeting'!$I$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G82">
+    <cfRule type="expression" dxfId="2" priority="1153">
+      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G82)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1154">
+      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G83">
+    <cfRule type="expression" dxfId="2" priority="1171">
+      <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G83)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1172">
+      <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G84">
+    <cfRule type="expression" dxfId="2" priority="1189">
+      <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G84)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1190">
+      <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G85">
+    <cfRule type="expression" dxfId="2" priority="1207">
+      <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G85)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1208">
+      <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G86">
+    <cfRule type="expression" dxfId="2" priority="1225">
+      <formula>AND('Program targeting'!$G$3&lt;&gt;"Y",NOT(ISBLANK(G86)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1226">
+      <formula>'Program targeting'!$G$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G87">
+    <cfRule type="expression" dxfId="2" priority="1243">
+      <formula>AND('Program targeting'!$H$3&lt;&gt;"Y",NOT(ISBLANK(G87)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1244">
+      <formula>'Program targeting'!$H$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G88">
+    <cfRule type="expression" dxfId="2" priority="1261">
+      <formula>AND('Program targeting'!$I$3&lt;&gt;"Y",NOT(ISBLANK(G88)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1262">
+      <formula>'Program targeting'!$I$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G89">
+    <cfRule type="expression" dxfId="2" priority="1279">
+      <formula>AND('Program targeting'!$J$3&lt;&gt;"Y",NOT(ISBLANK(G89)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1280">
+      <formula>'Program targeting'!$J$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G9">
     <cfRule type="expression" dxfId="2" priority="127">
       <formula>AND('Program targeting'!$J$3&lt;&gt;"Y",NOT(ISBLANK(G9)))</formula>
@@ -5459,6 +8127,198 @@
       <formula>'Program targeting'!$J$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G92">
+    <cfRule type="expression" dxfId="2" priority="1297">
+      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G92)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1298">
+      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G93">
+    <cfRule type="expression" dxfId="2" priority="1315">
+      <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G93)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1316">
+      <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G94">
+    <cfRule type="expression" dxfId="2" priority="1333">
+      <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G94)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1334">
+      <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G95">
+    <cfRule type="expression" dxfId="2" priority="1351">
+      <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G95)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1352">
+      <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G96">
+    <cfRule type="expression" dxfId="2" priority="1369">
+      <formula>AND('Program targeting'!$G$3&lt;&gt;"Y",NOT(ISBLANK(G96)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1370">
+      <formula>'Program targeting'!$G$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G97">
+    <cfRule type="expression" dxfId="2" priority="1387">
+      <formula>AND('Program targeting'!$H$3&lt;&gt;"Y",NOT(ISBLANK(G97)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1388">
+      <formula>'Program targeting'!$H$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G98">
+    <cfRule type="expression" dxfId="2" priority="1405">
+      <formula>AND('Program targeting'!$I$3&lt;&gt;"Y",NOT(ISBLANK(G98)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1406">
+      <formula>'Program targeting'!$I$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G99">
+    <cfRule type="expression" dxfId="2" priority="1423">
+      <formula>AND('Program targeting'!$J$3&lt;&gt;"Y",NOT(ISBLANK(G99)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1424">
+      <formula>'Program targeting'!$J$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H102">
+    <cfRule type="expression" dxfId="2" priority="1443">
+      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H102)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1444">
+      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H103">
+    <cfRule type="expression" dxfId="2" priority="1461">
+      <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H103)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1462">
+      <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H104">
+    <cfRule type="expression" dxfId="2" priority="1479">
+      <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H104)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1480">
+      <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H105">
+    <cfRule type="expression" dxfId="2" priority="1497">
+      <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H105)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1498">
+      <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H106">
+    <cfRule type="expression" dxfId="2" priority="1515">
+      <formula>AND('Program targeting'!$G$4&lt;&gt;"Y",NOT(ISBLANK(H106)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1516">
+      <formula>'Program targeting'!$G$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H107">
+    <cfRule type="expression" dxfId="2" priority="1533">
+      <formula>AND('Program targeting'!$H$4&lt;&gt;"Y",NOT(ISBLANK(H107)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1534">
+      <formula>'Program targeting'!$H$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H108">
+    <cfRule type="expression" dxfId="2" priority="1551">
+      <formula>AND('Program targeting'!$I$4&lt;&gt;"Y",NOT(ISBLANK(H108)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1552">
+      <formula>'Program targeting'!$I$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H109">
+    <cfRule type="expression" dxfId="2" priority="1569">
+      <formula>AND('Program targeting'!$J$4&lt;&gt;"Y",NOT(ISBLANK(H109)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1570">
+      <formula>'Program targeting'!$J$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H112">
+    <cfRule type="expression" dxfId="2" priority="1587">
+      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H112)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1588">
+      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H113">
+    <cfRule type="expression" dxfId="2" priority="1605">
+      <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H113)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1606">
+      <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H114">
+    <cfRule type="expression" dxfId="2" priority="1623">
+      <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H114)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1624">
+      <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H115">
+    <cfRule type="expression" dxfId="2" priority="1641">
+      <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H115)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1642">
+      <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H116">
+    <cfRule type="expression" dxfId="2" priority="1659">
+      <formula>AND('Program targeting'!$G$4&lt;&gt;"Y",NOT(ISBLANK(H116)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1660">
+      <formula>'Program targeting'!$G$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H117">
+    <cfRule type="expression" dxfId="2" priority="1677">
+      <formula>AND('Program targeting'!$H$4&lt;&gt;"Y",NOT(ISBLANK(H117)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1678">
+      <formula>'Program targeting'!$H$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H118">
+    <cfRule type="expression" dxfId="2" priority="1695">
+      <formula>AND('Program targeting'!$I$4&lt;&gt;"Y",NOT(ISBLANK(H118)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1696">
+      <formula>'Program targeting'!$I$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H119">
+    <cfRule type="expression" dxfId="2" priority="1713">
+      <formula>AND('Program targeting'!$J$4&lt;&gt;"Y",NOT(ISBLANK(H119)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1714">
+      <formula>'Program targeting'!$J$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H12">
     <cfRule type="expression" dxfId="2" priority="147">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H12)))</formula>
@@ -5467,6 +8327,70 @@
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H122">
+    <cfRule type="expression" dxfId="2" priority="1731">
+      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H122)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1732">
+      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H123">
+    <cfRule type="expression" dxfId="2" priority="1749">
+      <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H123)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1750">
+      <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H124">
+    <cfRule type="expression" dxfId="2" priority="1767">
+      <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H124)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1768">
+      <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H125">
+    <cfRule type="expression" dxfId="2" priority="1785">
+      <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H125)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1786">
+      <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H126">
+    <cfRule type="expression" dxfId="2" priority="1803">
+      <formula>AND('Program targeting'!$G$4&lt;&gt;"Y",NOT(ISBLANK(H126)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1804">
+      <formula>'Program targeting'!$G$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H127">
+    <cfRule type="expression" dxfId="2" priority="1821">
+      <formula>AND('Program targeting'!$H$4&lt;&gt;"Y",NOT(ISBLANK(H127)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1822">
+      <formula>'Program targeting'!$H$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H128">
+    <cfRule type="expression" dxfId="2" priority="1839">
+      <formula>AND('Program targeting'!$I$4&lt;&gt;"Y",NOT(ISBLANK(H128)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1840">
+      <formula>'Program targeting'!$I$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H129">
+    <cfRule type="expression" dxfId="2" priority="1857">
+      <formula>AND('Program targeting'!$J$4&lt;&gt;"Y",NOT(ISBLANK(H129)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1858">
+      <formula>'Program targeting'!$J$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H13">
     <cfRule type="expression" dxfId="2" priority="165">
       <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H13)))</formula>
@@ -5475,6 +8399,70 @@
       <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H132">
+    <cfRule type="expression" dxfId="2" priority="1875">
+      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H132)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1876">
+      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H133">
+    <cfRule type="expression" dxfId="2" priority="1893">
+      <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H133)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1894">
+      <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H134">
+    <cfRule type="expression" dxfId="2" priority="1911">
+      <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H134)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1912">
+      <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H135">
+    <cfRule type="expression" dxfId="2" priority="1929">
+      <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H135)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1930">
+      <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H136">
+    <cfRule type="expression" dxfId="2" priority="1947">
+      <formula>AND('Program targeting'!$G$4&lt;&gt;"Y",NOT(ISBLANK(H136)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1948">
+      <formula>'Program targeting'!$G$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H137">
+    <cfRule type="expression" dxfId="2" priority="1965">
+      <formula>AND('Program targeting'!$H$4&lt;&gt;"Y",NOT(ISBLANK(H137)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1966">
+      <formula>'Program targeting'!$H$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H138">
+    <cfRule type="expression" dxfId="2" priority="1983">
+      <formula>AND('Program targeting'!$I$4&lt;&gt;"Y",NOT(ISBLANK(H138)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1984">
+      <formula>'Program targeting'!$I$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H139">
+    <cfRule type="expression" dxfId="2" priority="2001">
+      <formula>AND('Program targeting'!$J$4&lt;&gt;"Y",NOT(ISBLANK(H139)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2002">
+      <formula>'Program targeting'!$J$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H14">
     <cfRule type="expression" dxfId="2" priority="183">
       <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H14)))</formula>
@@ -5483,6 +8471,70 @@
       <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H142">
+    <cfRule type="expression" dxfId="2" priority="2019">
+      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H142)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2020">
+      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H143">
+    <cfRule type="expression" dxfId="2" priority="2037">
+      <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H143)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2038">
+      <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H144">
+    <cfRule type="expression" dxfId="2" priority="2055">
+      <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H144)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2056">
+      <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H145">
+    <cfRule type="expression" dxfId="2" priority="2073">
+      <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H145)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2074">
+      <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H146">
+    <cfRule type="expression" dxfId="2" priority="2091">
+      <formula>AND('Program targeting'!$G$4&lt;&gt;"Y",NOT(ISBLANK(H146)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2092">
+      <formula>'Program targeting'!$G$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H147">
+    <cfRule type="expression" dxfId="2" priority="2109">
+      <formula>AND('Program targeting'!$H$4&lt;&gt;"Y",NOT(ISBLANK(H147)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2110">
+      <formula>'Program targeting'!$H$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H148">
+    <cfRule type="expression" dxfId="2" priority="2127">
+      <formula>AND('Program targeting'!$I$4&lt;&gt;"Y",NOT(ISBLANK(H148)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2128">
+      <formula>'Program targeting'!$I$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H149">
+    <cfRule type="expression" dxfId="2" priority="2145">
+      <formula>AND('Program targeting'!$J$4&lt;&gt;"Y",NOT(ISBLANK(H149)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2146">
+      <formula>'Program targeting'!$J$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H15">
     <cfRule type="expression" dxfId="2" priority="201">
       <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H15)))</formula>
@@ -5491,6 +8543,70 @@
       <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H152">
+    <cfRule type="expression" dxfId="2" priority="2163">
+      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H152)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2164">
+      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H153">
+    <cfRule type="expression" dxfId="2" priority="2181">
+      <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H153)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2182">
+      <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H154">
+    <cfRule type="expression" dxfId="2" priority="2199">
+      <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H154)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2200">
+      <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H155">
+    <cfRule type="expression" dxfId="2" priority="2217">
+      <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H155)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2218">
+      <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H156">
+    <cfRule type="expression" dxfId="2" priority="2235">
+      <formula>AND('Program targeting'!$G$4&lt;&gt;"Y",NOT(ISBLANK(H156)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2236">
+      <formula>'Program targeting'!$G$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H157">
+    <cfRule type="expression" dxfId="2" priority="2253">
+      <formula>AND('Program targeting'!$H$4&lt;&gt;"Y",NOT(ISBLANK(H157)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2254">
+      <formula>'Program targeting'!$H$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H158">
+    <cfRule type="expression" dxfId="2" priority="2271">
+      <formula>AND('Program targeting'!$I$4&lt;&gt;"Y",NOT(ISBLANK(H158)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2272">
+      <formula>'Program targeting'!$I$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H159">
+    <cfRule type="expression" dxfId="2" priority="2289">
+      <formula>AND('Program targeting'!$J$4&lt;&gt;"Y",NOT(ISBLANK(H159)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2290">
+      <formula>'Program targeting'!$J$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H16">
     <cfRule type="expression" dxfId="2" priority="219">
       <formula>AND('Program targeting'!$G$4&lt;&gt;"Y",NOT(ISBLANK(H16)))</formula>
@@ -5963,6 +9079,70 @@
       <formula>'Program targeting'!$I$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="expression" dxfId="2" priority="1155">
+      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H82)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1156">
+      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83">
+    <cfRule type="expression" dxfId="2" priority="1173">
+      <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H83)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1174">
+      <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H84">
+    <cfRule type="expression" dxfId="2" priority="1191">
+      <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H84)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1192">
+      <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H85">
+    <cfRule type="expression" dxfId="2" priority="1209">
+      <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H85)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1210">
+      <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H86">
+    <cfRule type="expression" dxfId="2" priority="1227">
+      <formula>AND('Program targeting'!$G$4&lt;&gt;"Y",NOT(ISBLANK(H86)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1228">
+      <formula>'Program targeting'!$G$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87">
+    <cfRule type="expression" dxfId="2" priority="1245">
+      <formula>AND('Program targeting'!$H$4&lt;&gt;"Y",NOT(ISBLANK(H87)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1246">
+      <formula>'Program targeting'!$H$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H88">
+    <cfRule type="expression" dxfId="2" priority="1263">
+      <formula>AND('Program targeting'!$I$4&lt;&gt;"Y",NOT(ISBLANK(H88)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1264">
+      <formula>'Program targeting'!$I$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H89">
+    <cfRule type="expression" dxfId="2" priority="1281">
+      <formula>AND('Program targeting'!$J$4&lt;&gt;"Y",NOT(ISBLANK(H89)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1282">
+      <formula>'Program targeting'!$J$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H9">
     <cfRule type="expression" dxfId="2" priority="129">
       <formula>AND('Program targeting'!$J$4&lt;&gt;"Y",NOT(ISBLANK(H9)))</formula>
@@ -5971,6 +9151,198 @@
       <formula>'Program targeting'!$J$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H92">
+    <cfRule type="expression" dxfId="2" priority="1299">
+      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H92)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1300">
+      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H93">
+    <cfRule type="expression" dxfId="2" priority="1317">
+      <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H93)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1318">
+      <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H94">
+    <cfRule type="expression" dxfId="2" priority="1335">
+      <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H94)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1336">
+      <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H95">
+    <cfRule type="expression" dxfId="2" priority="1353">
+      <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H95)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1354">
+      <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H96">
+    <cfRule type="expression" dxfId="2" priority="1371">
+      <formula>AND('Program targeting'!$G$4&lt;&gt;"Y",NOT(ISBLANK(H96)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1372">
+      <formula>'Program targeting'!$G$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H97">
+    <cfRule type="expression" dxfId="2" priority="1389">
+      <formula>AND('Program targeting'!$H$4&lt;&gt;"Y",NOT(ISBLANK(H97)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1390">
+      <formula>'Program targeting'!$H$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H98">
+    <cfRule type="expression" dxfId="2" priority="1407">
+      <formula>AND('Program targeting'!$I$4&lt;&gt;"Y",NOT(ISBLANK(H98)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1408">
+      <formula>'Program targeting'!$I$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H99">
+    <cfRule type="expression" dxfId="2" priority="1425">
+      <formula>AND('Program targeting'!$J$4&lt;&gt;"Y",NOT(ISBLANK(H99)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1426">
+      <formula>'Program targeting'!$J$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I102">
+    <cfRule type="expression" dxfId="2" priority="1445">
+      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I102)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1446">
+      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I103">
+    <cfRule type="expression" dxfId="2" priority="1463">
+      <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I103)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1464">
+      <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I104">
+    <cfRule type="expression" dxfId="2" priority="1481">
+      <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I104)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1482">
+      <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I105">
+    <cfRule type="expression" dxfId="2" priority="1499">
+      <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I105)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1500">
+      <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I106">
+    <cfRule type="expression" dxfId="2" priority="1517">
+      <formula>AND('Program targeting'!$G$5&lt;&gt;"Y",NOT(ISBLANK(I106)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1518">
+      <formula>'Program targeting'!$G$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I107">
+    <cfRule type="expression" dxfId="2" priority="1535">
+      <formula>AND('Program targeting'!$H$5&lt;&gt;"Y",NOT(ISBLANK(I107)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1536">
+      <formula>'Program targeting'!$H$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I108">
+    <cfRule type="expression" dxfId="2" priority="1553">
+      <formula>AND('Program targeting'!$I$5&lt;&gt;"Y",NOT(ISBLANK(I108)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1554">
+      <formula>'Program targeting'!$I$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I109">
+    <cfRule type="expression" dxfId="2" priority="1571">
+      <formula>AND('Program targeting'!$J$5&lt;&gt;"Y",NOT(ISBLANK(I109)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1572">
+      <formula>'Program targeting'!$J$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I112">
+    <cfRule type="expression" dxfId="2" priority="1589">
+      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I112)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1590">
+      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I113">
+    <cfRule type="expression" dxfId="2" priority="1607">
+      <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I113)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1608">
+      <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I114">
+    <cfRule type="expression" dxfId="2" priority="1625">
+      <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I114)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1626">
+      <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I115">
+    <cfRule type="expression" dxfId="2" priority="1643">
+      <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I115)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1644">
+      <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I116">
+    <cfRule type="expression" dxfId="2" priority="1661">
+      <formula>AND('Program targeting'!$G$5&lt;&gt;"Y",NOT(ISBLANK(I116)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1662">
+      <formula>'Program targeting'!$G$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I117">
+    <cfRule type="expression" dxfId="2" priority="1679">
+      <formula>AND('Program targeting'!$H$5&lt;&gt;"Y",NOT(ISBLANK(I117)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1680">
+      <formula>'Program targeting'!$H$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I118">
+    <cfRule type="expression" dxfId="2" priority="1697">
+      <formula>AND('Program targeting'!$I$5&lt;&gt;"Y",NOT(ISBLANK(I118)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1698">
+      <formula>'Program targeting'!$I$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I119">
+    <cfRule type="expression" dxfId="2" priority="1715">
+      <formula>AND('Program targeting'!$J$5&lt;&gt;"Y",NOT(ISBLANK(I119)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1716">
+      <formula>'Program targeting'!$J$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I12">
     <cfRule type="expression" dxfId="2" priority="149">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I12)))</formula>
@@ -5979,6 +9351,70 @@
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I122">
+    <cfRule type="expression" dxfId="2" priority="1733">
+      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I122)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1734">
+      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I123">
+    <cfRule type="expression" dxfId="2" priority="1751">
+      <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I123)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1752">
+      <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I124">
+    <cfRule type="expression" dxfId="2" priority="1769">
+      <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I124)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1770">
+      <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I125">
+    <cfRule type="expression" dxfId="2" priority="1787">
+      <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I125)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1788">
+      <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I126">
+    <cfRule type="expression" dxfId="2" priority="1805">
+      <formula>AND('Program targeting'!$G$5&lt;&gt;"Y",NOT(ISBLANK(I126)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1806">
+      <formula>'Program targeting'!$G$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I127">
+    <cfRule type="expression" dxfId="2" priority="1823">
+      <formula>AND('Program targeting'!$H$5&lt;&gt;"Y",NOT(ISBLANK(I127)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1824">
+      <formula>'Program targeting'!$H$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I128">
+    <cfRule type="expression" dxfId="2" priority="1841">
+      <formula>AND('Program targeting'!$I$5&lt;&gt;"Y",NOT(ISBLANK(I128)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1842">
+      <formula>'Program targeting'!$I$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I129">
+    <cfRule type="expression" dxfId="2" priority="1859">
+      <formula>AND('Program targeting'!$J$5&lt;&gt;"Y",NOT(ISBLANK(I129)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1860">
+      <formula>'Program targeting'!$J$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I13">
     <cfRule type="expression" dxfId="2" priority="167">
       <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I13)))</formula>
@@ -5987,6 +9423,70 @@
       <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I132">
+    <cfRule type="expression" dxfId="2" priority="1877">
+      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I132)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1878">
+      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I133">
+    <cfRule type="expression" dxfId="2" priority="1895">
+      <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I133)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1896">
+      <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I134">
+    <cfRule type="expression" dxfId="2" priority="1913">
+      <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I134)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1914">
+      <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I135">
+    <cfRule type="expression" dxfId="2" priority="1931">
+      <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I135)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1932">
+      <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I136">
+    <cfRule type="expression" dxfId="2" priority="1949">
+      <formula>AND('Program targeting'!$G$5&lt;&gt;"Y",NOT(ISBLANK(I136)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1950">
+      <formula>'Program targeting'!$G$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I137">
+    <cfRule type="expression" dxfId="2" priority="1967">
+      <formula>AND('Program targeting'!$H$5&lt;&gt;"Y",NOT(ISBLANK(I137)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1968">
+      <formula>'Program targeting'!$H$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I138">
+    <cfRule type="expression" dxfId="2" priority="1985">
+      <formula>AND('Program targeting'!$I$5&lt;&gt;"Y",NOT(ISBLANK(I138)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1986">
+      <formula>'Program targeting'!$I$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I139">
+    <cfRule type="expression" dxfId="2" priority="2003">
+      <formula>AND('Program targeting'!$J$5&lt;&gt;"Y",NOT(ISBLANK(I139)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2004">
+      <formula>'Program targeting'!$J$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I14">
     <cfRule type="expression" dxfId="2" priority="185">
       <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I14)))</formula>
@@ -5995,6 +9495,70 @@
       <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I142">
+    <cfRule type="expression" dxfId="2" priority="2021">
+      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I142)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2022">
+      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I143">
+    <cfRule type="expression" dxfId="2" priority="2039">
+      <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I143)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2040">
+      <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I144">
+    <cfRule type="expression" dxfId="2" priority="2057">
+      <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I144)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2058">
+      <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I145">
+    <cfRule type="expression" dxfId="2" priority="2075">
+      <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I145)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2076">
+      <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I146">
+    <cfRule type="expression" dxfId="2" priority="2093">
+      <formula>AND('Program targeting'!$G$5&lt;&gt;"Y",NOT(ISBLANK(I146)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2094">
+      <formula>'Program targeting'!$G$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I147">
+    <cfRule type="expression" dxfId="2" priority="2111">
+      <formula>AND('Program targeting'!$H$5&lt;&gt;"Y",NOT(ISBLANK(I147)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2112">
+      <formula>'Program targeting'!$H$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I148">
+    <cfRule type="expression" dxfId="2" priority="2129">
+      <formula>AND('Program targeting'!$I$5&lt;&gt;"Y",NOT(ISBLANK(I148)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2130">
+      <formula>'Program targeting'!$I$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I149">
+    <cfRule type="expression" dxfId="2" priority="2147">
+      <formula>AND('Program targeting'!$J$5&lt;&gt;"Y",NOT(ISBLANK(I149)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2148">
+      <formula>'Program targeting'!$J$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I15">
     <cfRule type="expression" dxfId="2" priority="203">
       <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I15)))</formula>
@@ -6003,6 +9567,70 @@
       <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I152">
+    <cfRule type="expression" dxfId="2" priority="2165">
+      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I152)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2166">
+      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I153">
+    <cfRule type="expression" dxfId="2" priority="2183">
+      <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I153)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2184">
+      <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I154">
+    <cfRule type="expression" dxfId="2" priority="2201">
+      <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I154)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2202">
+      <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I155">
+    <cfRule type="expression" dxfId="2" priority="2219">
+      <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I155)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2220">
+      <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I156">
+    <cfRule type="expression" dxfId="2" priority="2237">
+      <formula>AND('Program targeting'!$G$5&lt;&gt;"Y",NOT(ISBLANK(I156)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2238">
+      <formula>'Program targeting'!$G$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I157">
+    <cfRule type="expression" dxfId="2" priority="2255">
+      <formula>AND('Program targeting'!$H$5&lt;&gt;"Y",NOT(ISBLANK(I157)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2256">
+      <formula>'Program targeting'!$H$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I158">
+    <cfRule type="expression" dxfId="2" priority="2273">
+      <formula>AND('Program targeting'!$I$5&lt;&gt;"Y",NOT(ISBLANK(I158)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2274">
+      <formula>'Program targeting'!$I$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I159">
+    <cfRule type="expression" dxfId="2" priority="2291">
+      <formula>AND('Program targeting'!$J$5&lt;&gt;"Y",NOT(ISBLANK(I159)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2292">
+      <formula>'Program targeting'!$J$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I16">
     <cfRule type="expression" dxfId="2" priority="221">
       <formula>AND('Program targeting'!$G$5&lt;&gt;"Y",NOT(ISBLANK(I16)))</formula>
@@ -6475,6 +10103,70 @@
       <formula>'Program targeting'!$I$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I82">
+    <cfRule type="expression" dxfId="2" priority="1157">
+      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I82)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1158">
+      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I83">
+    <cfRule type="expression" dxfId="2" priority="1175">
+      <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I83)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1176">
+      <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I84">
+    <cfRule type="expression" dxfId="2" priority="1193">
+      <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I84)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1194">
+      <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I85">
+    <cfRule type="expression" dxfId="2" priority="1211">
+      <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I85)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1212">
+      <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I86">
+    <cfRule type="expression" dxfId="2" priority="1229">
+      <formula>AND('Program targeting'!$G$5&lt;&gt;"Y",NOT(ISBLANK(I86)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1230">
+      <formula>'Program targeting'!$G$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I87">
+    <cfRule type="expression" dxfId="2" priority="1247">
+      <formula>AND('Program targeting'!$H$5&lt;&gt;"Y",NOT(ISBLANK(I87)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1248">
+      <formula>'Program targeting'!$H$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I88">
+    <cfRule type="expression" dxfId="2" priority="1265">
+      <formula>AND('Program targeting'!$I$5&lt;&gt;"Y",NOT(ISBLANK(I88)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1266">
+      <formula>'Program targeting'!$I$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I89">
+    <cfRule type="expression" dxfId="2" priority="1283">
+      <formula>AND('Program targeting'!$J$5&lt;&gt;"Y",NOT(ISBLANK(I89)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1284">
+      <formula>'Program targeting'!$J$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I9">
     <cfRule type="expression" dxfId="2" priority="131">
       <formula>AND('Program targeting'!$J$5&lt;&gt;"Y",NOT(ISBLANK(I9)))</formula>
@@ -6483,6 +10175,198 @@
       <formula>'Program targeting'!$J$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I92">
+    <cfRule type="expression" dxfId="2" priority="1301">
+      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I92)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1302">
+      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I93">
+    <cfRule type="expression" dxfId="2" priority="1319">
+      <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I93)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1320">
+      <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I94">
+    <cfRule type="expression" dxfId="2" priority="1337">
+      <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I94)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1338">
+      <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I95">
+    <cfRule type="expression" dxfId="2" priority="1355">
+      <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I95)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1356">
+      <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I96">
+    <cfRule type="expression" dxfId="2" priority="1373">
+      <formula>AND('Program targeting'!$G$5&lt;&gt;"Y",NOT(ISBLANK(I96)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1374">
+      <formula>'Program targeting'!$G$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I97">
+    <cfRule type="expression" dxfId="2" priority="1391">
+      <formula>AND('Program targeting'!$H$5&lt;&gt;"Y",NOT(ISBLANK(I97)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1392">
+      <formula>'Program targeting'!$H$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I98">
+    <cfRule type="expression" dxfId="2" priority="1409">
+      <formula>AND('Program targeting'!$I$5&lt;&gt;"Y",NOT(ISBLANK(I98)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1410">
+      <formula>'Program targeting'!$I$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I99">
+    <cfRule type="expression" dxfId="2" priority="1427">
+      <formula>AND('Program targeting'!$J$5&lt;&gt;"Y",NOT(ISBLANK(I99)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1428">
+      <formula>'Program targeting'!$J$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J102">
+    <cfRule type="expression" dxfId="2" priority="1447">
+      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J102)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1448">
+      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J103">
+    <cfRule type="expression" dxfId="2" priority="1465">
+      <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J103)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1466">
+      <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J104">
+    <cfRule type="expression" dxfId="2" priority="1483">
+      <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J104)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1484">
+      <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J105">
+    <cfRule type="expression" dxfId="2" priority="1501">
+      <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J105)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1502">
+      <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J106">
+    <cfRule type="expression" dxfId="2" priority="1519">
+      <formula>AND('Program targeting'!$G$6&lt;&gt;"Y",NOT(ISBLANK(J106)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1520">
+      <formula>'Program targeting'!$G$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J107">
+    <cfRule type="expression" dxfId="2" priority="1537">
+      <formula>AND('Program targeting'!$H$6&lt;&gt;"Y",NOT(ISBLANK(J107)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1538">
+      <formula>'Program targeting'!$H$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J108">
+    <cfRule type="expression" dxfId="2" priority="1555">
+      <formula>AND('Program targeting'!$I$6&lt;&gt;"Y",NOT(ISBLANK(J108)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1556">
+      <formula>'Program targeting'!$I$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J109">
+    <cfRule type="expression" dxfId="2" priority="1573">
+      <formula>AND('Program targeting'!$J$6&lt;&gt;"Y",NOT(ISBLANK(J109)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1574">
+      <formula>'Program targeting'!$J$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J112">
+    <cfRule type="expression" dxfId="2" priority="1591">
+      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J112)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1592">
+      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J113">
+    <cfRule type="expression" dxfId="2" priority="1609">
+      <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J113)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1610">
+      <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J114">
+    <cfRule type="expression" dxfId="2" priority="1627">
+      <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J114)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1628">
+      <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J115">
+    <cfRule type="expression" dxfId="2" priority="1645">
+      <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J115)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1646">
+      <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J116">
+    <cfRule type="expression" dxfId="2" priority="1663">
+      <formula>AND('Program targeting'!$G$6&lt;&gt;"Y",NOT(ISBLANK(J116)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1664">
+      <formula>'Program targeting'!$G$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J117">
+    <cfRule type="expression" dxfId="2" priority="1681">
+      <formula>AND('Program targeting'!$H$6&lt;&gt;"Y",NOT(ISBLANK(J117)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1682">
+      <formula>'Program targeting'!$H$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J118">
+    <cfRule type="expression" dxfId="2" priority="1699">
+      <formula>AND('Program targeting'!$I$6&lt;&gt;"Y",NOT(ISBLANK(J118)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1700">
+      <formula>'Program targeting'!$I$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J119">
+    <cfRule type="expression" dxfId="2" priority="1717">
+      <formula>AND('Program targeting'!$J$6&lt;&gt;"Y",NOT(ISBLANK(J119)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1718">
+      <formula>'Program targeting'!$J$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J12">
     <cfRule type="expression" dxfId="2" priority="151">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J12)))</formula>
@@ -6491,6 +10375,70 @@
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J122">
+    <cfRule type="expression" dxfId="2" priority="1735">
+      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J122)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1736">
+      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J123">
+    <cfRule type="expression" dxfId="2" priority="1753">
+      <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J123)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1754">
+      <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J124">
+    <cfRule type="expression" dxfId="2" priority="1771">
+      <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J124)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1772">
+      <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J125">
+    <cfRule type="expression" dxfId="2" priority="1789">
+      <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J125)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1790">
+      <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J126">
+    <cfRule type="expression" dxfId="2" priority="1807">
+      <formula>AND('Program targeting'!$G$6&lt;&gt;"Y",NOT(ISBLANK(J126)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1808">
+      <formula>'Program targeting'!$G$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J127">
+    <cfRule type="expression" dxfId="2" priority="1825">
+      <formula>AND('Program targeting'!$H$6&lt;&gt;"Y",NOT(ISBLANK(J127)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1826">
+      <formula>'Program targeting'!$H$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J128">
+    <cfRule type="expression" dxfId="2" priority="1843">
+      <formula>AND('Program targeting'!$I$6&lt;&gt;"Y",NOT(ISBLANK(J128)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1844">
+      <formula>'Program targeting'!$I$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J129">
+    <cfRule type="expression" dxfId="2" priority="1861">
+      <formula>AND('Program targeting'!$J$6&lt;&gt;"Y",NOT(ISBLANK(J129)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1862">
+      <formula>'Program targeting'!$J$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J13">
     <cfRule type="expression" dxfId="2" priority="169">
       <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J13)))</formula>
@@ -6499,6 +10447,70 @@
       <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J132">
+    <cfRule type="expression" dxfId="2" priority="1879">
+      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J132)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1880">
+      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J133">
+    <cfRule type="expression" dxfId="2" priority="1897">
+      <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J133)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1898">
+      <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J134">
+    <cfRule type="expression" dxfId="2" priority="1915">
+      <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J134)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1916">
+      <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J135">
+    <cfRule type="expression" dxfId="2" priority="1933">
+      <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J135)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1934">
+      <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J136">
+    <cfRule type="expression" dxfId="2" priority="1951">
+      <formula>AND('Program targeting'!$G$6&lt;&gt;"Y",NOT(ISBLANK(J136)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1952">
+      <formula>'Program targeting'!$G$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J137">
+    <cfRule type="expression" dxfId="2" priority="1969">
+      <formula>AND('Program targeting'!$H$6&lt;&gt;"Y",NOT(ISBLANK(J137)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1970">
+      <formula>'Program targeting'!$H$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J138">
+    <cfRule type="expression" dxfId="2" priority="1987">
+      <formula>AND('Program targeting'!$I$6&lt;&gt;"Y",NOT(ISBLANK(J138)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1988">
+      <formula>'Program targeting'!$I$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J139">
+    <cfRule type="expression" dxfId="2" priority="2005">
+      <formula>AND('Program targeting'!$J$6&lt;&gt;"Y",NOT(ISBLANK(J139)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2006">
+      <formula>'Program targeting'!$J$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J14">
     <cfRule type="expression" dxfId="2" priority="187">
       <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J14)))</formula>
@@ -6507,6 +10519,70 @@
       <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J142">
+    <cfRule type="expression" dxfId="2" priority="2023">
+      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J142)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2024">
+      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J143">
+    <cfRule type="expression" dxfId="2" priority="2041">
+      <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J143)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2042">
+      <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J144">
+    <cfRule type="expression" dxfId="2" priority="2059">
+      <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J144)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2060">
+      <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J145">
+    <cfRule type="expression" dxfId="2" priority="2077">
+      <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J145)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2078">
+      <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J146">
+    <cfRule type="expression" dxfId="2" priority="2095">
+      <formula>AND('Program targeting'!$G$6&lt;&gt;"Y",NOT(ISBLANK(J146)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2096">
+      <formula>'Program targeting'!$G$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J147">
+    <cfRule type="expression" dxfId="2" priority="2113">
+      <formula>AND('Program targeting'!$H$6&lt;&gt;"Y",NOT(ISBLANK(J147)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2114">
+      <formula>'Program targeting'!$H$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J148">
+    <cfRule type="expression" dxfId="2" priority="2131">
+      <formula>AND('Program targeting'!$I$6&lt;&gt;"Y",NOT(ISBLANK(J148)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2132">
+      <formula>'Program targeting'!$I$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J149">
+    <cfRule type="expression" dxfId="2" priority="2149">
+      <formula>AND('Program targeting'!$J$6&lt;&gt;"Y",NOT(ISBLANK(J149)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2150">
+      <formula>'Program targeting'!$J$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J15">
     <cfRule type="expression" dxfId="2" priority="205">
       <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J15)))</formula>
@@ -6515,6 +10591,70 @@
       <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J152">
+    <cfRule type="expression" dxfId="2" priority="2167">
+      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J152)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2168">
+      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J153">
+    <cfRule type="expression" dxfId="2" priority="2185">
+      <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J153)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2186">
+      <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J154">
+    <cfRule type="expression" dxfId="2" priority="2203">
+      <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J154)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2204">
+      <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J155">
+    <cfRule type="expression" dxfId="2" priority="2221">
+      <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J155)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2222">
+      <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J156">
+    <cfRule type="expression" dxfId="2" priority="2239">
+      <formula>AND('Program targeting'!$G$6&lt;&gt;"Y",NOT(ISBLANK(J156)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2240">
+      <formula>'Program targeting'!$G$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J157">
+    <cfRule type="expression" dxfId="2" priority="2257">
+      <formula>AND('Program targeting'!$H$6&lt;&gt;"Y",NOT(ISBLANK(J157)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2258">
+      <formula>'Program targeting'!$H$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J158">
+    <cfRule type="expression" dxfId="2" priority="2275">
+      <formula>AND('Program targeting'!$I$6&lt;&gt;"Y",NOT(ISBLANK(J158)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2276">
+      <formula>'Program targeting'!$I$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J159">
+    <cfRule type="expression" dxfId="2" priority="2293">
+      <formula>AND('Program targeting'!$J$6&lt;&gt;"Y",NOT(ISBLANK(J159)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2294">
+      <formula>'Program targeting'!$J$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J16">
     <cfRule type="expression" dxfId="2" priority="223">
       <formula>AND('Program targeting'!$G$6&lt;&gt;"Y",NOT(ISBLANK(J16)))</formula>
@@ -6987,6 +11127,70 @@
       <formula>'Program targeting'!$I$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J82">
+    <cfRule type="expression" dxfId="2" priority="1159">
+      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J82)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1160">
+      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J83">
+    <cfRule type="expression" dxfId="2" priority="1177">
+      <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J83)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1178">
+      <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J84">
+    <cfRule type="expression" dxfId="2" priority="1195">
+      <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J84)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1196">
+      <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J85">
+    <cfRule type="expression" dxfId="2" priority="1213">
+      <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J85)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1214">
+      <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J86">
+    <cfRule type="expression" dxfId="2" priority="1231">
+      <formula>AND('Program targeting'!$G$6&lt;&gt;"Y",NOT(ISBLANK(J86)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1232">
+      <formula>'Program targeting'!$G$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J87">
+    <cfRule type="expression" dxfId="2" priority="1249">
+      <formula>AND('Program targeting'!$H$6&lt;&gt;"Y",NOT(ISBLANK(J87)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1250">
+      <formula>'Program targeting'!$H$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J88">
+    <cfRule type="expression" dxfId="2" priority="1267">
+      <formula>AND('Program targeting'!$I$6&lt;&gt;"Y",NOT(ISBLANK(J88)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1268">
+      <formula>'Program targeting'!$I$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J89">
+    <cfRule type="expression" dxfId="2" priority="1285">
+      <formula>AND('Program targeting'!$J$6&lt;&gt;"Y",NOT(ISBLANK(J89)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1286">
+      <formula>'Program targeting'!$J$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J9">
     <cfRule type="expression" dxfId="2" priority="133">
       <formula>AND('Program targeting'!$J$6&lt;&gt;"Y",NOT(ISBLANK(J9)))</formula>
@@ -6995,6 +11199,198 @@
       <formula>'Program targeting'!$J$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J92">
+    <cfRule type="expression" dxfId="2" priority="1303">
+      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J92)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1304">
+      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J93">
+    <cfRule type="expression" dxfId="2" priority="1321">
+      <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J93)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1322">
+      <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J94">
+    <cfRule type="expression" dxfId="2" priority="1339">
+      <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J94)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1340">
+      <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J95">
+    <cfRule type="expression" dxfId="2" priority="1357">
+      <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J95)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1358">
+      <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J96">
+    <cfRule type="expression" dxfId="2" priority="1375">
+      <formula>AND('Program targeting'!$G$6&lt;&gt;"Y",NOT(ISBLANK(J96)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1376">
+      <formula>'Program targeting'!$G$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J97">
+    <cfRule type="expression" dxfId="2" priority="1393">
+      <formula>AND('Program targeting'!$H$6&lt;&gt;"Y",NOT(ISBLANK(J97)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1394">
+      <formula>'Program targeting'!$H$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J98">
+    <cfRule type="expression" dxfId="2" priority="1411">
+      <formula>AND('Program targeting'!$I$6&lt;&gt;"Y",NOT(ISBLANK(J98)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1412">
+      <formula>'Program targeting'!$I$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J99">
+    <cfRule type="expression" dxfId="2" priority="1429">
+      <formula>AND('Program targeting'!$J$6&lt;&gt;"Y",NOT(ISBLANK(J99)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1430">
+      <formula>'Program targeting'!$J$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K102">
+    <cfRule type="expression" dxfId="2" priority="1449">
+      <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K102)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1450">
+      <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K103">
+    <cfRule type="expression" dxfId="2" priority="1467">
+      <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K103)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1468">
+      <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K104">
+    <cfRule type="expression" dxfId="2" priority="1485">
+      <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K104)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1486">
+      <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K105">
+    <cfRule type="expression" dxfId="2" priority="1503">
+      <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K105)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1504">
+      <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K106">
+    <cfRule type="expression" dxfId="2" priority="1521">
+      <formula>AND('Program targeting'!$G$7&lt;&gt;"Y",NOT(ISBLANK(K106)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1522">
+      <formula>'Program targeting'!$G$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K107">
+    <cfRule type="expression" dxfId="2" priority="1539">
+      <formula>AND('Program targeting'!$H$7&lt;&gt;"Y",NOT(ISBLANK(K107)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1540">
+      <formula>'Program targeting'!$H$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K108">
+    <cfRule type="expression" dxfId="2" priority="1557">
+      <formula>AND('Program targeting'!$I$7&lt;&gt;"Y",NOT(ISBLANK(K108)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1558">
+      <formula>'Program targeting'!$I$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K109">
+    <cfRule type="expression" dxfId="2" priority="1575">
+      <formula>AND('Program targeting'!$J$7&lt;&gt;"Y",NOT(ISBLANK(K109)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1576">
+      <formula>'Program targeting'!$J$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K112">
+    <cfRule type="expression" dxfId="2" priority="1593">
+      <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K112)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1594">
+      <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K113">
+    <cfRule type="expression" dxfId="2" priority="1611">
+      <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K113)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1612">
+      <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K114">
+    <cfRule type="expression" dxfId="2" priority="1629">
+      <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K114)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1630">
+      <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K115">
+    <cfRule type="expression" dxfId="2" priority="1647">
+      <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K115)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1648">
+      <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K116">
+    <cfRule type="expression" dxfId="2" priority="1665">
+      <formula>AND('Program targeting'!$G$7&lt;&gt;"Y",NOT(ISBLANK(K116)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1666">
+      <formula>'Program targeting'!$G$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K117">
+    <cfRule type="expression" dxfId="2" priority="1683">
+      <formula>AND('Program targeting'!$H$7&lt;&gt;"Y",NOT(ISBLANK(K117)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1684">
+      <formula>'Program targeting'!$H$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K118">
+    <cfRule type="expression" dxfId="2" priority="1701">
+      <formula>AND('Program targeting'!$I$7&lt;&gt;"Y",NOT(ISBLANK(K118)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1702">
+      <formula>'Program targeting'!$I$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K119">
+    <cfRule type="expression" dxfId="2" priority="1719">
+      <formula>AND('Program targeting'!$J$7&lt;&gt;"Y",NOT(ISBLANK(K119)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1720">
+      <formula>'Program targeting'!$J$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K12">
     <cfRule type="expression" dxfId="2" priority="153">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K12)))</formula>
@@ -7003,6 +11399,70 @@
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K122">
+    <cfRule type="expression" dxfId="2" priority="1737">
+      <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K122)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1738">
+      <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K123">
+    <cfRule type="expression" dxfId="2" priority="1755">
+      <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K123)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1756">
+      <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K124">
+    <cfRule type="expression" dxfId="2" priority="1773">
+      <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K124)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1774">
+      <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K125">
+    <cfRule type="expression" dxfId="2" priority="1791">
+      <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K125)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1792">
+      <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K126">
+    <cfRule type="expression" dxfId="2" priority="1809">
+      <formula>AND('Program targeting'!$G$7&lt;&gt;"Y",NOT(ISBLANK(K126)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1810">
+      <formula>'Program targeting'!$G$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K127">
+    <cfRule type="expression" dxfId="2" priority="1827">
+      <formula>AND('Program targeting'!$H$7&lt;&gt;"Y",NOT(ISBLANK(K127)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1828">
+      <formula>'Program targeting'!$H$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K128">
+    <cfRule type="expression" dxfId="2" priority="1845">
+      <formula>AND('Program targeting'!$I$7&lt;&gt;"Y",NOT(ISBLANK(K128)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1846">
+      <formula>'Program targeting'!$I$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K129">
+    <cfRule type="expression" dxfId="2" priority="1863">
+      <formula>AND('Program targeting'!$J$7&lt;&gt;"Y",NOT(ISBLANK(K129)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1864">
+      <formula>'Program targeting'!$J$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K13">
     <cfRule type="expression" dxfId="2" priority="171">
       <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K13)))</formula>
@@ -7011,6 +11471,70 @@
       <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K132">
+    <cfRule type="expression" dxfId="2" priority="1881">
+      <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K132)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1882">
+      <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K133">
+    <cfRule type="expression" dxfId="2" priority="1899">
+      <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K133)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1900">
+      <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K134">
+    <cfRule type="expression" dxfId="2" priority="1917">
+      <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K134)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1918">
+      <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K135">
+    <cfRule type="expression" dxfId="2" priority="1935">
+      <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K135)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1936">
+      <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K136">
+    <cfRule type="expression" dxfId="2" priority="1953">
+      <formula>AND('Program targeting'!$G$7&lt;&gt;"Y",NOT(ISBLANK(K136)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1954">
+      <formula>'Program targeting'!$G$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K137">
+    <cfRule type="expression" dxfId="2" priority="1971">
+      <formula>AND('Program targeting'!$H$7&lt;&gt;"Y",NOT(ISBLANK(K137)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1972">
+      <formula>'Program targeting'!$H$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K138">
+    <cfRule type="expression" dxfId="2" priority="1989">
+      <formula>AND('Program targeting'!$I$7&lt;&gt;"Y",NOT(ISBLANK(K138)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1990">
+      <formula>'Program targeting'!$I$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K139">
+    <cfRule type="expression" dxfId="2" priority="2007">
+      <formula>AND('Program targeting'!$J$7&lt;&gt;"Y",NOT(ISBLANK(K139)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2008">
+      <formula>'Program targeting'!$J$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K14">
     <cfRule type="expression" dxfId="2" priority="189">
       <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K14)))</formula>
@@ -7019,6 +11543,70 @@
       <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K142">
+    <cfRule type="expression" dxfId="2" priority="2025">
+      <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K142)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2026">
+      <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K143">
+    <cfRule type="expression" dxfId="2" priority="2043">
+      <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K143)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2044">
+      <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K144">
+    <cfRule type="expression" dxfId="2" priority="2061">
+      <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K144)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2062">
+      <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K145">
+    <cfRule type="expression" dxfId="2" priority="2079">
+      <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K145)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2080">
+      <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K146">
+    <cfRule type="expression" dxfId="2" priority="2097">
+      <formula>AND('Program targeting'!$G$7&lt;&gt;"Y",NOT(ISBLANK(K146)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2098">
+      <formula>'Program targeting'!$G$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K147">
+    <cfRule type="expression" dxfId="2" priority="2115">
+      <formula>AND('Program targeting'!$H$7&lt;&gt;"Y",NOT(ISBLANK(K147)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2116">
+      <formula>'Program targeting'!$H$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K148">
+    <cfRule type="expression" dxfId="2" priority="2133">
+      <formula>AND('Program targeting'!$I$7&lt;&gt;"Y",NOT(ISBLANK(K148)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2134">
+      <formula>'Program targeting'!$I$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K149">
+    <cfRule type="expression" dxfId="2" priority="2151">
+      <formula>AND('Program targeting'!$J$7&lt;&gt;"Y",NOT(ISBLANK(K149)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2152">
+      <formula>'Program targeting'!$J$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K15">
     <cfRule type="expression" dxfId="2" priority="207">
       <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K15)))</formula>
@@ -7027,6 +11615,70 @@
       <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K152">
+    <cfRule type="expression" dxfId="2" priority="2169">
+      <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K152)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2170">
+      <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K153">
+    <cfRule type="expression" dxfId="2" priority="2187">
+      <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K153)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2188">
+      <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K154">
+    <cfRule type="expression" dxfId="2" priority="2205">
+      <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K154)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2206">
+      <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K155">
+    <cfRule type="expression" dxfId="2" priority="2223">
+      <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K155)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2224">
+      <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K156">
+    <cfRule type="expression" dxfId="2" priority="2241">
+      <formula>AND('Program targeting'!$G$7&lt;&gt;"Y",NOT(ISBLANK(K156)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2242">
+      <formula>'Program targeting'!$G$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K157">
+    <cfRule type="expression" dxfId="2" priority="2259">
+      <formula>AND('Program targeting'!$H$7&lt;&gt;"Y",NOT(ISBLANK(K157)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2260">
+      <formula>'Program targeting'!$H$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K158">
+    <cfRule type="expression" dxfId="2" priority="2277">
+      <formula>AND('Program targeting'!$I$7&lt;&gt;"Y",NOT(ISBLANK(K158)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2278">
+      <formula>'Program targeting'!$I$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K159">
+    <cfRule type="expression" dxfId="2" priority="2295">
+      <formula>AND('Program targeting'!$J$7&lt;&gt;"Y",NOT(ISBLANK(K159)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2296">
+      <formula>'Program targeting'!$J$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K16">
     <cfRule type="expression" dxfId="2" priority="225">
       <formula>AND('Program targeting'!$G$7&lt;&gt;"Y",NOT(ISBLANK(K16)))</formula>
@@ -7499,6 +12151,70 @@
       <formula>'Program targeting'!$I$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K82">
+    <cfRule type="expression" dxfId="2" priority="1161">
+      <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K82)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1162">
+      <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K83">
+    <cfRule type="expression" dxfId="2" priority="1179">
+      <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K83)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1180">
+      <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K84">
+    <cfRule type="expression" dxfId="2" priority="1197">
+      <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K84)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1198">
+      <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K85">
+    <cfRule type="expression" dxfId="2" priority="1215">
+      <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K85)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1216">
+      <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K86">
+    <cfRule type="expression" dxfId="2" priority="1233">
+      <formula>AND('Program targeting'!$G$7&lt;&gt;"Y",NOT(ISBLANK(K86)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1234">
+      <formula>'Program targeting'!$G$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K87">
+    <cfRule type="expression" dxfId="2" priority="1251">
+      <formula>AND('Program targeting'!$H$7&lt;&gt;"Y",NOT(ISBLANK(K87)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1252">
+      <formula>'Program targeting'!$H$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K88">
+    <cfRule type="expression" dxfId="2" priority="1269">
+      <formula>AND('Program targeting'!$I$7&lt;&gt;"Y",NOT(ISBLANK(K88)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1270">
+      <formula>'Program targeting'!$I$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K89">
+    <cfRule type="expression" dxfId="2" priority="1287">
+      <formula>AND('Program targeting'!$J$7&lt;&gt;"Y",NOT(ISBLANK(K89)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1288">
+      <formula>'Program targeting'!$J$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K9">
     <cfRule type="expression" dxfId="2" priority="135">
       <formula>AND('Program targeting'!$J$7&lt;&gt;"Y",NOT(ISBLANK(K9)))</formula>
@@ -7507,6 +12223,198 @@
       <formula>'Program targeting'!$J$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K92">
+    <cfRule type="expression" dxfId="2" priority="1305">
+      <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K92)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1306">
+      <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K93">
+    <cfRule type="expression" dxfId="2" priority="1323">
+      <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K93)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1324">
+      <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K94">
+    <cfRule type="expression" dxfId="2" priority="1341">
+      <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K94)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1342">
+      <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K95">
+    <cfRule type="expression" dxfId="2" priority="1359">
+      <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K95)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1360">
+      <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K96">
+    <cfRule type="expression" dxfId="2" priority="1377">
+      <formula>AND('Program targeting'!$G$7&lt;&gt;"Y",NOT(ISBLANK(K96)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1378">
+      <formula>'Program targeting'!$G$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K97">
+    <cfRule type="expression" dxfId="2" priority="1395">
+      <formula>AND('Program targeting'!$H$7&lt;&gt;"Y",NOT(ISBLANK(K97)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1396">
+      <formula>'Program targeting'!$H$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K98">
+    <cfRule type="expression" dxfId="2" priority="1413">
+      <formula>AND('Program targeting'!$I$7&lt;&gt;"Y",NOT(ISBLANK(K98)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1414">
+      <formula>'Program targeting'!$I$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K99">
+    <cfRule type="expression" dxfId="2" priority="1431">
+      <formula>AND('Program targeting'!$J$7&lt;&gt;"Y",NOT(ISBLANK(K99)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1432">
+      <formula>'Program targeting'!$J$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L102">
+    <cfRule type="expression" dxfId="2" priority="1451">
+      <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L102)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1452">
+      <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L103">
+    <cfRule type="expression" dxfId="2" priority="1469">
+      <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L103)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1470">
+      <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L104">
+    <cfRule type="expression" dxfId="2" priority="1487">
+      <formula>AND('Program targeting'!$E$8&lt;&gt;"Y",NOT(ISBLANK(L104)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1488">
+      <formula>'Program targeting'!$E$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L105">
+    <cfRule type="expression" dxfId="2" priority="1505">
+      <formula>AND('Program targeting'!$F$8&lt;&gt;"Y",NOT(ISBLANK(L105)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1506">
+      <formula>'Program targeting'!$F$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L106">
+    <cfRule type="expression" dxfId="2" priority="1523">
+      <formula>AND('Program targeting'!$G$8&lt;&gt;"Y",NOT(ISBLANK(L106)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1524">
+      <formula>'Program targeting'!$G$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L107">
+    <cfRule type="expression" dxfId="2" priority="1541">
+      <formula>AND('Program targeting'!$H$8&lt;&gt;"Y",NOT(ISBLANK(L107)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1542">
+      <formula>'Program targeting'!$H$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L108">
+    <cfRule type="expression" dxfId="2" priority="1559">
+      <formula>AND('Program targeting'!$I$8&lt;&gt;"Y",NOT(ISBLANK(L108)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1560">
+      <formula>'Program targeting'!$I$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L109">
+    <cfRule type="expression" dxfId="2" priority="1577">
+      <formula>AND('Program targeting'!$J$8&lt;&gt;"Y",NOT(ISBLANK(L109)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1578">
+      <formula>'Program targeting'!$J$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L112">
+    <cfRule type="expression" dxfId="2" priority="1595">
+      <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L112)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1596">
+      <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L113">
+    <cfRule type="expression" dxfId="2" priority="1613">
+      <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L113)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1614">
+      <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L114">
+    <cfRule type="expression" dxfId="2" priority="1631">
+      <formula>AND('Program targeting'!$E$8&lt;&gt;"Y",NOT(ISBLANK(L114)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1632">
+      <formula>'Program targeting'!$E$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L115">
+    <cfRule type="expression" dxfId="2" priority="1649">
+      <formula>AND('Program targeting'!$F$8&lt;&gt;"Y",NOT(ISBLANK(L115)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1650">
+      <formula>'Program targeting'!$F$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L116">
+    <cfRule type="expression" dxfId="2" priority="1667">
+      <formula>AND('Program targeting'!$G$8&lt;&gt;"Y",NOT(ISBLANK(L116)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1668">
+      <formula>'Program targeting'!$G$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L117">
+    <cfRule type="expression" dxfId="2" priority="1685">
+      <formula>AND('Program targeting'!$H$8&lt;&gt;"Y",NOT(ISBLANK(L117)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1686">
+      <formula>'Program targeting'!$H$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L118">
+    <cfRule type="expression" dxfId="2" priority="1703">
+      <formula>AND('Program targeting'!$I$8&lt;&gt;"Y",NOT(ISBLANK(L118)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1704">
+      <formula>'Program targeting'!$I$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L119">
+    <cfRule type="expression" dxfId="2" priority="1721">
+      <formula>AND('Program targeting'!$J$8&lt;&gt;"Y",NOT(ISBLANK(L119)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1722">
+      <formula>'Program targeting'!$J$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L12">
     <cfRule type="expression" dxfId="2" priority="155">
       <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L12)))</formula>
@@ -7515,6 +12423,70 @@
       <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L122">
+    <cfRule type="expression" dxfId="2" priority="1739">
+      <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L122)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1740">
+      <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L123">
+    <cfRule type="expression" dxfId="2" priority="1757">
+      <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L123)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1758">
+      <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L124">
+    <cfRule type="expression" dxfId="2" priority="1775">
+      <formula>AND('Program targeting'!$E$8&lt;&gt;"Y",NOT(ISBLANK(L124)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1776">
+      <formula>'Program targeting'!$E$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L125">
+    <cfRule type="expression" dxfId="2" priority="1793">
+      <formula>AND('Program targeting'!$F$8&lt;&gt;"Y",NOT(ISBLANK(L125)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1794">
+      <formula>'Program targeting'!$F$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L126">
+    <cfRule type="expression" dxfId="2" priority="1811">
+      <formula>AND('Program targeting'!$G$8&lt;&gt;"Y",NOT(ISBLANK(L126)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1812">
+      <formula>'Program targeting'!$G$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L127">
+    <cfRule type="expression" dxfId="2" priority="1829">
+      <formula>AND('Program targeting'!$H$8&lt;&gt;"Y",NOT(ISBLANK(L127)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1830">
+      <formula>'Program targeting'!$H$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L128">
+    <cfRule type="expression" dxfId="2" priority="1847">
+      <formula>AND('Program targeting'!$I$8&lt;&gt;"Y",NOT(ISBLANK(L128)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1848">
+      <formula>'Program targeting'!$I$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L129">
+    <cfRule type="expression" dxfId="2" priority="1865">
+      <formula>AND('Program targeting'!$J$8&lt;&gt;"Y",NOT(ISBLANK(L129)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1866">
+      <formula>'Program targeting'!$J$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L13">
     <cfRule type="expression" dxfId="2" priority="173">
       <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L13)))</formula>
@@ -7523,6 +12495,70 @@
       <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L132">
+    <cfRule type="expression" dxfId="2" priority="1883">
+      <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L132)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1884">
+      <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L133">
+    <cfRule type="expression" dxfId="2" priority="1901">
+      <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L133)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1902">
+      <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L134">
+    <cfRule type="expression" dxfId="2" priority="1919">
+      <formula>AND('Program targeting'!$E$8&lt;&gt;"Y",NOT(ISBLANK(L134)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1920">
+      <formula>'Program targeting'!$E$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L135">
+    <cfRule type="expression" dxfId="2" priority="1937">
+      <formula>AND('Program targeting'!$F$8&lt;&gt;"Y",NOT(ISBLANK(L135)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1938">
+      <formula>'Program targeting'!$F$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L136">
+    <cfRule type="expression" dxfId="2" priority="1955">
+      <formula>AND('Program targeting'!$G$8&lt;&gt;"Y",NOT(ISBLANK(L136)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1956">
+      <formula>'Program targeting'!$G$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L137">
+    <cfRule type="expression" dxfId="2" priority="1973">
+      <formula>AND('Program targeting'!$H$8&lt;&gt;"Y",NOT(ISBLANK(L137)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1974">
+      <formula>'Program targeting'!$H$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L138">
+    <cfRule type="expression" dxfId="2" priority="1991">
+      <formula>AND('Program targeting'!$I$8&lt;&gt;"Y",NOT(ISBLANK(L138)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1992">
+      <formula>'Program targeting'!$I$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L139">
+    <cfRule type="expression" dxfId="2" priority="2009">
+      <formula>AND('Program targeting'!$J$8&lt;&gt;"Y",NOT(ISBLANK(L139)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2010">
+      <formula>'Program targeting'!$J$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L14">
     <cfRule type="expression" dxfId="2" priority="191">
       <formula>AND('Program targeting'!$E$8&lt;&gt;"Y",NOT(ISBLANK(L14)))</formula>
@@ -7531,6 +12567,70 @@
       <formula>'Program targeting'!$E$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L142">
+    <cfRule type="expression" dxfId="2" priority="2027">
+      <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L142)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2028">
+      <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L143">
+    <cfRule type="expression" dxfId="2" priority="2045">
+      <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L143)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2046">
+      <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L144">
+    <cfRule type="expression" dxfId="2" priority="2063">
+      <formula>AND('Program targeting'!$E$8&lt;&gt;"Y",NOT(ISBLANK(L144)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2064">
+      <formula>'Program targeting'!$E$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L145">
+    <cfRule type="expression" dxfId="2" priority="2081">
+      <formula>AND('Program targeting'!$F$8&lt;&gt;"Y",NOT(ISBLANK(L145)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2082">
+      <formula>'Program targeting'!$F$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L146">
+    <cfRule type="expression" dxfId="2" priority="2099">
+      <formula>AND('Program targeting'!$G$8&lt;&gt;"Y",NOT(ISBLANK(L146)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2100">
+      <formula>'Program targeting'!$G$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L147">
+    <cfRule type="expression" dxfId="2" priority="2117">
+      <formula>AND('Program targeting'!$H$8&lt;&gt;"Y",NOT(ISBLANK(L147)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2118">
+      <formula>'Program targeting'!$H$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L148">
+    <cfRule type="expression" dxfId="2" priority="2135">
+      <formula>AND('Program targeting'!$I$8&lt;&gt;"Y",NOT(ISBLANK(L148)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2136">
+      <formula>'Program targeting'!$I$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L149">
+    <cfRule type="expression" dxfId="2" priority="2153">
+      <formula>AND('Program targeting'!$J$8&lt;&gt;"Y",NOT(ISBLANK(L149)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2154">
+      <formula>'Program targeting'!$J$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L15">
     <cfRule type="expression" dxfId="2" priority="209">
       <formula>AND('Program targeting'!$F$8&lt;&gt;"Y",NOT(ISBLANK(L15)))</formula>
@@ -7539,6 +12639,70 @@
       <formula>'Program targeting'!$F$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L152">
+    <cfRule type="expression" dxfId="2" priority="2171">
+      <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L152)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2172">
+      <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L153">
+    <cfRule type="expression" dxfId="2" priority="2189">
+      <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L153)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2190">
+      <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L154">
+    <cfRule type="expression" dxfId="2" priority="2207">
+      <formula>AND('Program targeting'!$E$8&lt;&gt;"Y",NOT(ISBLANK(L154)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2208">
+      <formula>'Program targeting'!$E$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L155">
+    <cfRule type="expression" dxfId="2" priority="2225">
+      <formula>AND('Program targeting'!$F$8&lt;&gt;"Y",NOT(ISBLANK(L155)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2226">
+      <formula>'Program targeting'!$F$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L156">
+    <cfRule type="expression" dxfId="2" priority="2243">
+      <formula>AND('Program targeting'!$G$8&lt;&gt;"Y",NOT(ISBLANK(L156)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2244">
+      <formula>'Program targeting'!$G$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L157">
+    <cfRule type="expression" dxfId="2" priority="2261">
+      <formula>AND('Program targeting'!$H$8&lt;&gt;"Y",NOT(ISBLANK(L157)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2262">
+      <formula>'Program targeting'!$H$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L158">
+    <cfRule type="expression" dxfId="2" priority="2279">
+      <formula>AND('Program targeting'!$I$8&lt;&gt;"Y",NOT(ISBLANK(L158)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2280">
+      <formula>'Program targeting'!$I$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L159">
+    <cfRule type="expression" dxfId="2" priority="2297">
+      <formula>AND('Program targeting'!$J$8&lt;&gt;"Y",NOT(ISBLANK(L159)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2298">
+      <formula>'Program targeting'!$J$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L16">
     <cfRule type="expression" dxfId="2" priority="227">
       <formula>AND('Program targeting'!$G$8&lt;&gt;"Y",NOT(ISBLANK(L16)))</formula>
@@ -8011,6 +13175,70 @@
       <formula>'Program targeting'!$I$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L82">
+    <cfRule type="expression" dxfId="2" priority="1163">
+      <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L82)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1164">
+      <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L83">
+    <cfRule type="expression" dxfId="2" priority="1181">
+      <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L83)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1182">
+      <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L84">
+    <cfRule type="expression" dxfId="2" priority="1199">
+      <formula>AND('Program targeting'!$E$8&lt;&gt;"Y",NOT(ISBLANK(L84)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1200">
+      <formula>'Program targeting'!$E$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L85">
+    <cfRule type="expression" dxfId="2" priority="1217">
+      <formula>AND('Program targeting'!$F$8&lt;&gt;"Y",NOT(ISBLANK(L85)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1218">
+      <formula>'Program targeting'!$F$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L86">
+    <cfRule type="expression" dxfId="2" priority="1235">
+      <formula>AND('Program targeting'!$G$8&lt;&gt;"Y",NOT(ISBLANK(L86)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1236">
+      <formula>'Program targeting'!$G$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L87">
+    <cfRule type="expression" dxfId="2" priority="1253">
+      <formula>AND('Program targeting'!$H$8&lt;&gt;"Y",NOT(ISBLANK(L87)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1254">
+      <formula>'Program targeting'!$H$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L88">
+    <cfRule type="expression" dxfId="2" priority="1271">
+      <formula>AND('Program targeting'!$I$8&lt;&gt;"Y",NOT(ISBLANK(L88)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1272">
+      <formula>'Program targeting'!$I$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L89">
+    <cfRule type="expression" dxfId="2" priority="1289">
+      <formula>AND('Program targeting'!$J$8&lt;&gt;"Y",NOT(ISBLANK(L89)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1290">
+      <formula>'Program targeting'!$J$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L9">
     <cfRule type="expression" dxfId="2" priority="137">
       <formula>AND('Program targeting'!$J$8&lt;&gt;"Y",NOT(ISBLANK(L9)))</formula>
@@ -8019,6 +13247,198 @@
       <formula>'Program targeting'!$J$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L92">
+    <cfRule type="expression" dxfId="2" priority="1307">
+      <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L92)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1308">
+      <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L93">
+    <cfRule type="expression" dxfId="2" priority="1325">
+      <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L93)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1326">
+      <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L94">
+    <cfRule type="expression" dxfId="2" priority="1343">
+      <formula>AND('Program targeting'!$E$8&lt;&gt;"Y",NOT(ISBLANK(L94)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1344">
+      <formula>'Program targeting'!$E$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L95">
+    <cfRule type="expression" dxfId="2" priority="1361">
+      <formula>AND('Program targeting'!$F$8&lt;&gt;"Y",NOT(ISBLANK(L95)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1362">
+      <formula>'Program targeting'!$F$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L96">
+    <cfRule type="expression" dxfId="2" priority="1379">
+      <formula>AND('Program targeting'!$G$8&lt;&gt;"Y",NOT(ISBLANK(L96)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1380">
+      <formula>'Program targeting'!$G$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L97">
+    <cfRule type="expression" dxfId="2" priority="1397">
+      <formula>AND('Program targeting'!$H$8&lt;&gt;"Y",NOT(ISBLANK(L97)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1398">
+      <formula>'Program targeting'!$H$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L98">
+    <cfRule type="expression" dxfId="2" priority="1415">
+      <formula>AND('Program targeting'!$I$8&lt;&gt;"Y",NOT(ISBLANK(L98)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1416">
+      <formula>'Program targeting'!$I$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L99">
+    <cfRule type="expression" dxfId="2" priority="1433">
+      <formula>AND('Program targeting'!$J$8&lt;&gt;"Y",NOT(ISBLANK(L99)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1434">
+      <formula>'Program targeting'!$J$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M102">
+    <cfRule type="expression" dxfId="2" priority="1453">
+      <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M102)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1454">
+      <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M103">
+    <cfRule type="expression" dxfId="2" priority="1471">
+      <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M103)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1472">
+      <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M104">
+    <cfRule type="expression" dxfId="2" priority="1489">
+      <formula>AND('Program targeting'!$E$9&lt;&gt;"Y",NOT(ISBLANK(M104)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1490">
+      <formula>'Program targeting'!$E$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M105">
+    <cfRule type="expression" dxfId="2" priority="1507">
+      <formula>AND('Program targeting'!$F$9&lt;&gt;"Y",NOT(ISBLANK(M105)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1508">
+      <formula>'Program targeting'!$F$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M106">
+    <cfRule type="expression" dxfId="2" priority="1525">
+      <formula>AND('Program targeting'!$G$9&lt;&gt;"Y",NOT(ISBLANK(M106)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1526">
+      <formula>'Program targeting'!$G$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M107">
+    <cfRule type="expression" dxfId="2" priority="1543">
+      <formula>AND('Program targeting'!$H$9&lt;&gt;"Y",NOT(ISBLANK(M107)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1544">
+      <formula>'Program targeting'!$H$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M108">
+    <cfRule type="expression" dxfId="2" priority="1561">
+      <formula>AND('Program targeting'!$I$9&lt;&gt;"Y",NOT(ISBLANK(M108)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1562">
+      <formula>'Program targeting'!$I$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M109">
+    <cfRule type="expression" dxfId="2" priority="1579">
+      <formula>AND('Program targeting'!$J$9&lt;&gt;"Y",NOT(ISBLANK(M109)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1580">
+      <formula>'Program targeting'!$J$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M112">
+    <cfRule type="expression" dxfId="2" priority="1597">
+      <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M112)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1598">
+      <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M113">
+    <cfRule type="expression" dxfId="2" priority="1615">
+      <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M113)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1616">
+      <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M114">
+    <cfRule type="expression" dxfId="2" priority="1633">
+      <formula>AND('Program targeting'!$E$9&lt;&gt;"Y",NOT(ISBLANK(M114)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1634">
+      <formula>'Program targeting'!$E$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M115">
+    <cfRule type="expression" dxfId="2" priority="1651">
+      <formula>AND('Program targeting'!$F$9&lt;&gt;"Y",NOT(ISBLANK(M115)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1652">
+      <formula>'Program targeting'!$F$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M116">
+    <cfRule type="expression" dxfId="2" priority="1669">
+      <formula>AND('Program targeting'!$G$9&lt;&gt;"Y",NOT(ISBLANK(M116)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1670">
+      <formula>'Program targeting'!$G$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M117">
+    <cfRule type="expression" dxfId="2" priority="1687">
+      <formula>AND('Program targeting'!$H$9&lt;&gt;"Y",NOT(ISBLANK(M117)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1688">
+      <formula>'Program targeting'!$H$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M118">
+    <cfRule type="expression" dxfId="2" priority="1705">
+      <formula>AND('Program targeting'!$I$9&lt;&gt;"Y",NOT(ISBLANK(M118)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1706">
+      <formula>'Program targeting'!$I$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M119">
+    <cfRule type="expression" dxfId="2" priority="1723">
+      <formula>AND('Program targeting'!$J$9&lt;&gt;"Y",NOT(ISBLANK(M119)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1724">
+      <formula>'Program targeting'!$J$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M12">
     <cfRule type="expression" dxfId="2" priority="157">
       <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M12)))</formula>
@@ -8027,6 +13447,70 @@
       <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M122">
+    <cfRule type="expression" dxfId="2" priority="1741">
+      <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M122)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1742">
+      <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M123">
+    <cfRule type="expression" dxfId="2" priority="1759">
+      <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M123)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1760">
+      <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M124">
+    <cfRule type="expression" dxfId="2" priority="1777">
+      <formula>AND('Program targeting'!$E$9&lt;&gt;"Y",NOT(ISBLANK(M124)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1778">
+      <formula>'Program targeting'!$E$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M125">
+    <cfRule type="expression" dxfId="2" priority="1795">
+      <formula>AND('Program targeting'!$F$9&lt;&gt;"Y",NOT(ISBLANK(M125)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1796">
+      <formula>'Program targeting'!$F$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M126">
+    <cfRule type="expression" dxfId="2" priority="1813">
+      <formula>AND('Program targeting'!$G$9&lt;&gt;"Y",NOT(ISBLANK(M126)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1814">
+      <formula>'Program targeting'!$G$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M127">
+    <cfRule type="expression" dxfId="2" priority="1831">
+      <formula>AND('Program targeting'!$H$9&lt;&gt;"Y",NOT(ISBLANK(M127)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1832">
+      <formula>'Program targeting'!$H$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M128">
+    <cfRule type="expression" dxfId="2" priority="1849">
+      <formula>AND('Program targeting'!$I$9&lt;&gt;"Y",NOT(ISBLANK(M128)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1850">
+      <formula>'Program targeting'!$I$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M129">
+    <cfRule type="expression" dxfId="2" priority="1867">
+      <formula>AND('Program targeting'!$J$9&lt;&gt;"Y",NOT(ISBLANK(M129)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1868">
+      <formula>'Program targeting'!$J$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M13">
     <cfRule type="expression" dxfId="2" priority="175">
       <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M13)))</formula>
@@ -8035,6 +13519,70 @@
       <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M132">
+    <cfRule type="expression" dxfId="2" priority="1885">
+      <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M132)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1886">
+      <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M133">
+    <cfRule type="expression" dxfId="2" priority="1903">
+      <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M133)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1904">
+      <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M134">
+    <cfRule type="expression" dxfId="2" priority="1921">
+      <formula>AND('Program targeting'!$E$9&lt;&gt;"Y",NOT(ISBLANK(M134)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1922">
+      <formula>'Program targeting'!$E$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M135">
+    <cfRule type="expression" dxfId="2" priority="1939">
+      <formula>AND('Program targeting'!$F$9&lt;&gt;"Y",NOT(ISBLANK(M135)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1940">
+      <formula>'Program targeting'!$F$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M136">
+    <cfRule type="expression" dxfId="2" priority="1957">
+      <formula>AND('Program targeting'!$G$9&lt;&gt;"Y",NOT(ISBLANK(M136)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1958">
+      <formula>'Program targeting'!$G$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M137">
+    <cfRule type="expression" dxfId="2" priority="1975">
+      <formula>AND('Program targeting'!$H$9&lt;&gt;"Y",NOT(ISBLANK(M137)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1976">
+      <formula>'Program targeting'!$H$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M138">
+    <cfRule type="expression" dxfId="2" priority="1993">
+      <formula>AND('Program targeting'!$I$9&lt;&gt;"Y",NOT(ISBLANK(M138)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1994">
+      <formula>'Program targeting'!$I$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M139">
+    <cfRule type="expression" dxfId="2" priority="2011">
+      <formula>AND('Program targeting'!$J$9&lt;&gt;"Y",NOT(ISBLANK(M139)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2012">
+      <formula>'Program targeting'!$J$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M14">
     <cfRule type="expression" dxfId="2" priority="193">
       <formula>AND('Program targeting'!$E$9&lt;&gt;"Y",NOT(ISBLANK(M14)))</formula>
@@ -8043,6 +13591,70 @@
       <formula>'Program targeting'!$E$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M142">
+    <cfRule type="expression" dxfId="2" priority="2029">
+      <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M142)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2030">
+      <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M143">
+    <cfRule type="expression" dxfId="2" priority="2047">
+      <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M143)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2048">
+      <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M144">
+    <cfRule type="expression" dxfId="2" priority="2065">
+      <formula>AND('Program targeting'!$E$9&lt;&gt;"Y",NOT(ISBLANK(M144)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2066">
+      <formula>'Program targeting'!$E$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M145">
+    <cfRule type="expression" dxfId="2" priority="2083">
+      <formula>AND('Program targeting'!$F$9&lt;&gt;"Y",NOT(ISBLANK(M145)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2084">
+      <formula>'Program targeting'!$F$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M146">
+    <cfRule type="expression" dxfId="2" priority="2101">
+      <formula>AND('Program targeting'!$G$9&lt;&gt;"Y",NOT(ISBLANK(M146)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2102">
+      <formula>'Program targeting'!$G$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M147">
+    <cfRule type="expression" dxfId="2" priority="2119">
+      <formula>AND('Program targeting'!$H$9&lt;&gt;"Y",NOT(ISBLANK(M147)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2120">
+      <formula>'Program targeting'!$H$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M148">
+    <cfRule type="expression" dxfId="2" priority="2137">
+      <formula>AND('Program targeting'!$I$9&lt;&gt;"Y",NOT(ISBLANK(M148)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2138">
+      <formula>'Program targeting'!$I$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M149">
+    <cfRule type="expression" dxfId="2" priority="2155">
+      <formula>AND('Program targeting'!$J$9&lt;&gt;"Y",NOT(ISBLANK(M149)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2156">
+      <formula>'Program targeting'!$J$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M15">
     <cfRule type="expression" dxfId="2" priority="211">
       <formula>AND('Program targeting'!$F$9&lt;&gt;"Y",NOT(ISBLANK(M15)))</formula>
@@ -8051,6 +13663,70 @@
       <formula>'Program targeting'!$F$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M152">
+    <cfRule type="expression" dxfId="2" priority="2173">
+      <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M152)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2174">
+      <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M153">
+    <cfRule type="expression" dxfId="2" priority="2191">
+      <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M153)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2192">
+      <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M154">
+    <cfRule type="expression" dxfId="2" priority="2209">
+      <formula>AND('Program targeting'!$E$9&lt;&gt;"Y",NOT(ISBLANK(M154)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2210">
+      <formula>'Program targeting'!$E$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M155">
+    <cfRule type="expression" dxfId="2" priority="2227">
+      <formula>AND('Program targeting'!$F$9&lt;&gt;"Y",NOT(ISBLANK(M155)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2228">
+      <formula>'Program targeting'!$F$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M156">
+    <cfRule type="expression" dxfId="2" priority="2245">
+      <formula>AND('Program targeting'!$G$9&lt;&gt;"Y",NOT(ISBLANK(M156)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2246">
+      <formula>'Program targeting'!$G$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M157">
+    <cfRule type="expression" dxfId="2" priority="2263">
+      <formula>AND('Program targeting'!$H$9&lt;&gt;"Y",NOT(ISBLANK(M157)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2264">
+      <formula>'Program targeting'!$H$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M158">
+    <cfRule type="expression" dxfId="2" priority="2281">
+      <formula>AND('Program targeting'!$I$9&lt;&gt;"Y",NOT(ISBLANK(M158)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2282">
+      <formula>'Program targeting'!$I$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M159">
+    <cfRule type="expression" dxfId="2" priority="2299">
+      <formula>AND('Program targeting'!$J$9&lt;&gt;"Y",NOT(ISBLANK(M159)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2300">
+      <formula>'Program targeting'!$J$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M16">
     <cfRule type="expression" dxfId="2" priority="229">
       <formula>AND('Program targeting'!$G$9&lt;&gt;"Y",NOT(ISBLANK(M16)))</formula>
@@ -8523,6 +14199,70 @@
       <formula>'Program targeting'!$I$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M82">
+    <cfRule type="expression" dxfId="2" priority="1165">
+      <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M82)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1166">
+      <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M83">
+    <cfRule type="expression" dxfId="2" priority="1183">
+      <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M83)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1184">
+      <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M84">
+    <cfRule type="expression" dxfId="2" priority="1201">
+      <formula>AND('Program targeting'!$E$9&lt;&gt;"Y",NOT(ISBLANK(M84)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1202">
+      <formula>'Program targeting'!$E$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M85">
+    <cfRule type="expression" dxfId="2" priority="1219">
+      <formula>AND('Program targeting'!$F$9&lt;&gt;"Y",NOT(ISBLANK(M85)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1220">
+      <formula>'Program targeting'!$F$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M86">
+    <cfRule type="expression" dxfId="2" priority="1237">
+      <formula>AND('Program targeting'!$G$9&lt;&gt;"Y",NOT(ISBLANK(M86)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1238">
+      <formula>'Program targeting'!$G$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M87">
+    <cfRule type="expression" dxfId="2" priority="1255">
+      <formula>AND('Program targeting'!$H$9&lt;&gt;"Y",NOT(ISBLANK(M87)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1256">
+      <formula>'Program targeting'!$H$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M88">
+    <cfRule type="expression" dxfId="2" priority="1273">
+      <formula>AND('Program targeting'!$I$9&lt;&gt;"Y",NOT(ISBLANK(M88)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1274">
+      <formula>'Program targeting'!$I$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M89">
+    <cfRule type="expression" dxfId="2" priority="1291">
+      <formula>AND('Program targeting'!$J$9&lt;&gt;"Y",NOT(ISBLANK(M89)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1292">
+      <formula>'Program targeting'!$J$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M9">
     <cfRule type="expression" dxfId="2" priority="139">
       <formula>AND('Program targeting'!$J$9&lt;&gt;"Y",NOT(ISBLANK(M9)))</formula>
@@ -8531,6 +14271,198 @@
       <formula>'Program targeting'!$J$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M92">
+    <cfRule type="expression" dxfId="2" priority="1309">
+      <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M92)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1310">
+      <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M93">
+    <cfRule type="expression" dxfId="2" priority="1327">
+      <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M93)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1328">
+      <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M94">
+    <cfRule type="expression" dxfId="2" priority="1345">
+      <formula>AND('Program targeting'!$E$9&lt;&gt;"Y",NOT(ISBLANK(M94)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1346">
+      <formula>'Program targeting'!$E$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M95">
+    <cfRule type="expression" dxfId="2" priority="1363">
+      <formula>AND('Program targeting'!$F$9&lt;&gt;"Y",NOT(ISBLANK(M95)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1364">
+      <formula>'Program targeting'!$F$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M96">
+    <cfRule type="expression" dxfId="2" priority="1381">
+      <formula>AND('Program targeting'!$G$9&lt;&gt;"Y",NOT(ISBLANK(M96)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1382">
+      <formula>'Program targeting'!$G$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M97">
+    <cfRule type="expression" dxfId="2" priority="1399">
+      <formula>AND('Program targeting'!$H$9&lt;&gt;"Y",NOT(ISBLANK(M97)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1400">
+      <formula>'Program targeting'!$H$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M98">
+    <cfRule type="expression" dxfId="2" priority="1417">
+      <formula>AND('Program targeting'!$I$9&lt;&gt;"Y",NOT(ISBLANK(M98)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1418">
+      <formula>'Program targeting'!$I$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M99">
+    <cfRule type="expression" dxfId="2" priority="1435">
+      <formula>AND('Program targeting'!$J$9&lt;&gt;"Y",NOT(ISBLANK(M99)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1436">
+      <formula>'Program targeting'!$J$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N102">
+    <cfRule type="expression" dxfId="2" priority="1455">
+      <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N102)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1456">
+      <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N103">
+    <cfRule type="expression" dxfId="2" priority="1473">
+      <formula>AND('Program targeting'!$D$10&lt;&gt;"Y",NOT(ISBLANK(N103)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1474">
+      <formula>'Program targeting'!$D$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N104">
+    <cfRule type="expression" dxfId="2" priority="1491">
+      <formula>AND('Program targeting'!$E$10&lt;&gt;"Y",NOT(ISBLANK(N104)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1492">
+      <formula>'Program targeting'!$E$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N105">
+    <cfRule type="expression" dxfId="2" priority="1509">
+      <formula>AND('Program targeting'!$F$10&lt;&gt;"Y",NOT(ISBLANK(N105)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1510">
+      <formula>'Program targeting'!$F$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N106">
+    <cfRule type="expression" dxfId="2" priority="1527">
+      <formula>AND('Program targeting'!$G$10&lt;&gt;"Y",NOT(ISBLANK(N106)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1528">
+      <formula>'Program targeting'!$G$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N107">
+    <cfRule type="expression" dxfId="2" priority="1545">
+      <formula>AND('Program targeting'!$H$10&lt;&gt;"Y",NOT(ISBLANK(N107)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1546">
+      <formula>'Program targeting'!$H$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N108">
+    <cfRule type="expression" dxfId="2" priority="1563">
+      <formula>AND('Program targeting'!$I$10&lt;&gt;"Y",NOT(ISBLANK(N108)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1564">
+      <formula>'Program targeting'!$I$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N109">
+    <cfRule type="expression" dxfId="2" priority="1581">
+      <formula>AND('Program targeting'!$J$10&lt;&gt;"Y",NOT(ISBLANK(N109)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1582">
+      <formula>'Program targeting'!$J$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N112">
+    <cfRule type="expression" dxfId="2" priority="1599">
+      <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N112)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1600">
+      <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N113">
+    <cfRule type="expression" dxfId="2" priority="1617">
+      <formula>AND('Program targeting'!$D$10&lt;&gt;"Y",NOT(ISBLANK(N113)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1618">
+      <formula>'Program targeting'!$D$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N114">
+    <cfRule type="expression" dxfId="2" priority="1635">
+      <formula>AND('Program targeting'!$E$10&lt;&gt;"Y",NOT(ISBLANK(N114)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1636">
+      <formula>'Program targeting'!$E$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N115">
+    <cfRule type="expression" dxfId="2" priority="1653">
+      <formula>AND('Program targeting'!$F$10&lt;&gt;"Y",NOT(ISBLANK(N115)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1654">
+      <formula>'Program targeting'!$F$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N116">
+    <cfRule type="expression" dxfId="2" priority="1671">
+      <formula>AND('Program targeting'!$G$10&lt;&gt;"Y",NOT(ISBLANK(N116)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1672">
+      <formula>'Program targeting'!$G$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N117">
+    <cfRule type="expression" dxfId="2" priority="1689">
+      <formula>AND('Program targeting'!$H$10&lt;&gt;"Y",NOT(ISBLANK(N117)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1690">
+      <formula>'Program targeting'!$H$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N118">
+    <cfRule type="expression" dxfId="2" priority="1707">
+      <formula>AND('Program targeting'!$I$10&lt;&gt;"Y",NOT(ISBLANK(N118)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1708">
+      <formula>'Program targeting'!$I$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N119">
+    <cfRule type="expression" dxfId="2" priority="1725">
+      <formula>AND('Program targeting'!$J$10&lt;&gt;"Y",NOT(ISBLANK(N119)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1726">
+      <formula>'Program targeting'!$J$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N12">
     <cfRule type="expression" dxfId="2" priority="159">
       <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N12)))</formula>
@@ -8539,6 +14471,70 @@
       <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N122">
+    <cfRule type="expression" dxfId="2" priority="1743">
+      <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N122)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1744">
+      <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N123">
+    <cfRule type="expression" dxfId="2" priority="1761">
+      <formula>AND('Program targeting'!$D$10&lt;&gt;"Y",NOT(ISBLANK(N123)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1762">
+      <formula>'Program targeting'!$D$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N124">
+    <cfRule type="expression" dxfId="2" priority="1779">
+      <formula>AND('Program targeting'!$E$10&lt;&gt;"Y",NOT(ISBLANK(N124)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1780">
+      <formula>'Program targeting'!$E$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N125">
+    <cfRule type="expression" dxfId="2" priority="1797">
+      <formula>AND('Program targeting'!$F$10&lt;&gt;"Y",NOT(ISBLANK(N125)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1798">
+      <formula>'Program targeting'!$F$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N126">
+    <cfRule type="expression" dxfId="2" priority="1815">
+      <formula>AND('Program targeting'!$G$10&lt;&gt;"Y",NOT(ISBLANK(N126)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1816">
+      <formula>'Program targeting'!$G$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N127">
+    <cfRule type="expression" dxfId="2" priority="1833">
+      <formula>AND('Program targeting'!$H$10&lt;&gt;"Y",NOT(ISBLANK(N127)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1834">
+      <formula>'Program targeting'!$H$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N128">
+    <cfRule type="expression" dxfId="2" priority="1851">
+      <formula>AND('Program targeting'!$I$10&lt;&gt;"Y",NOT(ISBLANK(N128)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1852">
+      <formula>'Program targeting'!$I$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N129">
+    <cfRule type="expression" dxfId="2" priority="1869">
+      <formula>AND('Program targeting'!$J$10&lt;&gt;"Y",NOT(ISBLANK(N129)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1870">
+      <formula>'Program targeting'!$J$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N13">
     <cfRule type="expression" dxfId="2" priority="177">
       <formula>AND('Program targeting'!$D$10&lt;&gt;"Y",NOT(ISBLANK(N13)))</formula>
@@ -8547,6 +14543,70 @@
       <formula>'Program targeting'!$D$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N132">
+    <cfRule type="expression" dxfId="2" priority="1887">
+      <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N132)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1888">
+      <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N133">
+    <cfRule type="expression" dxfId="2" priority="1905">
+      <formula>AND('Program targeting'!$D$10&lt;&gt;"Y",NOT(ISBLANK(N133)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1906">
+      <formula>'Program targeting'!$D$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N134">
+    <cfRule type="expression" dxfId="2" priority="1923">
+      <formula>AND('Program targeting'!$E$10&lt;&gt;"Y",NOT(ISBLANK(N134)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1924">
+      <formula>'Program targeting'!$E$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N135">
+    <cfRule type="expression" dxfId="2" priority="1941">
+      <formula>AND('Program targeting'!$F$10&lt;&gt;"Y",NOT(ISBLANK(N135)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1942">
+      <formula>'Program targeting'!$F$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N136">
+    <cfRule type="expression" dxfId="2" priority="1959">
+      <formula>AND('Program targeting'!$G$10&lt;&gt;"Y",NOT(ISBLANK(N136)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1960">
+      <formula>'Program targeting'!$G$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N137">
+    <cfRule type="expression" dxfId="2" priority="1977">
+      <formula>AND('Program targeting'!$H$10&lt;&gt;"Y",NOT(ISBLANK(N137)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1978">
+      <formula>'Program targeting'!$H$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N138">
+    <cfRule type="expression" dxfId="2" priority="1995">
+      <formula>AND('Program targeting'!$I$10&lt;&gt;"Y",NOT(ISBLANK(N138)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1996">
+      <formula>'Program targeting'!$I$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N139">
+    <cfRule type="expression" dxfId="2" priority="2013">
+      <formula>AND('Program targeting'!$J$10&lt;&gt;"Y",NOT(ISBLANK(N139)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2014">
+      <formula>'Program targeting'!$J$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N14">
     <cfRule type="expression" dxfId="2" priority="195">
       <formula>AND('Program targeting'!$E$10&lt;&gt;"Y",NOT(ISBLANK(N14)))</formula>
@@ -8555,6 +14615,70 @@
       <formula>'Program targeting'!$E$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N142">
+    <cfRule type="expression" dxfId="2" priority="2031">
+      <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N142)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2032">
+      <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N143">
+    <cfRule type="expression" dxfId="2" priority="2049">
+      <formula>AND('Program targeting'!$D$10&lt;&gt;"Y",NOT(ISBLANK(N143)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2050">
+      <formula>'Program targeting'!$D$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N144">
+    <cfRule type="expression" dxfId="2" priority="2067">
+      <formula>AND('Program targeting'!$E$10&lt;&gt;"Y",NOT(ISBLANK(N144)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2068">
+      <formula>'Program targeting'!$E$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N145">
+    <cfRule type="expression" dxfId="2" priority="2085">
+      <formula>AND('Program targeting'!$F$10&lt;&gt;"Y",NOT(ISBLANK(N145)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2086">
+      <formula>'Program targeting'!$F$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N146">
+    <cfRule type="expression" dxfId="2" priority="2103">
+      <formula>AND('Program targeting'!$G$10&lt;&gt;"Y",NOT(ISBLANK(N146)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2104">
+      <formula>'Program targeting'!$G$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N147">
+    <cfRule type="expression" dxfId="2" priority="2121">
+      <formula>AND('Program targeting'!$H$10&lt;&gt;"Y",NOT(ISBLANK(N147)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2122">
+      <formula>'Program targeting'!$H$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N148">
+    <cfRule type="expression" dxfId="2" priority="2139">
+      <formula>AND('Program targeting'!$I$10&lt;&gt;"Y",NOT(ISBLANK(N148)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2140">
+      <formula>'Program targeting'!$I$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N149">
+    <cfRule type="expression" dxfId="2" priority="2157">
+      <formula>AND('Program targeting'!$J$10&lt;&gt;"Y",NOT(ISBLANK(N149)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2158">
+      <formula>'Program targeting'!$J$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N15">
     <cfRule type="expression" dxfId="2" priority="213">
       <formula>AND('Program targeting'!$F$10&lt;&gt;"Y",NOT(ISBLANK(N15)))</formula>
@@ -8563,6 +14687,70 @@
       <formula>'Program targeting'!$F$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N152">
+    <cfRule type="expression" dxfId="2" priority="2175">
+      <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N152)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2176">
+      <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N153">
+    <cfRule type="expression" dxfId="2" priority="2193">
+      <formula>AND('Program targeting'!$D$10&lt;&gt;"Y",NOT(ISBLANK(N153)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2194">
+      <formula>'Program targeting'!$D$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N154">
+    <cfRule type="expression" dxfId="2" priority="2211">
+      <formula>AND('Program targeting'!$E$10&lt;&gt;"Y",NOT(ISBLANK(N154)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2212">
+      <formula>'Program targeting'!$E$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N155">
+    <cfRule type="expression" dxfId="2" priority="2229">
+      <formula>AND('Program targeting'!$F$10&lt;&gt;"Y",NOT(ISBLANK(N155)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2230">
+      <formula>'Program targeting'!$F$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N156">
+    <cfRule type="expression" dxfId="2" priority="2247">
+      <formula>AND('Program targeting'!$G$10&lt;&gt;"Y",NOT(ISBLANK(N156)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2248">
+      <formula>'Program targeting'!$G$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N157">
+    <cfRule type="expression" dxfId="2" priority="2265">
+      <formula>AND('Program targeting'!$H$10&lt;&gt;"Y",NOT(ISBLANK(N157)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2266">
+      <formula>'Program targeting'!$H$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N158">
+    <cfRule type="expression" dxfId="2" priority="2283">
+      <formula>AND('Program targeting'!$I$10&lt;&gt;"Y",NOT(ISBLANK(N158)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2284">
+      <formula>'Program targeting'!$I$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N159">
+    <cfRule type="expression" dxfId="2" priority="2301">
+      <formula>AND('Program targeting'!$J$10&lt;&gt;"Y",NOT(ISBLANK(N159)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2302">
+      <formula>'Program targeting'!$J$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N16">
     <cfRule type="expression" dxfId="2" priority="231">
       <formula>AND('Program targeting'!$G$10&lt;&gt;"Y",NOT(ISBLANK(N16)))</formula>
@@ -9035,6 +15223,70 @@
       <formula>'Program targeting'!$I$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N82">
+    <cfRule type="expression" dxfId="2" priority="1167">
+      <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N82)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1168">
+      <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N83">
+    <cfRule type="expression" dxfId="2" priority="1185">
+      <formula>AND('Program targeting'!$D$10&lt;&gt;"Y",NOT(ISBLANK(N83)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1186">
+      <formula>'Program targeting'!$D$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N84">
+    <cfRule type="expression" dxfId="2" priority="1203">
+      <formula>AND('Program targeting'!$E$10&lt;&gt;"Y",NOT(ISBLANK(N84)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1204">
+      <formula>'Program targeting'!$E$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N85">
+    <cfRule type="expression" dxfId="2" priority="1221">
+      <formula>AND('Program targeting'!$F$10&lt;&gt;"Y",NOT(ISBLANK(N85)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1222">
+      <formula>'Program targeting'!$F$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N86">
+    <cfRule type="expression" dxfId="2" priority="1239">
+      <formula>AND('Program targeting'!$G$10&lt;&gt;"Y",NOT(ISBLANK(N86)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1240">
+      <formula>'Program targeting'!$G$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N87">
+    <cfRule type="expression" dxfId="2" priority="1257">
+      <formula>AND('Program targeting'!$H$10&lt;&gt;"Y",NOT(ISBLANK(N87)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1258">
+      <formula>'Program targeting'!$H$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N88">
+    <cfRule type="expression" dxfId="2" priority="1275">
+      <formula>AND('Program targeting'!$I$10&lt;&gt;"Y",NOT(ISBLANK(N88)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1276">
+      <formula>'Program targeting'!$I$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N89">
+    <cfRule type="expression" dxfId="2" priority="1293">
+      <formula>AND('Program targeting'!$J$10&lt;&gt;"Y",NOT(ISBLANK(N89)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1294">
+      <formula>'Program targeting'!$J$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N9">
     <cfRule type="expression" dxfId="2" priority="141">
       <formula>AND('Program targeting'!$J$10&lt;&gt;"Y",NOT(ISBLANK(N9)))</formula>
@@ -9043,7 +15295,71 @@
       <formula>'Program targeting'!$J$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="64">
+  <conditionalFormatting sqref="N92">
+    <cfRule type="expression" dxfId="2" priority="1311">
+      <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N92)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1312">
+      <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N93">
+    <cfRule type="expression" dxfId="2" priority="1329">
+      <formula>AND('Program targeting'!$D$10&lt;&gt;"Y",NOT(ISBLANK(N93)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1330">
+      <formula>'Program targeting'!$D$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N94">
+    <cfRule type="expression" dxfId="2" priority="1347">
+      <formula>AND('Program targeting'!$E$10&lt;&gt;"Y",NOT(ISBLANK(N94)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1348">
+      <formula>'Program targeting'!$E$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N95">
+    <cfRule type="expression" dxfId="2" priority="1365">
+      <formula>AND('Program targeting'!$F$10&lt;&gt;"Y",NOT(ISBLANK(N95)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1366">
+      <formula>'Program targeting'!$F$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N96">
+    <cfRule type="expression" dxfId="2" priority="1383">
+      <formula>AND('Program targeting'!$G$10&lt;&gt;"Y",NOT(ISBLANK(N96)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1384">
+      <formula>'Program targeting'!$G$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N97">
+    <cfRule type="expression" dxfId="2" priority="1401">
+      <formula>AND('Program targeting'!$H$10&lt;&gt;"Y",NOT(ISBLANK(N97)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1402">
+      <formula>'Program targeting'!$H$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N98">
+    <cfRule type="expression" dxfId="2" priority="1419">
+      <formula>AND('Program targeting'!$I$10&lt;&gt;"Y",NOT(ISBLANK(N98)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1420">
+      <formula>'Program targeting'!$I$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N99">
+    <cfRule type="expression" dxfId="2" priority="1437">
+      <formula>AND('Program targeting'!$J$10&lt;&gt;"Y",NOT(ISBLANK(N99)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1438">
+      <formula>'Program targeting'!$J$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="128">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
@@ -9234,6 +15550,198 @@
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C79">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C82">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C83">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C84">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C85">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C86">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C87">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C88">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C89">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C92">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C93">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C94">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C95">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C96">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C97">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C98">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C99">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C102">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C103">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C104">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C105">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C106">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C107">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C108">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C109">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C112">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C113">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C114">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C115">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C116">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C117">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C118">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C119">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C122">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C123">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C124">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C125">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C126">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C127">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C128">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C129">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C132">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C133">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C134">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C135">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C136">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C137">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C138">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C139">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C142">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C143">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C144">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C145">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C146">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C147">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C148">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C149">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C152">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C153">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C154">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C155">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C156">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C157">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C158">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C159">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
   </dataValidations>
